--- a/data_raw/TMDL_db_tabular.xlsx
+++ b/data_raw/TMDL_db_tabular.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Planning statewide\TMDL_DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GitHub\odeqtmdl\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="780" windowWidth="27075" windowHeight="13905"/>
+    <workbookView xWindow="555" yWindow="780" windowWidth="27075" windowHeight="13905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tmdl_actions_table" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="552">
   <si>
     <t>Total Phosphorus</t>
   </si>
@@ -1385,9 +1385,6 @@
     <t>Total Phosphorus, BOD5, Ammonia</t>
   </si>
   <si>
-    <t>CBOD5, Total Suspended Solids, Ammonia Nitrogen (NH3-N)</t>
-  </si>
-  <si>
     <t>CBOD5, Ammonia Nitrogen (NH3-N)</t>
   </si>
   <si>
@@ -1397,15 +1394,6 @@
     <t>BOD</t>
   </si>
   <si>
-    <t>pH, Dissolved Oxygen, Nutrients, Periphyton, Temperature</t>
-  </si>
-  <si>
-    <t>Dissoloved ortho phosphate as phosphorus (PO4-P), Ammonia</t>
-  </si>
-  <si>
-    <t>Algae, pH, Bacteria (water contact recreation), DDT/DDE, dieldrin, dioxin, PCBs, Dissolved Oxygen, Lead</t>
-  </si>
-  <si>
     <t>Total Phosphorus, E. coli, DDT/DDE, dieldrin, dioxin, PCBs, BOD5, Lead</t>
   </si>
   <si>
@@ -1508,9 +1496,6 @@
     <t>Bacteria (water contact recreation), Dissolved Oxygen, Chlorophyll a, pH, Temperature</t>
   </si>
   <si>
-    <t>E. coli, fecal coliform, Total Phopshorus, Heat</t>
-  </si>
-  <si>
     <t>Bacteria (water contact recreation), Dissolved Oxygen, Temperature</t>
   </si>
   <si>
@@ -1680,6 +1665,30 @@
   </si>
   <si>
     <t>All 303(d) water quality limited parameters being addressed by the TMDL action.</t>
+  </si>
+  <si>
+    <t>pH, Dissolved Oxygen, Periphyton Growth, Ammonia Toxicity</t>
+  </si>
+  <si>
+    <t>Algae, pH, Bacteria (water contact recreation), Total Phosphorus, DDT/DDE, dieldrin, dioxin, PCBs, Dissolved Oxygen, Lead</t>
+  </si>
+  <si>
+    <t>v20211116</t>
+  </si>
+  <si>
+    <t>CBOD5, Total Suspended Solids, Ammonia Nitrogen (NH3-N), minimum dissolved oxygen, Ultimate Biochemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t>Dissolved orthophosphate as phosphorus (PO4-P), Ammonia</t>
+  </si>
+  <si>
+    <t>E. coli, fecal coliform, Total Phosphorus, Heat</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>Added minimum dissolved oxygen and ultimate biochemical oxygen demand to the list of pollutants for the Pudding TMDL (action ID 2037).</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1901,7 +1910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2184,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2209,7 @@
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2221,13 +2229,13 @@
         <v>406</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>423</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>420</v>
@@ -2236,10 +2244,10 @@
         <v>436</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2259,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I2" s="26">
         <v>32408</v>
@@ -2301,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I3" s="28">
         <v>32408</v>
@@ -2337,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I4" s="28">
         <v>33294</v>
@@ -2373,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I5" s="26">
         <v>33462</v>
@@ -2401,12 +2409,15 @@
       <c r="D6" s="2" t="s">
         <v>430</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
       <c r="F6" s="22"/>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I6" s="28">
         <v>33462</v>
@@ -2442,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I7" s="28">
         <v>33462</v>
@@ -2451,15 +2462,15 @@
         <v>33679</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="L7" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>2037</v>
+      <c r="A8" s="24" t="s">
+        <v>550</v>
       </c>
       <c r="B8" t="s">
         <v>362</v>
@@ -2478,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I8" s="28">
         <v>34182</v>
@@ -2490,7 +2501,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>450</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2514,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I9" s="28">
         <v>34304</v>
@@ -2526,7 +2537,7 @@
         <v>61</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2546,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I10" s="26">
         <v>34330</v>
@@ -2561,7 +2572,7 @@
         <v>34361</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L10" s="39" t="s">
         <v>0</v>
@@ -2588,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I11" s="28">
         <v>34394</v>
@@ -2600,7 +2611,7 @@
         <v>61</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2624,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I12" s="26">
         <v>34974</v>
@@ -2633,10 +2644,10 @@
         <v>35202</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>454</v>
+        <v>544</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>455</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2660,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I13" s="26">
         <v>36039</v>
@@ -2669,10 +2680,10 @@
         <v>36124</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>456</v>
+        <v>545</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2696,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I14" s="26">
         <v>36220</v>
@@ -2708,7 +2719,7 @@
         <v>83</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2732,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I15" s="26">
         <v>36617</v>
@@ -2741,10 +2752,10 @@
         <v>36649</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2768,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I16" s="26">
         <v>36892</v>
@@ -2780,7 +2791,7 @@
         <v>83</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2804,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I17" s="26">
         <v>36951</v>
@@ -2813,10 +2824,10 @@
         <v>37020</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2840,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I18" s="26">
         <v>37043</v>
@@ -2849,10 +2860,10 @@
         <v>37103</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2876,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I19" s="26">
         <v>37104</v>
@@ -2885,7 +2896,7 @@
         <v>37110</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L19" s="22" t="s">
         <v>0</v>
@@ -2912,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I20" s="26">
         <v>37226</v>
@@ -2921,10 +2932,10 @@
         <v>37285</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2944,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I21" s="26">
         <v>37226</v>
@@ -2962,7 +2973,7 @@
         <v>83</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2986,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I22" s="26">
         <v>37347</v>
@@ -2998,7 +3009,7 @@
         <v>83</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3022,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I23" s="26">
         <v>37347</v>
@@ -3034,7 +3045,7 @@
         <v>83</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3058,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I24" s="26">
         <v>37347</v>
@@ -3067,10 +3078,10 @@
         <v>37389</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3094,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I25" s="26">
         <v>37377</v>
@@ -3103,10 +3114,10 @@
         <v>37475</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3120,7 +3131,7 @@
         <v>2002</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -3130,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I26" s="26">
         <v>37526</v>
@@ -3139,10 +3150,10 @@
         <v>37578</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L26" s="41" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3156,29 +3167,29 @@
         <v>2003</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I27" s="28">
         <v>37817</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="33" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3202,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I28" s="26">
         <v>37831</v>
@@ -3211,10 +3222,10 @@
         <v>37853</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3238,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I29" s="26">
         <v>37998</v>
@@ -3247,10 +3258,10 @@
         <v>38028</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3274,17 +3285,17 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I30" s="28">
         <v>37998</v>
       </c>
       <c r="J30" s="27"/>
       <c r="K30" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3304,23 +3315,23 @@
         <v>1</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I31" s="28">
         <v>38090</v>
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3334,7 +3345,7 @@
         <v>2004</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -3344,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I32" s="26">
         <v>38139</v>
@@ -3353,10 +3364,10 @@
         <v>38239</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3380,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I33" s="26">
         <v>38425</v>
@@ -3389,10 +3400,10 @@
         <v>38456</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3416,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I34" s="26">
         <v>38608</v>
@@ -3428,10 +3439,10 @@
         <v>83</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>30674</v>
       </c>
@@ -3452,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I35" s="26">
         <v>38981</v>
@@ -3461,10 +3472,10 @@
         <v>38989</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3488,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I36" s="26">
         <v>39021</v>
@@ -3497,10 +3508,10 @@
         <v>39184</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L36" s="40" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3520,13 +3531,13 @@
         <v>1</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I37" s="26">
         <v>39069</v>
@@ -3535,10 +3546,10 @@
         <v>38892</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L37" s="40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3562,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I38" s="26">
         <v>39113</v>
@@ -3571,10 +3582,10 @@
         <v>39132</v>
       </c>
       <c r="K38" s="33" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3598,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I39" s="30">
         <v>39136</v>
@@ -3607,10 +3618,10 @@
         <v>39233</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L39" s="35" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3634,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I40" s="26">
         <v>39287</v>
@@ -3643,10 +3654,10 @@
         <v>39357</v>
       </c>
       <c r="K40" s="33" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3670,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I41" s="26">
         <v>39790</v>
@@ -3679,10 +3690,10 @@
         <v>39813</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3706,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I42" s="26">
         <v>39804</v>
@@ -3715,10 +3726,10 @@
         <v>39811</v>
       </c>
       <c r="K42" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3742,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I43" s="26">
         <v>39811</v>
@@ -3754,7 +3765,7 @@
         <v>83</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3778,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I44" s="26">
         <v>40437</v>
@@ -3787,10 +3798,10 @@
         <v>40445</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3814,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I45" s="26">
         <v>40450</v>
@@ -3823,10 +3834,10 @@
         <v>40515</v>
       </c>
       <c r="K45" s="33" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L45" s="35" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3850,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I46" s="26">
         <v>40491</v>
@@ -3859,10 +3870,10 @@
         <v>40529</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -3882,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I47" s="26">
         <v>40533</v>
@@ -3897,10 +3908,10 @@
         <v>41049</v>
       </c>
       <c r="K47" s="33" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3920,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -3938,7 +3949,7 @@
         <v>83</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3971,10 +3982,10 @@
         <v>41257</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3994,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -4007,10 +4018,10 @@
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="33" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4034,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I51" s="26">
         <v>43147</v>
@@ -4046,10 +4057,10 @@
         <v>83</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>416</v>
       </c>
@@ -4070,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I52" s="26">
         <v>43481</v>
@@ -4079,10 +4090,10 @@
         <v>43536</v>
       </c>
       <c r="K52" s="33" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4106,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I53" s="26">
         <v>43727</v>
@@ -4118,7 +4129,7 @@
         <v>83</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -4138,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -4153,15 +4164,15 @@
         <v>43798</v>
       </c>
       <c r="K54" s="37" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L54" s="35" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B55" t="s">
         <v>410</v>
@@ -4179,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I55" s="32">
         <v>43829</v>
@@ -4188,10 +4199,10 @@
         <v>44231</v>
       </c>
       <c r="K55" s="37" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4214,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I56" s="26">
         <v>43969</v>
@@ -4226,7 +4237,7 @@
         <v>83</v>
       </c>
       <c r="L56" s="35" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4388,10 +4399,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C7" s="5" t="b">
         <v>1</v>
@@ -5423,7 +5434,7 @@
         <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C54" s="5" t="b">
         <v>1</v>
@@ -6890,7 +6901,7 @@
         <v>270</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -6911,12 +6922,12 @@
         <v>43738</v>
       </c>
       <c r="P7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B8" s="42">
         <v>1352</v>
@@ -6955,7 +6966,7 @@
         <v>43769</v>
       </c>
       <c r="P8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -15405,8 +15416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15421,10 +15432,10 @@
         <v>274</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -15517,52 +15528,58 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B10" s="46">
         <v>44046</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B11" s="46">
         <v>44049</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B12" s="46">
         <v>44118</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B13" s="46">
         <v>44466</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="B14" s="46">
+        <v>44516</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
@@ -15709,7 +15726,7 @@
         <v>389</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
@@ -15729,7 +15746,7 @@
         <v>429</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
@@ -15766,10 +15783,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
@@ -15806,16 +15823,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" t="s">
         <v>542</v>
-      </c>
-      <c r="D9" t="s">
-        <v>547</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15866,10 +15883,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>8</v>
@@ -15884,10 +15901,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>8</v>
@@ -16145,7 +16162,7 @@
         <v>336</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>8</v>
@@ -16245,7 +16262,7 @@
         <v>239</v>
       </c>
       <c r="D31" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>277</v>
@@ -16265,7 +16282,7 @@
         <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>277</v>
@@ -16305,7 +16322,7 @@
         <v>244</v>
       </c>
       <c r="D34" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>8</v>
@@ -16362,7 +16379,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>282</v>
@@ -16382,7 +16399,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>353</v>

--- a/data_raw/TMDL_db_tabular.xlsx
+++ b/data_raw/TMDL_db_tabular.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GitHub\odeqtmdl\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DCDC6-1BFF-4431-838D-8F1FD97176A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="780" windowWidth="27075" windowHeight="13905"/>
+    <workbookView xWindow="20685" yWindow="120" windowWidth="19920" windowHeight="18780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmdl_actions_table" sheetId="7" r:id="rId1"/>
@@ -21,19 +22,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">geo_id_table!$A$1:$F$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pollutant_table!$A$1:$P$201</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tmdl_actions_table!$A$1:$L$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tmdl_actions_table!$A$1:$N$56</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="659">
   <si>
     <t>Total Phosphorus</t>
   </si>
@@ -1109,9 +1119,6 @@
     <t>John Day River Basin TMDL and WQMP</t>
   </si>
   <si>
-    <t>Lower Grande Ronde Subbasins TMDLS</t>
-  </si>
-  <si>
     <t>TMDL_issue_year</t>
   </si>
   <si>
@@ -1286,27 +1293,15 @@
     <t>Nuisance Algal Growth, pH</t>
   </si>
   <si>
-    <t>BOD</t>
-  </si>
-  <si>
     <t>Total Phosphorus, E. coli, DDT/DDE, dieldrin, dioxin, PCBs, BOD5, Lead</t>
   </si>
   <si>
     <t>Heat</t>
   </si>
   <si>
-    <t>Dissolved Oxygen, pH, Sedimentation, Temperature</t>
-  </si>
-  <si>
     <t>Heat, Sediment, Dissolved Inorganic Nitrogen, DOP</t>
   </si>
   <si>
-    <t>Ammonia, Aquatic Weeds,  pH, Bacteria (water contact recreation), Nitrate, Sedimentation, Turbidity, Temperature</t>
-  </si>
-  <si>
-    <t>Heat, E. coli, Nitrate, Turbidity, Total Suspended Solids</t>
-  </si>
-  <si>
     <t>Bacteria (water contact recreation), Bacteria (shellfish harvesting), Temperature</t>
   </si>
   <si>
@@ -1328,18 +1323,12 @@
     <t>E. coli, fecal coliform, Sediment, Heat</t>
   </si>
   <si>
-    <t>pH, Dissolved Oxygen, Chlorophyll a, Temperature</t>
-  </si>
-  <si>
     <t>Heat, Total Phosphorus</t>
   </si>
   <si>
     <t>Total Dissolved Gas</t>
   </si>
   <si>
-    <t>Bacteria (water contact recreation), Dissolved Oxygen, Algae, pH, Sediment, Temperature, DDT, Dieldrin</t>
-  </si>
-  <si>
     <t>Total Phosphorus, Heat, DDT, Dieldrin, Total Suspended Solids, Total Dissolved Gas</t>
   </si>
   <si>
@@ -1358,9 +1347,6 @@
     <t>Bacteria (water contact recreation), DDT, dieldrin, Dissolved Oxygen, Mercury, Temperature, Turbidity</t>
   </si>
   <si>
-    <t>Algae, Dissolved Oxygen, pH, Bacteria (water contact recreation), Bacteria (shellfish harvesting), Temperature</t>
-  </si>
-  <si>
     <t>Heat, E. coli, fecal coliform, Total Phosphorus, BOD, Organic Solids, inorganic N, inorganic P, Phosphorus recycling</t>
   </si>
   <si>
@@ -1391,9 +1377,6 @@
     <t>Bacteria (water contact recreation), Dissolved Oxygen, Chlorophyll a, pH, Temperature</t>
   </si>
   <si>
-    <t>Bacteria (water contact recreation), Dissolved Oxygen, Temperature</t>
-  </si>
-  <si>
     <t>Heat, E. coli</t>
   </si>
   <si>
@@ -1706,9 +1689,6 @@
     <t>DEQ (Oregon Department of Environmental Quality). 1999. "Western Hood Subbasin Total Maximum Daily Load (TMDL)."</t>
   </si>
   <si>
-    <t>Willow Creek Subbasin Temperature, pH and Bacteria Total Maximum Daily Loads and Water Quality Management Plan</t>
-  </si>
-  <si>
     <t>DEQ (Oregon Department of Environmental Quality). 2007. "Willow Creek Subbasin Temperature, pH and Bacteria Total Maximum Daily Loads and Water Quality Management Plan."</t>
   </si>
   <si>
@@ -1998,12 +1978,54 @@
   </si>
   <si>
     <t xml:space="preserve"> Added '1991_ColumbiaDioxin_Willamette_atPortland' and '1991_ColumbiaDioxin_Columbia_belowLongview' into geo_id_table and pollutant_table. These are dioxin targets. Updated multiple TMDL document names to match the name on the cover of the TMDL document. Added fields 'citation_abbbreviated' and 'citation_full' to tmdl_actions_table.</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation), Biological Criteria, Dissolved Oxygen, Temperature</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation), Chlorphyll a, Dissolved Oxygen, Algae, pH, Sediment, Temperature, DDT, Dieldrin</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>Ultimate Biochemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t>Ammonia, Aquatic Weeds or Algae,  pH, Bacteria (water contact recreation), Nitrate, Sedimentation, Turbidity, Temperature</t>
+  </si>
+  <si>
+    <t>Heat, E. coli, Nitrate, Ammonia Nitrogen (NH3-N), Turbidity, Total Suspended Solids</t>
+  </si>
+  <si>
+    <t>Algae, Dissolved Oxygen, pH, Bacteria (water contact recreation), Bacteria (shellfish harvesting), Phosphorus, Temperature</t>
+  </si>
+  <si>
+    <t>pH, Dissolved Oxygen, Chlorophyll a, Phosphorus, Temperature</t>
+  </si>
+  <si>
+    <t>pH, Algae, Phosphorus</t>
+  </si>
+  <si>
+    <t>Aquatic Weeds or Algae, Dissolved Oxygen, pH, Sedimentation, Phosphorus, Temperature</t>
+  </si>
+  <si>
+    <t>Willow Creek Subbasin Temperature, pH, and Bacteria Total Maximum Daily Loads and Water Quality Management Plan</t>
+  </si>
+  <si>
+    <t>Lower Grande Ronde Subbasins TMDLs</t>
+  </si>
+  <si>
+    <t>v20220412</t>
+  </si>
+  <si>
+    <t>Added Biological Criteria to John Day TMDL. Added Chlorophyll a to Snake River Hells Canyon TMDLs. Changed pollutant for 1994 Coquille River TMDL from BOD to UBOD. Updated Umatilla TMDL parameters and pollutants names to Aquatic Weeds or Algae and Ammonia Nitrogen (NH3-N). Updated Rickreall Creek issue date. Added Action ID for Little River TMDL addendum. Added phosphorus to Umpqua, Upper Klamath Lake Drainage, and Upper Grande Ronde TMDL listed parameters. Added Aquatic Weeds or Algae to Upper Grande Ronde.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
@@ -2501,10 +2523,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2532,40 +2556,40 @@
         <v>230</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2579,7 +2603,7 @@
         <v>1988</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2589,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I2" s="28">
         <v>32408</v>
@@ -2598,16 +2622,16 @@
         <v>32423</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2621,19 +2645,19 @@
         <v>1988</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I3" s="26">
         <v>32408</v>
@@ -2648,10 +2672,10 @@
         <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2659,13 +2683,13 @@
         <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C4">
         <v>1991</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2675,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I4" s="28">
         <v>33294</v>
@@ -2684,16 +2708,16 @@
         <v>33294</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M4" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2707,7 +2731,7 @@
         <v>1991</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2717,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I5" s="28">
         <v>33462</v>
@@ -2726,16 +2750,16 @@
         <v>33679</v>
       </c>
       <c r="K5" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="L5" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="L5" s="37" t="s">
-        <v>414</v>
-      </c>
       <c r="M5" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2743,13 +2767,13 @@
         <v>2038</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C6">
         <v>1991</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2759,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I6" s="28">
         <v>33462</v>
@@ -2768,16 +2792,16 @@
         <v>33679</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L6" s="38" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="N6" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2785,13 +2809,13 @@
         <v>1352</v>
       </c>
       <c r="B7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C7">
         <v>1991</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2801,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I7" s="26">
         <v>33462</v>
@@ -2810,30 +2834,30 @@
         <v>33679</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>412</v>
+        <v>653</v>
       </c>
       <c r="L7" s="36" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="N7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C8">
         <v>1993</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2843,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I8" s="28">
         <v>34182</v>
@@ -2855,13 +2879,13 @@
         <v>59</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M8" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="N8" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2869,13 +2893,13 @@
         <v>2036</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C9">
         <v>1993</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2885,10 +2909,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="I9" s="28">
-        <v>34304</v>
+        <v>34330</v>
       </c>
       <c r="J9" s="26">
         <v>34442</v>
@@ -2897,13 +2921,13 @@
         <v>59</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M9" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="N9" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2911,25 +2935,25 @@
         <v>1230</v>
       </c>
       <c r="B10" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C10">
         <v>1993</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I10" s="26">
         <v>34330</v>
@@ -2938,30 +2962,30 @@
         <v>34361</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L10" s="39" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="N10" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>329</v>
+      <c r="A11" s="24" t="s">
+        <v>647</v>
       </c>
       <c r="B11" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C11">
         <v>1994</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2971,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I11" s="28">
         <v>34394</v>
@@ -2983,13 +3007,13 @@
         <v>59</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>417</v>
+        <v>648</v>
       </c>
       <c r="M11" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="N11" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2997,13 +3021,13 @@
         <v>310</v>
       </c>
       <c r="B12" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C12">
         <v>1995</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3013,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I12" s="26">
         <v>34974</v>
@@ -3022,16 +3046,16 @@
         <v>35202</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="M12" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="N12" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3039,13 +3063,13 @@
         <v>321</v>
       </c>
       <c r="B13" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C13">
         <v>1998</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3055,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I13" s="26">
         <v>36039</v>
@@ -3064,16 +3088,16 @@
         <v>36124</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M13" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="N13" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3081,25 +3105,25 @@
         <v>2034</v>
       </c>
       <c r="B14" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C14">
         <v>1999</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I14" s="26">
         <v>36220</v>
@@ -3111,27 +3135,27 @@
         <v>79</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M14" s="47" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>489</v>
       </c>
       <c r="B15" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C15">
         <v>2000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3141,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I15" s="26">
         <v>36617</v>
@@ -3150,16 +3174,16 @@
         <v>36649</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>420</v>
+        <v>654</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M15" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="N15" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3173,7 +3197,7 @@
         <v>2001</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3183,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I16" s="26">
         <v>36892</v>
@@ -3195,13 +3219,13 @@
         <v>79</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M16" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="N16" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3209,13 +3233,13 @@
         <v>1362</v>
       </c>
       <c r="B17" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C17">
         <v>2001</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3225,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I17" s="26">
         <v>36951</v>
@@ -3234,16 +3258,16 @@
         <v>37020</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>423</v>
+        <v>649</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>650</v>
       </c>
       <c r="M17" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3251,13 +3275,13 @@
         <v>1380</v>
       </c>
       <c r="B18" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C18">
         <v>2001</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -3267,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I18" s="26">
         <v>37043</v>
@@ -3276,16 +3300,16 @@
         <v>37103</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M18" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="N18" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3293,13 +3317,13 @@
         <v>1936</v>
       </c>
       <c r="B19" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="C19">
         <v>2001</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3309,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I19" s="26">
         <v>37104</v>
@@ -3318,16 +3342,16 @@
         <v>37110</v>
       </c>
       <c r="K19" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="L19" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="L19" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="M19" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="N19" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3341,7 +3365,7 @@
         <v>2001</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -3351,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I20" s="26">
         <v>37226</v>
@@ -3360,16 +3384,16 @@
         <v>37285</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M20" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="N20" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -3377,25 +3401,25 @@
         <v>2021</v>
       </c>
       <c r="B21" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C21">
         <v>2001</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I21" s="26">
         <v>37226</v>
@@ -3407,13 +3431,13 @@
         <v>79</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M21" s="47" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3421,13 +3445,13 @@
         <v>2258</v>
       </c>
       <c r="B22" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C22">
         <v>2002</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -3437,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I22" s="26">
         <v>37347</v>
@@ -3449,13 +3473,13 @@
         <v>79</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3463,13 +3487,13 @@
         <v>2241</v>
       </c>
       <c r="B23" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C23">
         <v>2002</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -3479,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I23" s="26">
         <v>37347</v>
@@ -3491,13 +3515,13 @@
         <v>79</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3505,13 +3529,13 @@
         <v>2238</v>
       </c>
       <c r="B24" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C24">
         <v>2002</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -3521,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I24" s="26">
         <v>37347</v>
@@ -3530,30 +3554,30 @@
         <v>37389</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M24" s="47" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="N24" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>2352</v>
       </c>
       <c r="B25" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C25">
         <v>2002</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -3563,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I25" s="26">
         <v>37377</v>
@@ -3572,16 +3596,16 @@
         <v>37475</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>431</v>
+        <v>652</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M25" s="47" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="N25" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3589,13 +3613,13 @@
         <v>3753</v>
       </c>
       <c r="B26" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C26">
         <v>2002</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -3605,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I26" s="26">
         <v>37526</v>
@@ -3614,58 +3638,58 @@
         <v>37578</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L26" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M26" s="47" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="N26" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>10007</v>
       </c>
       <c r="B27" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C27">
         <v>2003</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I27" s="28">
         <v>37817</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="33" t="s">
-        <v>434</v>
+        <v>646</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M27" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="N27" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3673,13 +3697,13 @@
         <v>9447</v>
       </c>
       <c r="B28" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C28">
         <v>2003</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -3689,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I28" s="26">
         <v>37831</v>
@@ -3698,16 +3722,16 @@
         <v>37853</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M28" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="N28" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3715,25 +3739,25 @@
         <v>9767</v>
       </c>
       <c r="B29" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C29">
         <v>2004</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I29" s="26">
         <v>37998</v>
@@ -3742,16 +3766,16 @@
         <v>38028</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M29" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="N29" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3759,13 +3783,13 @@
         <v>10006</v>
       </c>
       <c r="B30" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C30">
         <v>2004</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -3775,79 +3799,79 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I30" s="28">
         <v>37998</v>
       </c>
       <c r="J30" s="27"/>
       <c r="K30" s="33" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L30" s="40" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>259</v>
+        <v>390</v>
       </c>
       <c r="B31" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C31">
         <v>2004</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I31" s="28">
         <v>38090</v>
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="33" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M31" s="47" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="N31" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>10791</v>
       </c>
       <c r="B32" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C32">
         <v>2004</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -3857,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I32" s="26">
         <v>38139</v>
@@ -3866,16 +3890,16 @@
         <v>38239</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>434</v>
+        <v>646</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M32" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="N32" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3883,13 +3907,13 @@
         <v>11395</v>
       </c>
       <c r="B33" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C33">
         <v>2005</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -3899,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I33" s="26">
         <v>38425</v>
@@ -3908,16 +3932,16 @@
         <v>38456</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M33" s="47" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3925,13 +3949,13 @@
         <v>12241</v>
       </c>
       <c r="B34" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C34">
         <v>2005</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -3941,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I34" s="26">
         <v>38608</v>
@@ -3953,13 +3977,13 @@
         <v>79</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M34" s="47" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -3973,7 +3997,7 @@
         <v>2006</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -3983,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I35" s="26">
         <v>38981</v>
@@ -3992,16 +4016,16 @@
         <v>38989</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M35" s="47" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -4009,13 +4033,13 @@
         <v>30358</v>
       </c>
       <c r="B36" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C36">
         <v>2006</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -4025,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I36" s="26">
         <v>39021</v>
@@ -4034,42 +4058,42 @@
         <v>39184</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>441</v>
+        <v>651</v>
       </c>
       <c r="L36" s="40" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="M36" s="47" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B37" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C37">
         <v>2006</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I37" s="26">
         <v>39069</v>
@@ -4078,16 +4102,16 @@
         <v>38892</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L37" s="40" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M37" s="47" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="N37" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -4095,13 +4119,13 @@
         <v>32071</v>
       </c>
       <c r="B38" t="s">
-        <v>557</v>
+        <v>655</v>
       </c>
       <c r="C38">
         <v>2007</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -4111,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I38" s="26">
         <v>39113</v>
@@ -4120,16 +4144,16 @@
         <v>39132</v>
       </c>
       <c r="K38" s="33" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M38" s="47" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4137,13 +4161,13 @@
         <v>33639</v>
       </c>
       <c r="B39" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C39">
         <v>2007</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -4153,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I39" s="30">
         <v>39136</v>
@@ -4162,16 +4186,16 @@
         <v>39233</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L39" s="35" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M39" s="47" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4179,13 +4203,13 @@
         <v>33829</v>
       </c>
       <c r="B40" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C40">
         <v>2007</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -4195,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I40" s="26">
         <v>39287</v>
@@ -4204,16 +4228,16 @@
         <v>39357</v>
       </c>
       <c r="K40" s="33" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M40" s="47" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4227,7 +4251,7 @@
         <v>2008</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -4237,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I41" s="26">
         <v>39790</v>
@@ -4246,16 +4270,16 @@
         <v>39813</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M41" s="47" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -4269,7 +4293,7 @@
         <v>2008</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -4279,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I42" s="26">
         <v>39804</v>
@@ -4288,16 +4312,16 @@
         <v>39811</v>
       </c>
       <c r="K42" s="33" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M42" s="47" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4311,7 +4335,7 @@
         <v>2008</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -4321,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I43" s="26">
         <v>39811</v>
@@ -4333,13 +4357,13 @@
         <v>79</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M43" s="47" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4347,13 +4371,13 @@
         <v>39294</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>656</v>
       </c>
       <c r="C44">
         <v>2010</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -4363,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I44" s="26">
         <v>40437</v>
@@ -4372,16 +4396,16 @@
         <v>40445</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M44" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4395,7 +4419,7 @@
         <v>2010</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -4405,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I45" s="26">
         <v>40450</v>
@@ -4414,16 +4438,16 @@
         <v>40515</v>
       </c>
       <c r="K45" s="33" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="L45" s="35" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4437,7 +4461,7 @@
         <v>2010</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -4447,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I46" s="26">
         <v>40491</v>
@@ -4456,16 +4480,16 @@
         <v>40529</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>452</v>
+        <v>645</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M46" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -4473,25 +4497,25 @@
         <v>42375</v>
       </c>
       <c r="B47" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C47">
         <v>2010</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I47" s="26">
         <v>40533</v>
@@ -4500,36 +4524,36 @@
         <v>41049</v>
       </c>
       <c r="K47" s="33" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M47" s="47" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C48">
         <v>2011</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -4547,27 +4571,27 @@
         <v>79</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M48" s="47" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="N48" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C49">
         <v>2012</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -4586,36 +4610,36 @@
         <v>41257</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="M49" s="47" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="N49" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C50">
         <v>2017</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -4628,30 +4652,30 @@
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="33" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M50" s="47" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="N50" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C51">
         <v>2018</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -4661,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="I51" s="26">
         <v>43147</v>
@@ -4673,27 +4697,27 @@
         <v>79</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M51" s="47" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="N51" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C52">
         <v>2019</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -4703,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="I52" s="26">
         <v>43481</v>
@@ -4712,30 +4736,30 @@
         <v>43536</v>
       </c>
       <c r="K52" s="33" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M52" s="47" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="N52" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C53">
         <v>2019</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -4745,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="I53" s="26">
         <v>43727</v>
@@ -4757,33 +4781,33 @@
         <v>79</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M53" s="47" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="N53" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C54">
         <v>2019</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -4798,30 +4822,30 @@
         <v>43798</v>
       </c>
       <c r="K54" s="37" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L54" s="35" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M54" s="47" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="N54" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C55">
         <v>2019</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -4830,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="I55" s="32">
         <v>43829</v>
@@ -4839,30 +4863,30 @@
         <v>44231</v>
       </c>
       <c r="K55" s="37" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M55" s="47" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="N55" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C56">
         <v>2020</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -4871,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="I56" s="26">
         <v>43969</v>
@@ -4883,17 +4907,17 @@
         <v>79</v>
       </c>
       <c r="L56" s="35" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M56" s="47" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="N56" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N56">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N56">
     <sortCondition ref="I2:I56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4902,10 +4926,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4933,7 +4957,7 @@
         <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>230</v>
@@ -4963,7 +4987,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -4985,7 +5009,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
         <v>325</v>
@@ -5007,7 +5031,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -5029,10 +5053,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C6" s="5" t="b">
         <v>1</v>
@@ -5051,10 +5075,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C7" s="5" t="b">
         <v>1</v>
@@ -5073,7 +5097,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -5095,10 +5119,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C9" s="5" t="b">
         <v>1</v>
@@ -5359,7 +5383,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
         <v>98</v>
@@ -5381,7 +5405,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
@@ -5403,7 +5427,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B23" t="s">
         <v>103</v>
@@ -5425,7 +5449,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
         <v>100</v>
@@ -5447,7 +5471,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
         <v>104</v>
@@ -5469,7 +5493,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B26" t="s">
         <v>97</v>
@@ -5491,7 +5515,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B27" t="s">
         <v>92</v>
@@ -5513,7 +5537,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
@@ -5535,7 +5559,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
         <v>102</v>
@@ -5557,7 +5581,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
         <v>94</v>
@@ -5579,7 +5603,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B31" t="s">
         <v>101</v>
@@ -5601,7 +5625,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B32" t="s">
         <v>160</v>
@@ -5623,7 +5647,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B33" t="s">
         <v>96</v>
@@ -5645,7 +5669,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B34" t="s">
         <v>91</v>
@@ -5667,7 +5691,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
@@ -6132,7 +6156,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C56" s="5" t="b">
         <v>1</v>
@@ -6314,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E64">
         <f>VLOOKUP(D64,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6336,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E65">
         <f>VLOOKUP(D65,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6358,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E66">
         <f>VLOOKUP(D66,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6380,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E67">
         <f>VLOOKUP(D67,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6402,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E68">
         <f>VLOOKUP(D68,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6424,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E69">
         <f>VLOOKUP(D69,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6446,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E70">
         <f>VLOOKUP(D70,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6468,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E71">
         <f>VLOOKUP(D71,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6490,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E72">
         <f>VLOOKUP(D72,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6512,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E73">
         <f>VLOOKUP(D73,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6534,7 +6558,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E74">
         <f>VLOOKUP(D74,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6556,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E75">
         <f>VLOOKUP(D75,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6578,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E76">
         <f>VLOOKUP(D76,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6600,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E77">
         <f>VLOOKUP(D77,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6622,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E78">
         <f>VLOOKUP(D78,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6644,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E79">
         <f>VLOOKUP(D79,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6666,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E80">
         <f>VLOOKUP(D80,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6688,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E81">
         <f>VLOOKUP(D81,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6710,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E82">
         <f>VLOOKUP(D82,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6732,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E83">
         <f>VLOOKUP(D83,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6754,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E84">
         <f>VLOOKUP(D84,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6776,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E85">
         <f>VLOOKUP(D85,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6798,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E86">
         <f>VLOOKUP(D86,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6820,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E87">
         <f>VLOOKUP(D87,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6842,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E88">
         <f>VLOOKUP(D88,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6864,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E89">
         <f>VLOOKUP(D89,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6886,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E90">
         <f>VLOOKUP(D90,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6908,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E91">
         <f>VLOOKUP(D91,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6930,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E92">
         <f>VLOOKUP(D92,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6952,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E93">
         <f>VLOOKUP(D93,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6974,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E94">
         <f>VLOOKUP(D94,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6996,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E95">
         <f>VLOOKUP(D95,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7018,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E96">
         <f>VLOOKUP(D96,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7040,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E97">
         <f>VLOOKUP(D97,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7062,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E98">
         <f>VLOOKUP(D98,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7084,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E99">
         <f>VLOOKUP(D99,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7106,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E100">
         <f>VLOOKUP(D100,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7128,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E101">
         <f>VLOOKUP(D101,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7150,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E102">
         <f>VLOOKUP(D102,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7172,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E103">
         <f>VLOOKUP(D103,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7194,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E104">
         <f>VLOOKUP(D104,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7216,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E105">
         <f>VLOOKUP(D105,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7238,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E106">
         <f>VLOOKUP(D106,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7260,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E107">
         <f>VLOOKUP(D107,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7272,7 +7296,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G104">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G104">
     <sortCondition ref="E2:E104"/>
     <sortCondition ref="A2:A104"/>
   </sortState>
@@ -7282,7 +7306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7317,7 +7341,7 @@
         <v>248</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>230</v>
@@ -7356,7 +7380,7 @@
         <v>238</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -7405,7 +7429,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(A3,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -7446,7 +7470,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4">
         <f>VLOOKUP(A4,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -7490,7 +7514,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5">
         <f>VLOOKUP(A5,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -7534,7 +7558,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6">
         <f>VLOOKUP(A6,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -7578,7 +7602,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B7">
         <v>319</v>
@@ -7591,10 +7615,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -7618,12 +7642,12 @@
         <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B8">
         <v>319</v>
@@ -7636,10 +7660,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>6</v>
@@ -7663,12 +7687,12 @@
         <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9">
         <f>VLOOKUP(A9,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -7689,7 +7713,7 @@
         <v>264</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>6</v>
@@ -7710,12 +7734,12 @@
         <v>43738</v>
       </c>
       <c r="P9" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B10" s="42">
         <v>1352</v>
@@ -7734,7 +7758,7 @@
         <v>264</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>6</v>
@@ -7755,7 +7779,7 @@
         <v>43769</v>
       </c>
       <c r="P10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -9372,7 +9396,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B49">
         <f>VLOOKUP(A49,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9416,7 +9440,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B50">
         <f>VLOOKUP(A50,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9460,7 +9484,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B51">
         <f>VLOOKUP(A51,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9504,7 +9528,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52">
         <f>VLOOKUP(A52,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9548,7 +9572,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B53">
         <f>VLOOKUP(A53,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9592,7 +9616,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B54">
         <f>VLOOKUP(A54,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9636,7 +9660,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B55">
         <f>VLOOKUP(A55,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9680,7 +9704,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B56">
         <f>VLOOKUP(A56,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9724,7 +9748,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B57">
         <f>VLOOKUP(A57,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9768,7 +9792,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58">
         <f>VLOOKUP(A58,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9812,7 +9836,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B59">
         <f>VLOOKUP(A59,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9856,7 +9880,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B60">
         <f>VLOOKUP(A60,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9903,7 +9927,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B61">
         <f>VLOOKUP(A61,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9947,7 +9971,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B62">
         <f>VLOOKUP(A62,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -9991,7 +10015,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B63">
         <f>VLOOKUP(A63,geo_id_table!$A$2:$F$107,4,FALSE)</f>
@@ -16190,7 +16214,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P198">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P198">
     <sortCondition ref="C2:C198"/>
     <sortCondition ref="A2:A198"/>
     <sortCondition ref="H2:H198"/>
@@ -16202,10 +16226,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16219,10 +16245,10 @@
         <v>268</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16293,96 +16319,102 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" s="46">
         <v>44034</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B9" s="46">
         <v>44039</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B10" s="46">
         <v>44046</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B11" s="46">
         <v>44049</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B12" s="46">
         <v>44118</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B13" s="46">
         <v>44466</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B14" s="46">
         <v>44516</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B15" s="46">
         <v>44523</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>657</v>
+      </c>
+      <c r="B16" s="46">
+        <v>44663</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
@@ -16431,10 +16463,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -16470,7 +16502,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16490,7 +16522,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -16510,16 +16542,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
@@ -16530,36 +16562,36 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>260</v>
@@ -16570,16 +16602,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
@@ -16590,16 +16622,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>260</v>
@@ -16610,36 +16642,36 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>271</v>
@@ -16650,16 +16682,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>403</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>271</v>
@@ -16670,16 +16702,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>8</v>
@@ -16688,16 +16720,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>8</v>
@@ -16706,16 +16738,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>8</v>
@@ -16726,16 +16758,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>8</v>
@@ -16832,7 +16864,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>333</v>
@@ -16912,7 +16944,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>176</v>
@@ -16995,7 +17027,7 @@
         <v>329</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>8</v>
@@ -17095,7 +17127,7 @@
         <v>233</v>
       </c>
       <c r="D33" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>271</v>
@@ -17115,7 +17147,7 @@
         <v>232</v>
       </c>
       <c r="D34" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>271</v>
@@ -17155,7 +17187,7 @@
         <v>238</v>
       </c>
       <c r="D36" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>8</v>
@@ -17172,7 +17204,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D37" t="s">
         <v>344</v>
@@ -17212,7 +17244,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>276</v>
@@ -17232,7 +17264,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>346</v>
@@ -17325,7 +17357,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
     <sortCondition ref="A2:A25"/>
     <sortCondition ref="B2:B25"/>
     <sortCondition ref="C2:C25"/>

--- a/data_raw/TMDL_db_tabular.xlsx
+++ b/data_raw/TMDL_db_tabular.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{7B68424F-EC1A-4220-BBB7-CF1EF973C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB437875-6FC2-4BCF-AB03-6329F68CEF69}"/>
   <bookViews>
-    <workbookView xWindow="17310" yWindow="330" windowWidth="33075" windowHeight="19785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10485" yWindow="765" windowWidth="33075" windowHeight="19785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmdl_actions_table" sheetId="7" r:id="rId1"/>
@@ -16389,7 +16389,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_raw/TMDL_db_tabular.xlsx
+++ b/data_raw/TMDL_db_tabular.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateoforegon-my.sharepoint.com/personal/ryan_michie_deq_oregon_gov/Documents/GitHub/odeqtmdl/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{7B68424F-EC1A-4220-BBB7-CF1EF973C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B720A74-D13E-4496-A5B4-15A32E6CF54B}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{7B68424F-EC1A-4220-BBB7-CF1EF973C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D21138AE-ED50-4893-A603-92171F859DAC}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="2670" windowWidth="36840" windowHeight="20880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26940" windowHeight="19455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmdl_actions_table" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="711">
   <si>
     <t>Total Phosphorus</t>
   </si>
@@ -1266,114 +1266,30 @@
     <t xml:space="preserve">Updated Clear Lake TMDL geo_id from '1992_ClearLake' to '1991_ClearLake'. Changed column names 'approval_year' to 'TMDL_issue_year' and 'Notes' to 'notes' (lowercase). Added action_ids and additional columns for 'TMDL_active', 'issue_agency', 'in_attains', 'TMDL_issue_date', and 'EPA_action_date'. Updated issue year and dates and EPA action dates. </t>
   </si>
   <si>
-    <t>Aesthetics and Algal Growth</t>
-  </si>
-  <si>
     <t>2.3,7,8-TCCD (polychlorinated dibenzo-para-dioxins)</t>
   </si>
   <si>
     <t>pH, Algae</t>
   </si>
   <si>
-    <t>Total Phosphorus, BOD5, Ammonia</t>
-  </si>
-  <si>
-    <t>Nuisance Algal Growth, pH</t>
-  </si>
-  <si>
-    <t>Total Phosphorus, E. coli, DDT/DDE, dieldrin, dioxin, PCBs, BOD5, Lead</t>
-  </si>
-  <si>
     <t>Heat</t>
   </si>
   <si>
-    <t>Heat, Sediment, Dissolved Inorganic Nitrogen, DOP</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), Bacteria (shellfish harvesting), Temperature</t>
-  </si>
-  <si>
-    <t>E. coli, fecal coliform, Heat</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), pH, Algae, Temperature, Chlorophyll a, Dissolved Oxygen</t>
-  </si>
-  <si>
     <t>pH, Sedimentation, Temperature</t>
   </si>
   <si>
-    <t>Sediment, Heat</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), Bacteria (shellfish harvesting), Sedimentation, Temperature</t>
-  </si>
-  <si>
-    <t>E. coli, fecal coliform, Sediment, Heat</t>
-  </si>
-  <si>
-    <t>Heat, Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Total Dissolved Gas</t>
-  </si>
-  <si>
     <t>Dissolved Oxygen, Temperature</t>
   </si>
   <si>
-    <t>Biological Criteria, Sedimentation, Temperature</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), Temperature</t>
-  </si>
-  <si>
     <t>E. coli, Heat</t>
   </si>
   <si>
-    <t>Bacteria (water contact recreation), DDT, dieldrin, Dissolved Oxygen, Mercury, Temperature, Turbidity</t>
-  </si>
-  <si>
-    <t>Heat, E. coli, fecal coliform, Total Phosphorus, BOD, Organic Solids, inorganic N, inorganic P, Phosphorus recycling</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), pH, Temperature</t>
-  </si>
-  <si>
-    <t>Aquatic Weeds, Algae, Sedimentation</t>
-  </si>
-  <si>
-    <t>Sediment, Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), Sedimentation, Temperature</t>
-  </si>
-  <si>
-    <t>Heat, E. coli, Sediment</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), DDT, dieldrin, chlordane, Iron, Nitrate, Temperature</t>
-  </si>
-  <si>
-    <t>E. coli, DDT, dieldrin, chlordane, Iron, Nitrate, Heat</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), Dissolved Oxygen, Chlorophyll a, pH, Temperature</t>
-  </si>
-  <si>
     <t>Heat, E. coli</t>
   </si>
   <si>
-    <t>Dissolved Oxygen, Chlorophyll a, pH, Ammonia</t>
-  </si>
-  <si>
-    <t>Dissolved Inorganic Nitrogen, CBOD, Total Phosphorus, Nitrogen</t>
-  </si>
-  <si>
     <t>Mercury</t>
   </si>
   <si>
-    <t>Heat, Turbidity, Total Suspended Solids, E. coli, Total Phosphorus, Total Mercury, Inorganic Suspended Solids (ISS), Ammonium-Nitrogen (NH4-N), Nitrite + Nitrate Nitrogen (NO3-4N), Dissolved Inorganic Nitrogen, Ultimate Carbonaceous Biochemical Oxygen Demand (CBODU), Ammonia as N</t>
-  </si>
-  <si>
     <t>action_wq_limited_parameters</t>
   </si>
   <si>
@@ -1425,9 +1341,6 @@
     <t>Clarity (Algal growth)</t>
   </si>
   <si>
-    <t>Clarity (Algal growth), Protection of high quality water, public water supply source</t>
-  </si>
-  <si>
     <t>v20200806</t>
   </si>
   <si>
@@ -1440,21 +1353,12 @@
     <t>OR_TMDL_20191230</t>
   </si>
   <si>
-    <t>Ammonia, Volatile Solids, Total Phosphorus, BOD</t>
-  </si>
-  <si>
-    <t>pH, Dissolved Oxygen,  Chlorophyll a</t>
-  </si>
-  <si>
     <t>Total Mercury, Methylmercury</t>
   </si>
   <si>
     <t>TMDL_active_note</t>
   </si>
   <si>
-    <t>This TMDL was replaced by the 1993 Tualatin River TMDL (Action ID 1230).</t>
-  </si>
-  <si>
     <t>This TMDL was replaced by the 2004 Snake River - Hells Canyon TMDL (Action ID 10791).</t>
   </si>
   <si>
@@ -1485,9 +1389,6 @@
     <t>This TMDL was replaced by the 2018 Western Hood Subbasin Temperature TMDL (Action ID OR_TMDL_20180216). The WQMP is still effective.</t>
   </si>
   <si>
-    <t>Dissolved Inorganic Nitrogen, Biochemical Oxygen Demand, Carbonaceous Biochemical Oxygen Demand (CBOD), Total Phosphorus, Total Nitrogen</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
@@ -1512,24 +1413,9 @@
     <t>All 303(d) water quality limited parameters being addressed by the TMDL action.</t>
   </si>
   <si>
-    <t>pH, Dissolved Oxygen, Periphyton Growth, Ammonia Toxicity</t>
-  </si>
-  <si>
-    <t>Algae, pH, Bacteria (water contact recreation), Total Phosphorus, DDT/DDE, dieldrin, dioxin, PCBs, Dissolved Oxygen, Lead</t>
-  </si>
-  <si>
     <t>v20211116</t>
   </si>
   <si>
-    <t>CBOD5, Total Suspended Solids, Ammonia Nitrogen (NH3-N), minimum dissolved oxygen, Ultimate Biochemical Oxygen Demand</t>
-  </si>
-  <si>
-    <t>Dissolved orthophosphate as phosphorus (PO4-P), Ammonia</t>
-  </si>
-  <si>
-    <t>E. coli, fecal coliform, Total Phosphorus, Heat</t>
-  </si>
-  <si>
     <t>Added minimum dissolved oxygen and ultimate biochemical oxygen demand to the list of pollutants for the Pudding TMDL (action ID 2037).</t>
   </si>
   <si>
@@ -1944,30 +1830,9 @@
     <t xml:space="preserve"> Added '1991_ColumbiaDioxin_Willamette_atPortland' and '1991_ColumbiaDioxin_Columbia_belowLongview' into geo_id_table and pollutant_table. These are dioxin targets. Updated multiple TMDL document names to match the name on the cover of the TMDL document. Added fields 'citation_abbbreviated' and 'citation_full' to tmdl_actions_table.</t>
   </si>
   <si>
-    <t>Bacteria (water contact recreation), Biological Criteria, Dissolved Oxygen, Temperature</t>
-  </si>
-  <si>
     <t>Ultimate Biochemical Oxygen Demand</t>
   </si>
   <si>
-    <t>Ammonia, Aquatic Weeds or Algae,  pH, Bacteria (water contact recreation), Nitrate, Sedimentation, Turbidity, Temperature</t>
-  </si>
-  <si>
-    <t>Heat, E. coli, Nitrate, Ammonia Nitrogen (NH3-N), Turbidity, Total Suspended Solids</t>
-  </si>
-  <si>
-    <t>Algae, Dissolved Oxygen, pH, Bacteria (water contact recreation), Bacteria (shellfish harvesting), Phosphorus, Temperature</t>
-  </si>
-  <si>
-    <t>pH, Dissolved Oxygen, Chlorophyll a, Phosphorus, Temperature</t>
-  </si>
-  <si>
-    <t>pH, Algae, Phosphorus</t>
-  </si>
-  <si>
-    <t>Aquatic Weeds or Algae, Dissolved Oxygen, pH, Sedimentation, Phosphorus, Temperature</t>
-  </si>
-  <si>
     <t>Willow Creek Subbasin Temperature, pH, and Bacteria Total Maximum Daily Loads and Water Quality Management Plan</t>
   </si>
   <si>
@@ -2007,15 +1872,9 @@
     <t>Ammonia Nitrogen (NH3-N)</t>
   </si>
   <si>
-    <t>Algal Growth, pH, Dissolved Oxygen</t>
-  </si>
-  <si>
     <t>gis_file</t>
   </si>
   <si>
-    <t>Bacteria (water contact recreation), Bacteria (shellfish harvesting), Temperature, BioCriteria</t>
-  </si>
-  <si>
     <t>9447</t>
   </si>
   <si>
@@ -2025,9 +1884,6 @@
     <t>30358</t>
   </si>
   <si>
-    <t>Chlorphyll a, Dissolved Oxygen, Algae, Sediment, Temperature, DDT, DDE, DDD, Dieldrin</t>
-  </si>
-  <si>
     <t>HUC_exceptions</t>
   </si>
   <si>
@@ -2073,9 +1929,6 @@
     <t>10007</t>
   </si>
   <si>
-    <t>CBOD5, Ammonia (NH3)</t>
-  </si>
-  <si>
     <t>Beaver Creek</t>
   </si>
   <si>
@@ -2094,12 +1947,6 @@
     <t>The TMDL document lists the publication as December 2003 but the TMDL was issued as an order on January 12, 2004. For this reason, sometimes the TMDL is cited as DEQ, 2003.</t>
   </si>
   <si>
-    <t>Dissolved Oxygen, Chlorophyll a, pH, Ammonia, Algae</t>
-  </si>
-  <si>
-    <t>Total Phosphorus, Dissolved Oxygen, Heat, DDT, DDE, DDD, Dieldrin, Total Suspended Solids, Total Dissolved Gas</t>
-  </si>
-  <si>
     <t>citation_abbreviated</t>
   </si>
   <si>
@@ -2134,6 +1981,201 @@
   </si>
   <si>
     <t>Added geo_ids for '1991_ColumbiaDioxin_Sandy_belowBullRun' and '1991_ColumbiaDioxin_HoodRiver'. Updated Columbia Dioxin target_type from concentration to load.</t>
+  </si>
+  <si>
+    <t>42375</t>
+  </si>
+  <si>
+    <t>11395</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>30674</t>
+  </si>
+  <si>
+    <t>35888</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen, Chlorophyll-a, pH, Ammonia, Algae</t>
+  </si>
+  <si>
+    <t>Carbonaceous Biochemical Oxygen Demand (CBOD), Dissolved Inorganic Nitrogen, Total Nitrogen, Total Phosphorus, Biochemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t>Aesthetics, Aquatic Weeds, Excess Algal Growth</t>
+  </si>
+  <si>
+    <t>Algal Growth, Dissolved Oxygen, pH</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, Ammonia, BOD5</t>
+  </si>
+  <si>
+    <t>Algae, pH</t>
+  </si>
+  <si>
+    <t>Dioxin (2,3,7,8-TCDD)</t>
+  </si>
+  <si>
+    <t>Ammonia Nitrogen (NH3-N), CBOD5, Minimum DO, Total suspended solids, Ultimate Biochemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t>Ammonia Nitrogen (NH3-N), CBOD5</t>
+  </si>
+  <si>
+    <t>Ammonia Toxicity, Dissolved Oxygen, Periphyton growth, pH</t>
+  </si>
+  <si>
+    <t>Ammonia, Dissoloved orthophosphate as phosphorus (PO4-P)</t>
+  </si>
+  <si>
+    <t>Algae, Chlorophyll-a, DDE 4,4', DDT 4,4', Dieldrin, Dioxin (2,3,7,8-TCDD), Dissolved Oxygen, E. coli, Lead, pH, Polychlorinated Biphenyls (PCBs), Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, DDE 4,4', DDT 4,4', Dieldrin, Dioxin (2,3,7,8-TCDD), BOD5, E. coli, Lead, Polychlorinated Biphenyls (PCBs)</t>
+  </si>
+  <si>
+    <t>Dissoloved orthophosphate as phosphorus (PO4-P), Dissolved Inorganic Nitrogen as N, Fine Sediment, Heat</t>
+  </si>
+  <si>
+    <t>Heat, Sedimentation</t>
+  </si>
+  <si>
+    <t>E. coli, Fecal Coliform, Temperature</t>
+  </si>
+  <si>
+    <t>E. coli, Fecal Coliform, Heat</t>
+  </si>
+  <si>
+    <t>Chlorophyll-a, Dissolved Oxygen, E. coli, Enterococci, Excess Algal Growth, Fecal Coliform, Harmful Algal Blooms, pH, Temperature</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, Ammonia Nitrogen (NH3-N), Heat, SOD, Volatile Solids, E. coli</t>
+  </si>
+  <si>
+    <t>Ammonia Toxicity, Aquatic Weeds or Algae, E. coli, Fecal Coliform, Nitrate, pH, Sedimentation, Temperature, Turbidity</t>
+  </si>
+  <si>
+    <t>Ammonia Nitrogen (NH3-N), Heat, E. coli, Nitrate, Total suspended solids, Turbidity</t>
+  </si>
+  <si>
+    <t>E. coli, Fecal Coliform, Sedimentation, Temperature</t>
+  </si>
+  <si>
+    <t>E. coli, Fecal Coliform, Sedimentation, Heat</t>
+  </si>
+  <si>
+    <t>Total Dissolved gas</t>
+  </si>
+  <si>
+    <t>Chlorophyll-a, Dissolved Oxygen, pH, Temperature, Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, Heat</t>
+  </si>
+  <si>
+    <t>BioCriteria, E. coli, Fecal Coliform, Temperature</t>
+  </si>
+  <si>
+    <t>NA, E. coli, Fecal Coliform, Heat</t>
+  </si>
+  <si>
+    <t>Algae, Chlorophyll-a, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, Dissolved Oxygen, Sedimentation, Temperature, Total Dissolved gas</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, Dissolved Oxygen, Total suspended solids, Heat, Total Dissolved gas</t>
+  </si>
+  <si>
+    <t>BioCriteria, Sedimentation, Temperature</t>
+  </si>
+  <si>
+    <t>Aquatic Weeds Or Algae, Chlorophyll-a, Dissolved Oxygen, E. coli, Fecal Coliform, pH, Phosphorus, Temperature</t>
+  </si>
+  <si>
+    <t>Inorganic Phosphorus, Total Nitrogen, Total Phosphorus, BOD, Dissolved Inorganic Nitrogen as N, Heat, Volatile Solids, E. coli</t>
+  </si>
+  <si>
+    <t>Ammonia Toxicity, Dissolved Oxygen, E. coli, Fecal Coliform, Mercury (total), Methylmercury, Temperature, Turbidity</t>
+  </si>
+  <si>
+    <t>Ammonia Nitrogen (NH3-N), BOD5, Dissoloved orthophosphate as phosphorus (PO4-P), Dissolved Inorganic Nitrogen as N, Heat, Nitrite + Nitrate, as N (NO23-N), SOD, Ultimate Biochemical Oxygen Demand, Volatile suspended solids, E. coli, Mercury (total), Methylmercury, Total suspended solids</t>
+  </si>
+  <si>
+    <t>E. coli, Sedimentation, Heat</t>
+  </si>
+  <si>
+    <t>Aquatic Weeds, Chlorophyll-a, Excess Algal Growth, Harmful Algal Blooms, Sedimentation</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, Sedimentation</t>
+  </si>
+  <si>
+    <t>Temperature, pH, E. coli, Fecal Coliform</t>
+  </si>
+  <si>
+    <t>Heat, pH, Dissolved Inorganic Nitrogen as N, E. coli</t>
+  </si>
+  <si>
+    <t>Chlordane, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, E. coli, Iron, Nitrate, Temperature</t>
+  </si>
+  <si>
+    <t>Chlordane, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, E. coli, Iron, Nitrate, Heat</t>
+  </si>
+  <si>
+    <t>Temperature, BioCriteria, Dissolved Oxygen, E. coli, Fecal Coliform</t>
+  </si>
+  <si>
+    <t>Temperature, E. coli, Fecal Coliform</t>
+  </si>
+  <si>
+    <t>Chlorophyll-a, Dissolved Oxygen, Excess Algal Growth, pH, Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, Ammonia Nitrogen (NH3-N)</t>
+  </si>
+  <si>
+    <t>Temperature, E. coli, Fecal Coliform, Chlorophyll-a, Dissolved Oxygen, pH</t>
+  </si>
+  <si>
+    <t>Heat, E. coli, Total Phosphorus</t>
+  </si>
+  <si>
+    <t>v20230309</t>
+  </si>
+  <si>
+    <t>Updated paramaters and pollutants based on attains mapping</t>
+  </si>
+  <si>
+    <t>Aquatic Weeds or Algae, Dissolved Oxygen, pH, Sedimentation, Temperature</t>
+  </si>
+  <si>
+    <t>This TMDL was replaced by the  2001 and 2012 Tualatin Subbasin TMDL and WQMP (Action IDs 1936 and OR_TMDL_20120828).</t>
+  </si>
+  <si>
+    <t>v20230706</t>
+  </si>
+  <si>
+    <t>The mercury TMDL was replaced by EPA's Willamette Basin Mercury Total Maximum Daily Load (Action ID OR_TMDL_20191230). The state issued WQMP for this TMDL can be found with Oregon's  2019 Revised Willamette Basin Mercury Total Maximum Daily Load. Oregon's 2019 mercury TMDL was disapproved by EPA but the state issued WQMP is still effective.</t>
+  </si>
+  <si>
+    <t>Updated TMDL revision information in the 'TMDL_active_note' field for the Tualatin TMDLs and Willmaette Basin mercury TMDLs.</t>
+  </si>
+  <si>
+    <t>10791</t>
+  </si>
+  <si>
+    <t>The total phosphours and ammonia TMDLs addressing chlorophyll-a, dissolved oxygen, pH, and algal growth were replaced by the 2012 Tualatin Subbasin TMDL and WQMP (Action ID OR_TMDL_20120828). The SOD, volatile solids, and heat TMDLs addressing dissolved oxygen, as well as the TMDLs for temperature and bacteria are still active.</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2233,11 +2275,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2254,94 +2311,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2349,14 +2353,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2640,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,13 +2703,13 @@
         <v>373</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>386</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>385</v>
@@ -2694,2342 +2718,2350 @@
         <v>399</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>2039</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1988</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I2" s="24">
+        <v>32408</v>
+      </c>
+      <c r="J2" s="25">
+        <v>32423</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>2043</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1988</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="G3" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I3" s="25">
+        <v>32408</v>
+      </c>
+      <c r="J3" s="25">
+        <v>32423</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>2035</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1991</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I4" s="24">
+        <v>33462</v>
+      </c>
+      <c r="J4" s="25">
+        <v>33679</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>2038</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1991</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="24">
+        <v>33462</v>
+      </c>
+      <c r="J5" s="25">
+        <v>33679</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>1352</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1991</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="25">
+        <v>33462</v>
+      </c>
+      <c r="J6" s="25">
+        <v>33679</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>319</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1991</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="24">
+        <v>33294</v>
+      </c>
+      <c r="J7" s="25">
+        <v>33294</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1993</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="24">
+        <v>34182</v>
+      </c>
+      <c r="J8" s="25">
+        <v>34321</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1993</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I9" s="24">
+        <v>34330</v>
+      </c>
+      <c r="J9" s="25">
+        <v>34442</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>1230</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1993</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="G10" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" s="25">
+        <v>34330</v>
+      </c>
+      <c r="J10" s="25">
+        <v>34361</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>329</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1994</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="24">
+        <v>34394</v>
+      </c>
+      <c r="J11" s="25">
+        <v>35249</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>310</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1995</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="25">
+        <v>34974</v>
+      </c>
+      <c r="J12" s="25">
+        <v>35202</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1998</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="25">
+        <v>36039</v>
+      </c>
+      <c r="J13" s="24">
+        <v>36124</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>2034</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1999</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="G14" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="25">
+        <v>36220</v>
+      </c>
+      <c r="J14" s="25">
+        <v>36284</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>489</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="25">
+        <v>36617</v>
+      </c>
+      <c r="J15" s="25">
+        <v>36649</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E16" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="25">
+        <v>37226</v>
+      </c>
+      <c r="J16" s="25">
+        <v>37285</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>1380</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" s="29">
+        <v>2001</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I17" s="25">
+        <v>37043</v>
+      </c>
+      <c r="J17" s="25">
+        <v>37103</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>1936</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="C18" s="29">
+        <v>2001</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="G18" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I18" s="25">
+        <v>37104</v>
+      </c>
+      <c r="J18" s="25">
+        <v>37110</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>1362</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" s="29">
+        <v>2001</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I19" s="25">
+        <v>36951</v>
+      </c>
+      <c r="J19" s="25">
+        <v>37020</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>2044</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="29">
+        <v>2001</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E20" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="25">
+        <v>36892</v>
+      </c>
+      <c r="J20" s="25">
+        <v>36973</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C21" s="29">
+        <v>2001</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="G21" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I21" s="25">
+        <v>37226</v>
+      </c>
+      <c r="J21" s="25">
+        <v>37286</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>2258</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="29">
+        <v>2002</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E22" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I22" s="25">
+        <v>37347</v>
+      </c>
+      <c r="J22" s="24">
+        <v>37420</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>2241</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" s="29">
+        <v>2002</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I23" s="25">
+        <v>37347</v>
+      </c>
+      <c r="J23" s="25">
+        <v>37406</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>2238</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C24" s="29">
+        <v>2002</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I24" s="25">
+        <v>37347</v>
+      </c>
+      <c r="J24" s="25">
+        <v>37389</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>3753</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="C25" s="29">
+        <v>2002</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I25" s="25">
+        <v>37526</v>
+      </c>
+      <c r="J25" s="25">
+        <v>37578</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>2352</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C26" s="29">
+        <v>2002</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I26" s="25">
+        <v>37377</v>
+      </c>
+      <c r="J26" s="25">
+        <v>37475</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>679</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="C27" s="29">
+        <v>2003</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I27" s="25">
+        <v>37831</v>
+      </c>
+      <c r="J27" s="25">
+        <v>37853</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>681</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C28" s="29">
+        <v>2003</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="E28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="G28" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I28" s="24">
+        <v>37817</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="C29" s="29">
+        <v>2004</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E29" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="G29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I29" s="24">
+        <v>38090</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>9767</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="C30" s="29">
+        <v>2004</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="G30" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I30" s="25">
+        <v>37998</v>
+      </c>
+      <c r="J30" s="25">
+        <v>38028</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="C31" s="29">
+        <v>2004</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I31" s="25">
+        <v>37998</v>
+      </c>
+      <c r="J31" s="27">
+        <v>38028</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C32" s="29">
+        <v>2004</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="E32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I32" s="25">
+        <v>38139</v>
+      </c>
+      <c r="J32" s="25">
+        <v>38239</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C33" s="29">
+        <v>2005</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I33" s="25">
+        <v>38425</v>
+      </c>
+      <c r="J33" s="25">
+        <v>38456</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>12241</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C34" s="29">
+        <v>2005</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E34" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I34" s="25">
+        <v>38608</v>
+      </c>
+      <c r="J34" s="25">
+        <v>38624</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="C35" s="29">
+        <v>2006</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E35" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="G35" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I35" s="25">
+        <v>39069</v>
+      </c>
+      <c r="J35" s="25">
+        <v>38892</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C36" s="29">
+        <v>2006</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E36" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I36" s="25">
+        <v>39021</v>
+      </c>
+      <c r="J36" s="25">
+        <v>39184</v>
+      </c>
+      <c r="K36" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="L36" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="29">
+        <v>2006</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E37" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="G37" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I37" s="25">
+        <v>38981</v>
+      </c>
+      <c r="J37" s="25">
+        <v>38989</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>688</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>33829</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="C38" s="29">
+        <v>2007</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E38" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I38" s="25">
+        <v>39287</v>
+      </c>
+      <c r="J38" s="25">
+        <v>39357</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>689</v>
+      </c>
+      <c r="M38" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>33639</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" s="29">
+        <v>2007</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E39" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I39" s="25">
+        <v>39136</v>
+      </c>
+      <c r="J39" s="25">
+        <v>39233</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="L39" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>32071</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="C40" s="29">
+        <v>2007</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E40" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I40" s="25">
+        <v>39113</v>
+      </c>
+      <c r="J40" s="25">
+        <v>39132</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="L40" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="M40" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>35890</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="29">
+        <v>2008</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E41" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I41" s="25">
+        <v>39811</v>
+      </c>
+      <c r="J41" s="25">
+        <v>39849</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M41" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="29">
+        <v>2008</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E42" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I42" s="25">
+        <v>39790</v>
+      </c>
+      <c r="J42" s="25">
+        <v>39813</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="M42" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" s="29">
+        <v>2008</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E43" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I43" s="25">
+        <v>39804</v>
+      </c>
+      <c r="J43" s="25">
+        <v>39811</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="L43" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>39753</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" s="29">
+        <v>2010</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E44" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I44" s="25">
+        <v>40491</v>
+      </c>
+      <c r="J44" s="25">
+        <v>40529</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="L44" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="M44" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="28">
+        <v>39294</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="C45" s="29">
+        <v>2010</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E45" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="30"/>
+      <c r="G45" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I45" s="25">
+        <v>40437</v>
+      </c>
+      <c r="J45" s="25">
+        <v>40445</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="L45" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
+        <v>39782</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="29">
+        <v>2010</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E46" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="30"/>
+      <c r="G46" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I46" s="25">
+        <v>40450</v>
+      </c>
+      <c r="J46" s="25">
+        <v>40515</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="M46" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="C47" s="29">
+        <v>2010</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E47" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G47" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I47" s="25">
+        <v>40533</v>
+      </c>
+      <c r="J47" s="24">
+        <v>41049</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="29">
+        <v>2011</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E48" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="G48" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I48" s="24">
+        <v>40830</v>
+      </c>
+      <c r="J48" s="25">
+        <v>40870</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M48" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="C49" s="29">
+        <v>2012</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E49" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="30"/>
+      <c r="G49" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I49" s="25">
+        <v>41149</v>
+      </c>
+      <c r="J49" s="25">
+        <v>41257</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>699</v>
+      </c>
+      <c r="M49" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="C50" s="29">
+        <v>2017</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E50" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="G50" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I50" s="25">
+        <v>43088</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="L50" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="M50" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="B51" s="29" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>2039</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2">
-        <v>1988</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C51" s="29">
+        <v>2018</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I2" s="27">
-        <v>32408</v>
-      </c>
-      <c r="J2" s="26">
-        <v>32423</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="L2" s="34" t="s">
+      <c r="E51" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="30"/>
+      <c r="G51" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I51" s="25">
+        <v>43147</v>
+      </c>
+      <c r="J51" s="25">
+        <v>43271</v>
+      </c>
+      <c r="K51" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M51" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C52" s="29">
+        <v>2019</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E52" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I52" s="25">
+        <v>43829</v>
+      </c>
+      <c r="J52" s="25">
+        <v>44231</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="L52" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="M52" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C53" s="29">
+        <v>2019</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E53" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>510</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>2043</v>
-      </c>
-      <c r="B3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3">
-        <v>1988</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F53" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="G53" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I53" s="24">
+        <v>43791</v>
+      </c>
+      <c r="J53" s="24">
+        <v>43798</v>
+      </c>
+      <c r="K53" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="L53" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="M53" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C54" s="29">
+        <v>2019</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I3" s="26">
-        <v>32408</v>
-      </c>
-      <c r="J3" s="26">
-        <v>32423</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>653</v>
-      </c>
-      <c r="M3" t="s">
-        <v>510</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>2035</v>
-      </c>
-      <c r="B4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C4">
-        <v>1991</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E54" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I54" s="25">
+        <v>43481</v>
+      </c>
+      <c r="J54" s="25">
+        <v>43536</v>
+      </c>
+      <c r="K54" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="L54" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="M54" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="C55" s="29">
+        <v>2019</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I4" s="27">
-        <v>33462</v>
-      </c>
-      <c r="J4" s="26">
-        <v>33679</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>654</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="M4" t="s">
-        <v>512</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>2038</v>
-      </c>
-      <c r="B5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C5">
-        <v>1991</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I5" s="27">
-        <v>33462</v>
-      </c>
-      <c r="J5" s="26">
-        <v>33679</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>512</v>
-      </c>
-      <c r="N5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>1352</v>
-      </c>
-      <c r="B6" t="s">
-        <v>520</v>
-      </c>
-      <c r="C6">
-        <v>1991</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I6" s="26">
-        <v>33462</v>
-      </c>
-      <c r="J6" s="26">
-        <v>33679</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>512</v>
-      </c>
-      <c r="N6" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>319</v>
-      </c>
-      <c r="B7" t="s">
-        <v>555</v>
-      </c>
-      <c r="C7">
-        <v>1991</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E55" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I55" s="25">
+        <v>43727</v>
+      </c>
+      <c r="J55" s="25">
+        <v>43738</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C56" s="29">
+        <v>2020</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I7" s="27">
-        <v>33294</v>
-      </c>
-      <c r="J7" s="26">
-        <v>33294</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="M7" t="s">
-        <v>514</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>2037</v>
-      </c>
-      <c r="B8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C8">
-        <v>1993</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I8" s="27">
-        <v>34182</v>
-      </c>
-      <c r="J8" s="26">
-        <v>34321</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="M8" t="s">
-        <v>558</v>
-      </c>
-      <c r="N8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>2036</v>
-      </c>
-      <c r="B9" t="s">
-        <v>566</v>
-      </c>
-      <c r="C9">
-        <v>1993</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I9" s="27">
-        <v>34330</v>
-      </c>
-      <c r="J9" s="26">
-        <v>34442</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>676</v>
-      </c>
-      <c r="M9" t="s">
-        <v>558</v>
-      </c>
-      <c r="N9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>1230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>597</v>
-      </c>
-      <c r="C10">
-        <v>1993</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I10" s="26">
-        <v>34330</v>
-      </c>
-      <c r="J10" s="26">
-        <v>34361</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>558</v>
-      </c>
-      <c r="N10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>329</v>
-      </c>
-      <c r="B11" t="s">
-        <v>595</v>
-      </c>
-      <c r="C11">
-        <v>1994</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I11" s="27">
-        <v>34394</v>
-      </c>
-      <c r="J11" s="26">
-        <v>35249</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>634</v>
-      </c>
-      <c r="M11" t="s">
-        <v>559</v>
-      </c>
-      <c r="N11" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>310</v>
-      </c>
-      <c r="B12" t="s">
-        <v>593</v>
-      </c>
-      <c r="C12">
-        <v>1995</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I12" s="26">
-        <v>34974</v>
-      </c>
-      <c r="J12" s="26">
-        <v>35202</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="M12" t="s">
-        <v>560</v>
-      </c>
-      <c r="N12" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>321</v>
-      </c>
-      <c r="B13" t="s">
-        <v>592</v>
-      </c>
-      <c r="C13">
-        <v>1998</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I13" s="26">
-        <v>36039</v>
-      </c>
-      <c r="J13" s="26">
-        <v>36124</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>412</v>
-      </c>
-      <c r="M13" t="s">
-        <v>561</v>
-      </c>
-      <c r="N13" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>2034</v>
-      </c>
-      <c r="B14" t="s">
-        <v>552</v>
-      </c>
-      <c r="C14">
-        <v>1999</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I14" s="26">
-        <v>36220</v>
-      </c>
-      <c r="J14" s="26">
-        <v>36284</v>
-      </c>
-      <c r="K14" s="32" t="s">
+      <c r="E56" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I56" s="25">
+        <v>43969</v>
+      </c>
+      <c r="J56" s="25">
+        <v>43969</v>
+      </c>
+      <c r="K56" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M14" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>489</v>
-      </c>
-      <c r="B15" t="s">
-        <v>591</v>
-      </c>
-      <c r="C15">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I15" s="26">
-        <v>36617</v>
-      </c>
-      <c r="J15" s="26">
-        <v>36649</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>640</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="M15" t="s">
-        <v>562</v>
-      </c>
-      <c r="N15" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>2022</v>
-      </c>
-      <c r="B16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C16">
-        <v>2001</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I16" s="26">
-        <v>37226</v>
-      </c>
-      <c r="J16" s="26">
-        <v>37285</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="M16" t="s">
-        <v>521</v>
-      </c>
-      <c r="N16" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>1380</v>
-      </c>
-      <c r="B17" t="s">
-        <v>584</v>
-      </c>
-      <c r="C17">
-        <v>2001</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I17" s="26">
-        <v>37043</v>
-      </c>
-      <c r="J17" s="26">
-        <v>37103</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="M17" t="s">
-        <v>521</v>
-      </c>
-      <c r="N17" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>1936</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="L56" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="N56" s="29" t="s">
         <v>582</v>
-      </c>
-      <c r="C18">
-        <v>2001</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I18" s="26">
-        <v>37104</v>
-      </c>
-      <c r="J18" s="26">
-        <v>37110</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="M18" t="s">
-        <v>521</v>
-      </c>
-      <c r="N18" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>1362</v>
-      </c>
-      <c r="B19" t="s">
-        <v>587</v>
-      </c>
-      <c r="C19">
-        <v>2001</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I19" s="26">
-        <v>36951</v>
-      </c>
-      <c r="J19" s="26">
-        <v>37020</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="M19" t="s">
-        <v>521</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>2044</v>
-      </c>
-      <c r="B20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C20">
-        <v>2001</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I20" s="26">
-        <v>36892</v>
-      </c>
-      <c r="J20" s="26">
-        <v>36973</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M20" t="s">
-        <v>521</v>
-      </c>
-      <c r="N20" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>2021</v>
-      </c>
-      <c r="B21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C21">
-        <v>2001</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I21" s="26">
-        <v>37226</v>
-      </c>
-      <c r="J21" s="27">
-        <v>37286</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M21" s="46" t="s">
-        <v>521</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>2258</v>
-      </c>
-      <c r="B22" t="s">
-        <v>548</v>
-      </c>
-      <c r="C22">
-        <v>2002</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I22" s="26">
-        <v>37347</v>
-      </c>
-      <c r="J22" s="26">
-        <v>37420</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M22" s="46" t="s">
-        <v>563</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>2241</v>
-      </c>
-      <c r="B23" t="s">
-        <v>551</v>
-      </c>
-      <c r="C23">
-        <v>2002</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I23" s="26">
-        <v>37347</v>
-      </c>
-      <c r="J23" s="26">
-        <v>37406</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M23" s="46" t="s">
-        <v>563</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>2238</v>
-      </c>
-      <c r="B24" t="s">
-        <v>580</v>
-      </c>
-      <c r="C24">
-        <v>2002</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I24" s="26">
-        <v>37347</v>
-      </c>
-      <c r="J24" s="26">
-        <v>37389</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="M24" s="46" t="s">
-        <v>563</v>
-      </c>
-      <c r="N24" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>3753</v>
-      </c>
-      <c r="B25" t="s">
-        <v>576</v>
-      </c>
-      <c r="C25">
-        <v>2002</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I25" s="26">
-        <v>37526</v>
-      </c>
-      <c r="J25" s="26">
-        <v>37578</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="L25" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="M25" s="46" t="s">
-        <v>577</v>
-      </c>
-      <c r="N25" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <v>2352</v>
-      </c>
-      <c r="B26" t="s">
-        <v>579</v>
-      </c>
-      <c r="C26">
-        <v>2002</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I26" s="26">
-        <v>37377</v>
-      </c>
-      <c r="J26" s="26">
-        <v>37475</v>
-      </c>
-      <c r="K26" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>563</v>
-      </c>
-      <c r="N26" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>657</v>
-      </c>
-      <c r="B27" t="s">
-        <v>568</v>
-      </c>
-      <c r="C27">
-        <v>2003</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I27" s="26">
-        <v>37831</v>
-      </c>
-      <c r="J27" s="26">
-        <v>37853</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="M27" t="s">
-        <v>564</v>
-      </c>
-      <c r="N27" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>675</v>
-      </c>
-      <c r="B28" t="s">
-        <v>569</v>
-      </c>
-      <c r="C28">
-        <v>2003</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I28" s="27">
-        <v>37817</v>
-      </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="32" t="s">
-        <v>660</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="M28" t="s">
-        <v>571</v>
-      </c>
-      <c r="N28" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="B29" t="s">
-        <v>574</v>
-      </c>
-      <c r="C29">
-        <v>2004</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I29" s="27">
-        <v>38090</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="M29" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="N29" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
-        <v>9767</v>
-      </c>
-      <c r="B30" t="s">
-        <v>567</v>
-      </c>
-      <c r="C30">
-        <v>2004</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I30" s="26">
-        <v>37998</v>
-      </c>
-      <c r="J30" s="26">
-        <v>38028</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M30" t="s">
-        <v>564</v>
-      </c>
-      <c r="N30" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>658</v>
-      </c>
-      <c r="B31" t="s">
-        <v>547</v>
-      </c>
-      <c r="C31">
-        <v>2004</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I31" s="26">
-        <v>37998</v>
-      </c>
-      <c r="J31" s="47">
-        <v>38028</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="M31" s="46" t="s">
-        <v>498</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>10791</v>
-      </c>
-      <c r="B32" t="s">
-        <v>569</v>
-      </c>
-      <c r="C32">
-        <v>2004</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I32" s="26">
-        <v>38139</v>
-      </c>
-      <c r="J32" s="26">
-        <v>38239</v>
-      </c>
-      <c r="K32" s="32" t="s">
-        <v>660</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="M32" t="s">
-        <v>572</v>
-      </c>
-      <c r="N32" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <v>11395</v>
-      </c>
-      <c r="B33" t="s">
-        <v>545</v>
-      </c>
-      <c r="C33">
-        <v>2005</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I33" s="26">
-        <v>38425</v>
-      </c>
-      <c r="J33" s="26">
-        <v>38456</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="M33" s="46" t="s">
-        <v>623</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
-        <v>12241</v>
-      </c>
-      <c r="B34" t="s">
-        <v>543</v>
-      </c>
-      <c r="C34">
-        <v>2005</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I34" s="26">
-        <v>38608</v>
-      </c>
-      <c r="J34" s="26">
-        <v>38624</v>
-      </c>
-      <c r="K34" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M34" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="B35" t="s">
-        <v>540</v>
-      </c>
-      <c r="C35">
-        <v>2006</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I35" s="26">
-        <v>39069</v>
-      </c>
-      <c r="J35" s="26">
-        <v>38892</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="L35" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="M35" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="N35" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="B36" t="s">
-        <v>539</v>
-      </c>
-      <c r="C36">
-        <v>2006</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I36" s="26">
-        <v>39021</v>
-      </c>
-      <c r="J36" s="26">
-        <v>39184</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>637</v>
-      </c>
-      <c r="L36" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="M36" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>30674</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>2006</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I37" s="26">
-        <v>38981</v>
-      </c>
-      <c r="J37" s="26">
-        <v>38989</v>
-      </c>
-      <c r="K37" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="M37" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
-        <v>33829</v>
-      </c>
-      <c r="B38" t="s">
-        <v>628</v>
-      </c>
-      <c r="C38">
-        <v>2007</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I38" s="26">
-        <v>39287</v>
-      </c>
-      <c r="J38" s="26">
-        <v>39357</v>
-      </c>
-      <c r="K38" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="L38" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="M38" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
-        <v>33639</v>
-      </c>
-      <c r="B39" t="s">
-        <v>599</v>
-      </c>
-      <c r="C39">
-        <v>2007</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I39" s="29">
-        <v>39136</v>
-      </c>
-      <c r="J39" s="29">
-        <v>39233</v>
-      </c>
-      <c r="K39" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="L39" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="M39" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="N39" s="34" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
-        <v>32071</v>
-      </c>
-      <c r="B40" t="s">
-        <v>641</v>
-      </c>
-      <c r="C40">
-        <v>2007</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I40" s="26">
-        <v>39113</v>
-      </c>
-      <c r="J40" s="26">
-        <v>39132</v>
-      </c>
-      <c r="K40" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="L40" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="M40" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
-        <v>35890</v>
-      </c>
-      <c r="B41" t="s">
-        <v>353</v>
-      </c>
-      <c r="C41">
-        <v>2008</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I41" s="26">
-        <v>39811</v>
-      </c>
-      <c r="J41" s="26">
-        <v>39849</v>
-      </c>
-      <c r="K41" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M41" s="46" t="s">
-        <v>621</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
-        <v>35888</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42">
-        <v>2008</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I42" s="26">
-        <v>39790</v>
-      </c>
-      <c r="J42" s="26">
-        <v>39813</v>
-      </c>
-      <c r="K42" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="L42" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="M42" s="46" t="s">
-        <v>621</v>
-      </c>
-      <c r="N42" s="13" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="B43" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43">
-        <v>2008</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="22"/>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I43" s="26">
-        <v>39804</v>
-      </c>
-      <c r="J43" s="26">
-        <v>39811</v>
-      </c>
-      <c r="K43" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="M43" s="46" t="s">
-        <v>621</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>39753</v>
-      </c>
-      <c r="B44" t="s">
-        <v>355</v>
-      </c>
-      <c r="C44">
-        <v>2010</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" s="22"/>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I44" s="26">
-        <v>40491</v>
-      </c>
-      <c r="J44" s="26">
-        <v>40529</v>
-      </c>
-      <c r="K44" s="32" t="s">
-        <v>633</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="M44" s="46" t="s">
-        <v>622</v>
-      </c>
-      <c r="N44" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
-        <v>39294</v>
-      </c>
-      <c r="B45" t="s">
-        <v>642</v>
-      </c>
-      <c r="C45">
-        <v>2010</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" s="22"/>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I45" s="26">
-        <v>40437</v>
-      </c>
-      <c r="J45" s="26">
-        <v>40445</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="M45" s="46" t="s">
-        <v>622</v>
-      </c>
-      <c r="N45" s="13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>39782</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46">
-        <v>2010</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" s="22"/>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I46" s="26">
-        <v>40450</v>
-      </c>
-      <c r="J46" s="26">
-        <v>40515</v>
-      </c>
-      <c r="K46" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="L46" s="34" t="s">
-        <v>494</v>
-      </c>
-      <c r="M46" s="46" t="s">
-        <v>622</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
-        <v>42375</v>
-      </c>
-      <c r="B47" t="s">
-        <v>588</v>
-      </c>
-      <c r="C47">
-        <v>2010</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I47" s="26">
-        <v>40533</v>
-      </c>
-      <c r="J47" s="27">
-        <v>41049</v>
-      </c>
-      <c r="K47" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="M47" s="46" t="s">
-        <v>622</v>
-      </c>
-      <c r="N47" s="13" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="B48" t="s">
-        <v>374</v>
-      </c>
-      <c r="C48">
-        <v>2011</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I48" s="27">
-        <v>40830</v>
-      </c>
-      <c r="J48" s="26">
-        <v>40870</v>
-      </c>
-      <c r="K48" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M48" s="46" t="s">
-        <v>523</v>
-      </c>
-      <c r="N48" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="B49" t="s">
-        <v>532</v>
-      </c>
-      <c r="C49">
-        <v>2012</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I49" s="26">
-        <v>41149</v>
-      </c>
-      <c r="J49" s="26">
-        <v>41257</v>
-      </c>
-      <c r="K49" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="M49" s="46" t="s">
-        <v>524</v>
-      </c>
-      <c r="N49" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="B50" t="s">
-        <v>531</v>
-      </c>
-      <c r="C50">
-        <v>2017</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I50" s="26">
-        <v>43088</v>
-      </c>
-      <c r="J50" s="28"/>
-      <c r="K50" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="M50" s="46" t="s">
-        <v>525</v>
-      </c>
-      <c r="N50" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="B51" t="s">
-        <v>534</v>
-      </c>
-      <c r="C51">
-        <v>2018</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I51" s="26">
-        <v>43147</v>
-      </c>
-      <c r="J51" s="26">
-        <v>43271</v>
-      </c>
-      <c r="K51" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L51" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M51" s="46" t="s">
-        <v>526</v>
-      </c>
-      <c r="N51" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="B52" t="s">
-        <v>376</v>
-      </c>
-      <c r="C52">
-        <v>2019</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I52" s="31">
-        <v>43829</v>
-      </c>
-      <c r="J52" s="31">
-        <v>44231</v>
-      </c>
-      <c r="K52" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="L52" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="M52" s="46" t="s">
-        <v>528</v>
-      </c>
-      <c r="N52" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C53">
-        <v>2019</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I53" s="30">
-        <v>43791</v>
-      </c>
-      <c r="J53" s="27">
-        <v>43798</v>
-      </c>
-      <c r="K53" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="L53" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="M53" s="46" t="s">
-        <v>527</v>
-      </c>
-      <c r="N53" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="B54" t="s">
-        <v>530</v>
-      </c>
-      <c r="C54">
-        <v>2019</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I54" s="26">
-        <v>43481</v>
-      </c>
-      <c r="J54" s="26">
-        <v>43536</v>
-      </c>
-      <c r="K54" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="M54" s="46" t="s">
-        <v>527</v>
-      </c>
-      <c r="N54" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="B55" t="s">
-        <v>629</v>
-      </c>
-      <c r="C55">
-        <v>2019</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I55" s="26">
-        <v>43727</v>
-      </c>
-      <c r="J55" s="26">
-        <v>43738</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="M55" s="46" t="s">
-        <v>527</v>
-      </c>
-      <c r="N55" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="B56" t="s">
-        <v>380</v>
-      </c>
-      <c r="C56">
-        <v>2020</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I56" s="26">
-        <v>43969</v>
-      </c>
-      <c r="J56" s="26">
-        <v>43969</v>
-      </c>
-      <c r="K56" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L56" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="M56" s="46" t="s">
-        <v>529</v>
-      </c>
-      <c r="N56" t="s">
-        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -5073,10 +5105,10 @@
       <c r="D1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5192,10 +5224,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="C7" s="5" t="b">
         <v>1</v>
@@ -5214,10 +5246,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="B8" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="C8" s="5" t="b">
         <v>1</v>
@@ -5236,10 +5268,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>689</v>
+        <v>638</v>
       </c>
       <c r="B9" t="s">
-        <v>691</v>
+        <v>640</v>
       </c>
       <c r="C9" s="5" t="b">
         <v>1</v>
@@ -5258,10 +5290,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>690</v>
+        <v>639</v>
       </c>
       <c r="B10" t="s">
-        <v>692</v>
+        <v>641</v>
       </c>
       <c r="C10" s="5" t="b">
         <v>1</v>
@@ -5280,10 +5312,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C11" s="5" t="b">
         <v>1</v>
@@ -5918,16 +5950,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>678</v>
+        <v>629</v>
       </c>
       <c r="B40" t="s">
-        <v>677</v>
+        <v>628</v>
       </c>
       <c r="C40" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="E40">
         <f>VLOOKUP(D40,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -5948,8 +5980,8 @@
       <c r="C41" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>659</v>
+      <c r="D41" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="E41">
         <f>VLOOKUP(D41,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -5970,8 +6002,8 @@
       <c r="C42" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>659</v>
+      <c r="D42" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="E42">
         <f>VLOOKUP(D42,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -5992,8 +6024,8 @@
       <c r="C43" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>659</v>
+      <c r="D43" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="E43">
         <f>VLOOKUP(D43,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6014,8 +6046,8 @@
       <c r="C44" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>659</v>
+      <c r="D44" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="E44">
         <f>VLOOKUP(D44,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6036,8 +6068,8 @@
       <c r="C45" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="24" t="s">
-        <v>659</v>
+      <c r="D45" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="E45">
         <f>VLOOKUP(D45,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6058,8 +6090,8 @@
       <c r="C46" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>659</v>
+      <c r="D46" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="E46">
         <f>VLOOKUP(D46,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6080,8 +6112,8 @@
       <c r="C47" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>659</v>
+      <c r="D47" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="E47">
         <f>VLOOKUP(D47,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6105,13 +6137,13 @@
       <c r="D48" s="5">
         <v>30674</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="e">
         <f>VLOOKUP(D48,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="F48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F48" t="e">
         <f>VLOOKUP(D48,tmdl_actions_table!$A$2:$G$60,2,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6127,13 +6159,13 @@
       <c r="D49" s="5">
         <v>30674</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="e">
         <f>VLOOKUP(D49,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="F49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F49" t="e">
         <f>VLOOKUP(D49,tmdl_actions_table!$A$2:$G$60,2,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6149,13 +6181,13 @@
       <c r="D50" s="5">
         <v>30674</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="e">
         <f>VLOOKUP(D50,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="F50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F50" t="e">
         <f>VLOOKUP(D50,tmdl_actions_table!$A$2:$G$60,2,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6171,13 +6203,13 @@
       <c r="D51" s="5">
         <v>30674</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="e">
         <f>VLOOKUP(D51,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="F51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F51" t="e">
         <f>VLOOKUP(D51,tmdl_actions_table!$A$2:$G$60,2,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6193,13 +6225,13 @@
       <c r="D52" s="5">
         <v>30674</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="e">
         <f>VLOOKUP(D52,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="F52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F52" t="e">
         <f>VLOOKUP(D52,tmdl_actions_table!$A$2:$G$60,2,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6229,7 +6261,7 @@
         <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C54" s="5" t="b">
         <v>1</v>
@@ -6325,13 +6357,13 @@
       <c r="D58" s="5">
         <v>35888</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="e">
         <f>VLOOKUP(D58,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
-        <v>2008</v>
-      </c>
-      <c r="F58" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F58" t="e">
         <f>VLOOKUP(D58,tmdl_actions_table!$A$2:$G$60,2,FALSE)</f>
-        <v>Molalla-Pudding Subbasin TMDL and WQMP</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6347,13 +6379,13 @@
       <c r="D59" s="5">
         <v>35888</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="e">
         <f>VLOOKUP(D59,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
-        <v>2008</v>
-      </c>
-      <c r="F59" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F59" t="e">
         <f>VLOOKUP(D59,tmdl_actions_table!$A$2:$G$60,2,FALSE)</f>
-        <v>Molalla-Pudding Subbasin TMDL and WQMP</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6369,13 +6401,13 @@
       <c r="D60" s="5">
         <v>35888</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="e">
         <f>VLOOKUP(D60,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
-        <v>2008</v>
-      </c>
-      <c r="F60" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F60" t="e">
         <f>VLOOKUP(D60,tmdl_actions_table!$A$2:$G$60,2,FALSE)</f>
-        <v>Molalla-Pudding Subbasin TMDL and WQMP</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6410,7 +6442,7 @@
       <c r="C62" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E62">
@@ -6432,7 +6464,7 @@
       <c r="C63" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E63">
@@ -6454,7 +6486,7 @@
       <c r="C64" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E64">
@@ -6476,7 +6508,7 @@
       <c r="C65" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E65">
@@ -6498,7 +6530,7 @@
       <c r="C66" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E66">
@@ -6520,7 +6552,7 @@
       <c r="C67" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E67">
@@ -6542,7 +6574,7 @@
       <c r="C68" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E68">
@@ -6564,7 +6596,7 @@
       <c r="C69" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E69">
@@ -6586,7 +6618,7 @@
       <c r="C70" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E70">
@@ -6608,7 +6640,7 @@
       <c r="C71" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E71">
@@ -6630,7 +6662,7 @@
       <c r="C72" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E72">
@@ -6652,7 +6684,7 @@
       <c r="C73" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E73">
@@ -6674,7 +6706,7 @@
       <c r="C74" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E74">
@@ -6696,7 +6728,7 @@
       <c r="C75" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E75">
@@ -6718,7 +6750,7 @@
       <c r="C76" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E76">
@@ -6740,7 +6772,7 @@
       <c r="C77" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="16" t="s">
         <v>390</v>
       </c>
       <c r="E77">
@@ -6910,7 +6942,7 @@
       <c r="A85" t="s">
         <v>208</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C85" s="5" t="b">
@@ -6932,7 +6964,7 @@
       <c r="A86" t="s">
         <v>209</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C86" s="5" t="b">
@@ -6954,7 +6986,7 @@
       <c r="A87" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C87" s="5" t="b">
@@ -6998,7 +7030,7 @@
       <c r="A89" t="s">
         <v>211</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C89" s="5" t="b">
@@ -7020,7 +7052,7 @@
       <c r="A90" t="s">
         <v>212</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C90" s="5" t="b">
@@ -7042,7 +7074,7 @@
       <c r="A91" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C91" s="5" t="b">
@@ -7064,7 +7096,7 @@
       <c r="A92" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C92" s="5" t="b">
@@ -7086,7 +7118,7 @@
       <c r="A93" t="s">
         <v>215</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C93" s="5" t="b">
@@ -7108,7 +7140,7 @@
       <c r="A94" t="s">
         <v>216</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C94" s="5" t="b">
@@ -7237,10 +7269,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+      <c r="A100" t="s">
         <v>223</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" t="s">
         <v>198</v>
       </c>
       <c r="C100" s="5" t="b">
@@ -7379,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="E106">
         <f>VLOOKUP(D106,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7401,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="E107">
         <f>VLOOKUP(D107,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7423,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="E108">
         <f>VLOOKUP(D108,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7445,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="E109">
         <f>VLOOKUP(D109,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7467,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="E110">
         <f>VLOOKUP(D110,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7520,13 +7552,13 @@
       <c r="A1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>229</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -7562,7 +7594,7 @@
       <c r="O1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="14" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7585,7 +7617,7 @@
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -7758,7 +7790,7 @@
       <c r="E6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -7802,11 +7834,11 @@
       <c r="E7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -7827,12 +7859,12 @@
         <v>43738</v>
       </c>
       <c r="P7" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="B8">
         <v>319</v>
@@ -7845,10 +7877,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>7</v>
@@ -7857,7 +7889,7 @@
         <v>5.97</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>688</v>
+        <v>637</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -7872,12 +7904,12 @@
         <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="B9">
         <v>319</v>
@@ -7890,10 +7922,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>7</v>
@@ -7902,7 +7934,7 @@
         <v>0.54</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>688</v>
+        <v>637</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -7917,12 +7949,12 @@
         <v>51</v>
       </c>
       <c r="P9" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>689</v>
+        <v>638</v>
       </c>
       <c r="B10">
         <v>319</v>
@@ -7935,10 +7967,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>7</v>
@@ -7947,7 +7979,7 @@
         <v>0.03</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>688</v>
+        <v>637</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -7959,15 +7991,15 @@
         <v>43830</v>
       </c>
       <c r="O10" t="s">
-        <v>694</v>
+        <v>643</v>
       </c>
       <c r="P10" t="s">
-        <v>693</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>690</v>
+        <v>639</v>
       </c>
       <c r="B11">
         <v>319</v>
@@ -7980,10 +8012,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>7</v>
@@ -7992,7 +8024,7 @@
         <v>0.02</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>688</v>
+        <v>637</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -8004,20 +8036,20 @@
         <v>43830</v>
       </c>
       <c r="O11" t="s">
-        <v>694</v>
+        <v>643</v>
       </c>
       <c r="P11" t="s">
-        <v>693</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B12" s="41">
+        <v>426</v>
+      </c>
+      <c r="B12" s="20">
         <v>1352</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="21">
         <v>1991</v>
       </c>
       <c r="D12" s="5" t="str">
@@ -8027,11 +8059,11 @@
       <c r="E12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
@@ -8052,7 +8084,7 @@
         <v>43769</v>
       </c>
       <c r="P12" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -9686,7 +9718,7 @@
       <c r="E51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -9701,7 +9733,7 @@
       <c r="J51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L51" s="3">
@@ -9730,7 +9762,7 @@
       <c r="E52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -9745,7 +9777,7 @@
       <c r="J52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L52" s="3">
@@ -9774,7 +9806,7 @@
       <c r="E53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -9789,7 +9821,7 @@
       <c r="J53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L53" s="3">
@@ -9818,7 +9850,7 @@
       <c r="E54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -9833,7 +9865,7 @@
       <c r="J54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L54" s="3">
@@ -9862,7 +9894,7 @@
       <c r="E55" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -9877,7 +9909,7 @@
       <c r="J55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L55" s="3">
@@ -9906,7 +9938,7 @@
       <c r="E56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -9921,7 +9953,7 @@
       <c r="J56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L56" s="3">
@@ -9950,7 +9982,7 @@
       <c r="E57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -9965,7 +9997,7 @@
       <c r="J57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L57" s="3">
@@ -9994,7 +10026,7 @@
       <c r="E58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -10009,7 +10041,7 @@
       <c r="J58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L58" s="3">
@@ -10038,7 +10070,7 @@
       <c r="E59" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -10053,7 +10085,7 @@
       <c r="J59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L59" s="3">
@@ -10082,7 +10114,7 @@
       <c r="E60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -10097,7 +10129,7 @@
       <c r="J60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L60" s="3">
@@ -10126,7 +10158,7 @@
       <c r="E61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G61" s="5" t="s">
@@ -10141,7 +10173,7 @@
       <c r="J61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L61" s="3">
@@ -10185,7 +10217,7 @@
       <c r="J62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L62" s="3">
@@ -10217,7 +10249,7 @@
       <c r="E63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -10232,7 +10264,7 @@
       <c r="J63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L63" s="3">
@@ -10261,7 +10293,7 @@
       <c r="E64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G64" s="5" t="s">
@@ -10276,7 +10308,7 @@
       <c r="J64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L64" s="3">
@@ -10305,7 +10337,7 @@
       <c r="E65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -10320,7 +10352,7 @@
       <c r="J65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L65" s="3">
@@ -10349,7 +10381,7 @@
       <c r="E66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -10396,7 +10428,7 @@
       <c r="E67" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -10446,7 +10478,7 @@
       <c r="E68" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -10493,7 +10525,7 @@
       <c r="E69" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -10523,7 +10555,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>678</v>
+        <v>629</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(A70,geo_id_table!$A$2:$F$110,4,FALSE)</f>
@@ -10538,7 +10570,7 @@
         <v>Applegate Subbasin Total Maximum Daily Load (TMDL)</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>679</v>
+        <v>630</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>89</v>
@@ -10565,7 +10597,7 @@
         <v>177</v>
       </c>
       <c r="P70" t="s">
-        <v>680</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -10599,7 +10631,7 @@
       <c r="J71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="K71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L71" s="3">
@@ -10634,7 +10666,7 @@
       <c r="E72" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -10649,7 +10681,7 @@
       <c r="J72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="23" t="s">
+      <c r="K72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L72" s="3">
@@ -10731,7 +10763,7 @@
       <c r="E74" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -10919,7 +10951,7 @@
       <c r="E78" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -11028,7 +11060,7 @@
       <c r="J80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K80" s="23" t="s">
+      <c r="K80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L80" s="3">
@@ -11198,7 +11230,7 @@
       <c r="E84" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -11328,13 +11360,13 @@
         <f>VLOOKUP(A87,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="e">
         <f>VLOOKUP(A87,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D87" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D87" s="5" t="e">
         <f>VLOOKUP(A87,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>22</v>
@@ -11351,7 +11383,7 @@
       <c r="J87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K87" s="11" t="s">
+      <c r="K87" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L87" s="3">
@@ -11375,18 +11407,18 @@
         <f>VLOOKUP(A88,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="e">
         <f>VLOOKUP(A88,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D88" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D88" s="5" t="e">
         <f>VLOOKUP(A88,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F88" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -11398,7 +11430,7 @@
       <c r="J88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K88" s="11" t="s">
+      <c r="K88" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L88" s="3">
@@ -11422,18 +11454,18 @@
         <f>VLOOKUP(A89,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="e">
         <f>VLOOKUP(A89,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D89" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D89" s="5" t="e">
         <f>VLOOKUP(A89,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="20" t="s">
+      <c r="F89" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -11445,7 +11477,7 @@
       <c r="J89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K89" s="11" t="s">
+      <c r="K89" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L89" s="3">
@@ -11469,13 +11501,13 @@
         <f>VLOOKUP(A90,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="e">
         <f>VLOOKUP(A90,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D90" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D90" s="5" t="e">
         <f>VLOOKUP(A90,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>56</v>
@@ -11492,7 +11524,7 @@
       <c r="J90" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K90" s="11" t="s">
+      <c r="K90" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L90" s="3">
@@ -11513,13 +11545,13 @@
         <f>VLOOKUP(A91,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="e">
         <f>VLOOKUP(A91,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D91" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D91" s="5" t="e">
         <f>VLOOKUP(A91,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>34</v>
@@ -11536,7 +11568,7 @@
       <c r="J91" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L91" s="3">
@@ -11557,13 +11589,13 @@
         <f>VLOOKUP(A92,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="e">
         <f>VLOOKUP(A92,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D92" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D92" s="5" t="e">
         <f>VLOOKUP(A92,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>55</v>
@@ -11580,7 +11612,7 @@
       <c r="J92" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K92" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L92" s="3">
@@ -11601,13 +11633,13 @@
         <f>VLOOKUP(A93,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="e">
         <f>VLOOKUP(A93,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D93" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D93" s="5" t="e">
         <f>VLOOKUP(A93,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>57</v>
@@ -11624,7 +11656,7 @@
       <c r="J93" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K93" s="11" t="s">
+      <c r="K93" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L93" s="3">
@@ -11645,13 +11677,13 @@
         <f>VLOOKUP(A94,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="e">
         <f>VLOOKUP(A94,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D94" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D94" s="5" t="e">
         <f>VLOOKUP(A94,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>53</v>
@@ -11668,7 +11700,7 @@
       <c r="J94" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K94" s="11" t="s">
+      <c r="K94" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L94" s="3">
@@ -11689,13 +11721,13 @@
         <f>VLOOKUP(A95,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="e">
         <f>VLOOKUP(A95,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D95" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D95" s="5" t="e">
         <f>VLOOKUP(A95,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>54</v>
@@ -11712,7 +11744,7 @@
       <c r="J95" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K95" s="11" t="s">
+      <c r="K95" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L95" s="3">
@@ -11733,13 +11765,13 @@
         <f>VLOOKUP(A96,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="e">
         <f>VLOOKUP(A96,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D96" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D96" s="5" t="e">
         <f>VLOOKUP(A96,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>22</v>
@@ -11756,7 +11788,7 @@
       <c r="J96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K96" s="11" t="s">
+      <c r="K96" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L96" s="3">
@@ -11780,18 +11812,18 @@
         <f>VLOOKUP(A97,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="e">
         <f>VLOOKUP(A97,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D97" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D97" s="5" t="e">
         <f>VLOOKUP(A97,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="F97" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -11803,7 +11835,7 @@
       <c r="J97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K97" s="11" t="s">
+      <c r="K97" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L97" s="3">
@@ -11827,18 +11859,18 @@
         <f>VLOOKUP(A98,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="e">
         <f>VLOOKUP(A98,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D98" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D98" s="5" t="e">
         <f>VLOOKUP(A98,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F98" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -11850,7 +11882,7 @@
       <c r="J98" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K98" s="11" t="s">
+      <c r="K98" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L98" s="3">
@@ -11874,13 +11906,13 @@
         <f>VLOOKUP(A99,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="e">
         <f>VLOOKUP(A99,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D99" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D99" s="5" t="e">
         <f>VLOOKUP(A99,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>61</v>
@@ -11918,13 +11950,13 @@
         <f>VLOOKUP(A100,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="e">
         <f>VLOOKUP(A100,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D100" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D100" s="5" t="e">
         <f>VLOOKUP(A100,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>22</v>
@@ -11965,18 +11997,18 @@
         <f>VLOOKUP(A101,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>30674</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="e">
         <f>VLOOKUP(A101,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D101" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D101" s="5" t="e">
         <f>VLOOKUP(A101,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Willamette Basin TMDL</v>
+        <v>#N/A</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="F101" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G101" s="5" t="s">
@@ -12020,7 +12052,7 @@
       <c r="E102" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="F102" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G102" s="5" t="s">
@@ -12067,7 +12099,7 @@
       <c r="E103" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F103" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G103" s="5" t="s">
@@ -12082,7 +12114,7 @@
       <c r="J103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K103" s="11" t="s">
+      <c r="K103" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L103" s="3">
@@ -12111,7 +12143,7 @@
       <c r="E104" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="F104" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G104" s="5" t="s">
@@ -12158,7 +12190,7 @@
       <c r="E105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F105" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -12205,7 +12237,7 @@
       <c r="E106" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="20" t="s">
+      <c r="F106" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G106" s="5" t="s">
@@ -12241,18 +12273,18 @@
         <f>VLOOKUP(A107,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>35888</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="e">
         <f>VLOOKUP(A107,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2008</v>
-      </c>
-      <c r="D107" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D107" s="5" t="e">
         <f>VLOOKUP(A107,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Molalla-Pudding Subbasin TMDL and WQMP</v>
+        <v>#N/A</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F107" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G107" s="5" t="s">
@@ -12288,18 +12320,18 @@
         <f>VLOOKUP(A108,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>35888</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="e">
         <f>VLOOKUP(A108,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2008</v>
-      </c>
-      <c r="D108" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D108" s="5" t="e">
         <f>VLOOKUP(A108,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Molalla-Pudding Subbasin TMDL and WQMP</v>
+        <v>#N/A</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="F108" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G108" s="5" t="s">
@@ -12335,18 +12367,18 @@
         <f>VLOOKUP(A109,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>35888</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="e">
         <f>VLOOKUP(A109,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2008</v>
-      </c>
-      <c r="D109" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D109" s="5" t="e">
         <f>VLOOKUP(A109,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Molalla-Pudding Subbasin TMDL and WQMP</v>
+        <v>#N/A</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="20" t="s">
+      <c r="F109" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G109" s="5" t="s">
@@ -12382,18 +12414,18 @@
         <f>VLOOKUP(A110,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>35888</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="e">
         <f>VLOOKUP(A110,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2008</v>
-      </c>
-      <c r="D110" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D110" s="5" t="e">
         <f>VLOOKUP(A110,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Molalla-Pudding Subbasin TMDL and WQMP</v>
+        <v>#N/A</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="20" t="s">
+      <c r="F110" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G110" s="5" t="s">
@@ -12429,18 +12461,18 @@
         <f>VLOOKUP(A111,geo_id_table!$A$2:$F$109,4,FALSE)</f>
         <v>35888</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="e">
         <f>VLOOKUP(A111,geo_id_table!$A$2:$F$109,5,FALSE)</f>
-        <v>2008</v>
-      </c>
-      <c r="D111" s="5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D111" s="5" t="e">
         <f>VLOOKUP(A111,geo_id_table!$A$2:$F$109,6,FALSE)</f>
-        <v>Molalla-Pudding Subbasin TMDL and WQMP</v>
+        <v>#N/A</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="20" t="s">
+      <c r="F111" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G111" s="5" t="s">
@@ -12487,7 +12519,7 @@
       <c r="E112" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F112" s="20" t="s">
+      <c r="F112" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G112" s="5" t="s">
@@ -12534,7 +12566,7 @@
       <c r="E113" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F113" s="20" t="s">
+      <c r="F113" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G113" s="5" t="s">
@@ -12578,7 +12610,7 @@
       <c r="E114" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F114" s="20" t="s">
+      <c r="F114" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G114" s="5" t="s">
@@ -12622,7 +12654,7 @@
       <c r="E115" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F115" s="20" t="s">
+      <c r="F115" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -12666,7 +12698,7 @@
       <c r="E116" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="F116" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -12710,7 +12742,7 @@
       <c r="E117" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="F117" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -12754,7 +12786,7 @@
       <c r="E118" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F118" s="20" t="s">
+      <c r="F118" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G118" s="5" t="s">
@@ -12798,7 +12830,7 @@
       <c r="E119" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F119" s="20" t="s">
+      <c r="F119" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G119" s="5" t="s">
@@ -12842,7 +12874,7 @@
       <c r="E120" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F120" s="20" t="s">
+      <c r="F120" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G120" s="5" t="s">
@@ -12886,7 +12918,7 @@
       <c r="E121" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F121" s="20" t="s">
+      <c r="F121" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G121" s="5" t="s">
@@ -12930,7 +12962,7 @@
       <c r="E122" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G122" s="5" t="s">
@@ -12974,7 +13006,7 @@
       <c r="E123" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F123" s="20" t="s">
+      <c r="F123" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G123" s="5" t="s">
@@ -13018,7 +13050,7 @@
       <c r="E124" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F124" s="20" t="s">
+      <c r="F124" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G124" s="5" t="s">
@@ -13062,7 +13094,7 @@
       <c r="E125" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="F125" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G125" s="5" t="s">
@@ -13109,7 +13141,7 @@
       <c r="E126" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F126" s="20" t="s">
+      <c r="F126" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G126" s="5" t="s">
@@ -13156,7 +13188,7 @@
       <c r="E127" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F127" s="20" t="s">
+      <c r="F127" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G127" s="5" t="s">
@@ -13203,7 +13235,7 @@
       <c r="E128" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F128" s="20" t="s">
+      <c r="F128" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G128" s="5" t="s">
@@ -13250,7 +13282,7 @@
       <c r="E129" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F129" s="20" t="s">
+      <c r="F129" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G129" s="5" t="s">
@@ -13297,7 +13329,7 @@
       <c r="E130" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F130" s="20" t="s">
+      <c r="F130" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G130" s="5" t="s">
@@ -13344,7 +13376,7 @@
       <c r="E131" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="F131" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G131" s="5" t="s">
@@ -13388,7 +13420,7 @@
       <c r="E132" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F132" s="20" t="s">
+      <c r="F132" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G132" s="5" t="s">
@@ -13432,7 +13464,7 @@
       <c r="E133" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F133" s="20" t="s">
+      <c r="F133" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G133" s="5" t="s">
@@ -13488,7 +13520,7 @@
       <c r="J134" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K134" s="11" t="s">
+      <c r="K134" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L134" s="3">
@@ -13529,7 +13561,7 @@
       <c r="J135" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K135" s="11" t="s">
+      <c r="K135" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L135" s="3">
@@ -13570,7 +13602,7 @@
       <c r="J136" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K136" s="11" t="s">
+      <c r="K136" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L136" s="3">
@@ -13611,7 +13643,7 @@
       <c r="J137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K137" s="11" t="s">
+      <c r="K137" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L137" s="3">
@@ -13652,7 +13684,7 @@
       <c r="J138" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K138" s="11" t="s">
+      <c r="K138" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L138" s="3">
@@ -13693,7 +13725,7 @@
       <c r="J139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K139" s="11" t="s">
+      <c r="K139" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L139" s="3">
@@ -13734,7 +13766,7 @@
       <c r="J140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K140" s="11" t="s">
+      <c r="K140" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L140" s="3">
@@ -13775,7 +13807,7 @@
       <c r="J141" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K141" s="11" t="s">
+      <c r="K141" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L141" s="3">
@@ -13816,7 +13848,7 @@
       <c r="J142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K142" s="11" t="s">
+      <c r="K142" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L142" s="3">
@@ -13857,7 +13889,7 @@
       <c r="J143" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K143" s="11" t="s">
+      <c r="K143" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L143" s="3">
@@ -13898,7 +13930,7 @@
       <c r="J144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K144" s="11" t="s">
+      <c r="K144" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L144" s="3">
@@ -13939,7 +13971,7 @@
       <c r="J145" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K145" s="11" t="s">
+      <c r="K145" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L145" s="3">
@@ -13980,7 +14012,7 @@
       <c r="J146" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K146" s="11" t="s">
+      <c r="K146" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L146" s="3">
@@ -14021,7 +14053,7 @@
       <c r="J147" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K147" s="11" t="s">
+      <c r="K147" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L147" s="3">
@@ -14062,7 +14094,7 @@
       <c r="J148" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K148" s="11" t="s">
+      <c r="K148" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L148" s="3">
@@ -14103,7 +14135,7 @@
       <c r="J149" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K149" s="11" t="s">
+      <c r="K149" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L149" s="3">
@@ -14144,7 +14176,7 @@
       <c r="J150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K150" s="11" t="s">
+      <c r="K150" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L150" s="3">
@@ -14185,7 +14217,7 @@
       <c r="J151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K151" s="11" t="s">
+      <c r="K151" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L151" s="3">
@@ -14226,7 +14258,7 @@
       <c r="J152" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K152" s="11" t="s">
+      <c r="K152" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L152" s="3">
@@ -14267,7 +14299,7 @@
       <c r="J153" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K153" s="11" t="s">
+      <c r="K153" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L153" s="3">
@@ -14311,7 +14343,7 @@
       <c r="J154" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K154" s="23" t="s">
+      <c r="K154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L154" s="3">
@@ -14355,7 +14387,7 @@
       <c r="J155" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K155" s="23" t="s">
+      <c r="K155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L155" s="3">
@@ -14387,7 +14419,7 @@
       <c r="E156" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F156" s="20" t="s">
+      <c r="F156" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G156" s="5" t="s">
@@ -14402,7 +14434,7 @@
       <c r="J156" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K156" s="23" t="s">
+      <c r="K156" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L156" s="3">
@@ -14449,7 +14481,7 @@
       <c r="J157" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K157" s="11" t="s">
+      <c r="K157" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L157" s="3">
@@ -14493,7 +14525,7 @@
       <c r="J158" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K158" s="11" t="s">
+      <c r="K158" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L158" s="3">
@@ -14525,7 +14557,7 @@
       <c r="E159" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F159" s="20" t="s">
+      <c r="F159" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G159" s="5" t="s">
@@ -14540,7 +14572,7 @@
       <c r="J159" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K159" s="11" t="s">
+      <c r="K159" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L159" s="3">
@@ -14584,7 +14616,7 @@
       <c r="J160" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K160" s="11" t="s">
+      <c r="K160" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L160" s="3">
@@ -14625,7 +14657,7 @@
       <c r="J161" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K161" s="11" t="s">
+      <c r="K161" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L161" s="3">
@@ -14666,7 +14698,7 @@
       <c r="J162" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K162" s="11" t="s">
+      <c r="K162" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L162" s="3">
@@ -14707,7 +14739,7 @@
       <c r="J163" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K163" s="11" t="s">
+      <c r="K163" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L163" s="3">
@@ -14748,7 +14780,7 @@
       <c r="J164" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K164" s="11" t="s">
+      <c r="K164" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L164" s="3">
@@ -14789,7 +14821,7 @@
       <c r="J165" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K165" s="11" t="s">
+      <c r="K165" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L165" s="3">
@@ -14830,7 +14862,7 @@
       <c r="J166" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K166" s="11" t="s">
+      <c r="K166" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L166" s="3">
@@ -14871,7 +14903,7 @@
       <c r="J167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K167" s="11" t="s">
+      <c r="K167" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L167" s="3">
@@ -14912,7 +14944,7 @@
       <c r="J168" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K168" s="11" t="s">
+      <c r="K168" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L168" s="3">
@@ -14953,7 +14985,7 @@
       <c r="J169" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K169" s="11" t="s">
+      <c r="K169" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L169" s="3">
@@ -14994,7 +15026,7 @@
       <c r="J170" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K170" s="11" t="s">
+      <c r="K170" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L170" s="3">
@@ -15035,7 +15067,7 @@
       <c r="J171" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K171" s="11" t="s">
+      <c r="K171" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L171" s="3">
@@ -15076,7 +15108,7 @@
       <c r="J172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K172" s="11" t="s">
+      <c r="K172" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L172" s="3">
@@ -15120,7 +15152,7 @@
       <c r="J173" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K173" s="11" t="s">
+      <c r="K173" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L173" s="3">
@@ -15164,7 +15196,7 @@
       <c r="J174" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K174" s="11" t="s">
+      <c r="K174" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L174" s="3">
@@ -15205,7 +15237,7 @@
       <c r="J175" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K175" s="11" t="s">
+      <c r="K175" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L175" s="3">
@@ -15249,7 +15281,7 @@
       <c r="J176" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K176" s="23" t="s">
+      <c r="K176" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L176" s="3">
@@ -15293,7 +15325,7 @@
       <c r="J177" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K177" s="23" t="s">
+      <c r="K177" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L177" s="3">
@@ -15325,7 +15357,7 @@
       <c r="E178" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F178" s="20" t="s">
+      <c r="F178" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G178" s="5" t="s">
@@ -15340,7 +15372,7 @@
       <c r="J178" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K178" s="23" t="s">
+      <c r="K178" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L178" s="3">
@@ -15387,7 +15419,7 @@
       <c r="J179" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K179" s="11" t="s">
+      <c r="K179" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L179" s="3">
@@ -15431,7 +15463,7 @@
       <c r="J180" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K180" s="11" t="s">
+      <c r="K180" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L180" s="3">
@@ -15463,7 +15495,7 @@
       <c r="E181" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F181" s="20" t="s">
+      <c r="F181" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G181" s="5" t="s">
@@ -15478,7 +15510,7 @@
       <c r="J181" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K181" s="11" t="s">
+      <c r="K181" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L181" s="3">
@@ -15522,7 +15554,7 @@
       <c r="J182" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K182" s="11" t="s">
+      <c r="K182" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L182" s="3">
@@ -15563,7 +15595,7 @@
       <c r="J183" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K183" s="11" t="s">
+      <c r="K183" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L183" s="3">
@@ -15607,7 +15639,7 @@
       <c r="J184" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K184" s="23" t="s">
+      <c r="K184" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L184" s="3">
@@ -15651,7 +15683,7 @@
       <c r="J185" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K185" s="23" t="s">
+      <c r="K185" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L185" s="3">
@@ -15683,7 +15715,7 @@
       <c r="E186" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F186" s="20" t="s">
+      <c r="F186" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G186" s="5" t="s">
@@ -15698,7 +15730,7 @@
       <c r="J186" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K186" s="23" t="s">
+      <c r="K186" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L186" s="3">
@@ -15712,7 +15744,7 @@
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" s="13" t="s">
+      <c r="A187" t="s">
         <v>223</v>
       </c>
       <c r="B187" t="str">
@@ -15745,7 +15777,7 @@
       <c r="J187" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K187" s="23" t="s">
+      <c r="K187" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L187" s="3">
@@ -15759,7 +15791,7 @@
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" s="13" t="s">
+      <c r="A188" t="s">
         <v>223</v>
       </c>
       <c r="B188" t="str">
@@ -15789,7 +15821,7 @@
       <c r="J188" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K188" s="23" t="s">
+      <c r="K188" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L188" s="3">
@@ -15803,7 +15835,7 @@
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" s="13" t="s">
+      <c r="A189" t="s">
         <v>223</v>
       </c>
       <c r="B189" t="str">
@@ -15821,7 +15853,7 @@
       <c r="E189" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F189" s="20" t="s">
+      <c r="F189" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G189" s="5" t="s">
@@ -15836,7 +15868,7 @@
       <c r="J189" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K189" s="23" t="s">
+      <c r="K189" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L189" s="3">
@@ -15850,7 +15882,7 @@
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190" s="13" t="s">
+      <c r="A190" t="s">
         <v>223</v>
       </c>
       <c r="B190" t="str">
@@ -15883,7 +15915,7 @@
       <c r="J190" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K190" s="11" t="s">
+      <c r="K190" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L190" s="3">
@@ -15897,7 +15929,7 @@
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A191" s="13" t="s">
+      <c r="A191" t="s">
         <v>223</v>
       </c>
       <c r="B191" t="str">
@@ -15927,7 +15959,7 @@
       <c r="J191" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K191" s="11" t="s">
+      <c r="K191" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L191" s="3">
@@ -15941,7 +15973,7 @@
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192" s="13" t="s">
+      <c r="A192" t="s">
         <v>223</v>
       </c>
       <c r="B192" t="str">
@@ -15959,7 +15991,7 @@
       <c r="E192" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F192" s="20" t="s">
+      <c r="F192" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G192" s="5" t="s">
@@ -15974,7 +16006,7 @@
       <c r="J192" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K192" s="11" t="s">
+      <c r="K192" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L192" s="3">
@@ -16018,7 +16050,7 @@
       <c r="J193" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K193" s="11" t="s">
+      <c r="K193" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L193" s="3">
@@ -16059,7 +16091,7 @@
       <c r="J194" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K194" s="11" t="s">
+      <c r="K194" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L194" s="3">
@@ -16285,7 +16317,7 @@
       <c r="E199" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F199" s="20" t="s">
+      <c r="F199" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G199" s="5" t="s">
@@ -16329,7 +16361,7 @@
       <c r="E200" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F200" s="20" t="s">
+      <c r="F200" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G200" s="5" t="s">
@@ -16373,7 +16405,7 @@
       <c r="E201" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F201" s="20" t="s">
+      <c r="F201" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G201" s="5" t="s">
@@ -16417,7 +16449,7 @@
       <c r="E202" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F202" s="20" t="s">
+      <c r="F202" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G202" s="5" t="s">
@@ -16461,7 +16493,7 @@
       <c r="E203" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F203" s="20" t="s">
+      <c r="F203" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G203" s="5" t="s">
@@ -16505,7 +16537,7 @@
       <c r="E204" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F204" s="20" t="s">
+      <c r="F204" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G204" s="5" t="s">
@@ -16547,10 +16579,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16561,232 +16593,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="22">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43957</v>
+      </c>
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="22">
+        <v>43962</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="23">
+        <v>43969</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="23">
+        <v>44018</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="23">
+        <v>44034</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="23">
+        <v>44039</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="23">
+        <v>44046</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="23">
+        <v>44049</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="23">
+        <v>44118</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>451</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="44">
-        <v>43951</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="44">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="44">
-        <v>43957</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" s="44">
-        <v>43962</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="45">
-        <v>43969</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="45">
-        <v>44018</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="B8" s="45">
-        <v>44034</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9" s="45">
-        <v>44039</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="B10" s="45">
-        <v>44046</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="B11" s="45">
-        <v>44049</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>475</v>
-      </c>
-      <c r="B12" s="45">
-        <v>44118</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="B13" s="45">
+      <c r="B13" s="23">
         <v>44466</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>483</v>
+      <c r="C13" s="15" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>491</v>
-      </c>
-      <c r="B14" s="45">
+      <c r="A14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" s="23">
         <v>44516</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>495</v>
+      <c r="C14" s="15" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>519</v>
-      </c>
-      <c r="B15" s="45">
+      <c r="A15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15" s="23">
         <v>44523</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>632</v>
+      <c r="C15" s="15" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>643</v>
-      </c>
-      <c r="B16" s="45">
+      <c r="A16" t="s">
+        <v>598</v>
+      </c>
+      <c r="B16" s="23">
         <v>44663</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B17" s="23">
+        <v>44803</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>687</v>
-      </c>
-      <c r="B17" s="45">
-        <v>44803</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="B18" s="45">
+      <c r="B18" s="23">
         <v>44818</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>696</v>
+      <c r="C18" s="15" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A19" t="s">
+        <v>702</v>
+      </c>
+      <c r="B19" s="23">
+        <v>44994</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>706</v>
+      </c>
+      <c r="B20" s="23">
+        <v>45113</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>708</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16799,7 +16823,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16813,119 +16837,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>404</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>404</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>404</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>662</v>
+      <c r="F4" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>404</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s">
         <v>392</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>404</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s">
         <v>373</v>
       </c>
       <c r="D6" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -16933,39 +16957,39 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>404</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>404</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" t="s">
         <v>386</v>
       </c>
       <c r="D8" t="s">
         <v>397</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -16973,39 +16997,39 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>404</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>482</v>
+      <c r="C9" t="s">
+        <v>449</v>
       </c>
       <c r="D9" t="s">
-        <v>487</v>
-      </c>
-      <c r="E9" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>404</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>385</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>398</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -17013,19 +17037,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>404</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" t="s">
         <v>399</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -17033,88 +17057,88 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>404</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>404</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="C13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" t="s">
+        <v>417</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>404</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C14" t="s">
+        <v>634</v>
+      </c>
+      <c r="D14" t="s">
+        <v>586</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>404</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" t="s">
+        <v>587</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -17122,19 +17146,19 @@
       <c r="C16" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -17142,19 +17166,19 @@
       <c r="C17" t="s">
         <v>356</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -17162,179 +17186,179 @@
       <c r="C18" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" t="s">
+        <v>425</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>662</v>
+      <c r="F18" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D19" t="s">
-        <v>663</v>
-      </c>
-      <c r="E19" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>652</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="E20" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D20" t="s">
+        <v>616</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>646</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="E21" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D21" t="s">
+        <v>620</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>647</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="E22" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D22" t="s">
+        <v>619</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>648</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="E23" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" t="s">
+        <v>618</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>649</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="E24" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D24" t="s">
+        <v>617</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>661</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="E25" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D25" t="s">
+        <v>624</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B26">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>655</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="E26" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D26" t="s">
+        <v>622</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -17345,10 +17369,10 @@
       <c r="D27" t="s">
         <v>342</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17359,16 +17383,16 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>329</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17379,16 +17403,16 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D29" t="s">
         <v>330</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17399,13 +17423,13 @@
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D30" t="s">
         <v>331</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -17419,16 +17443,16 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17439,17 +17463,17 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" t="s">
         <v>332</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>662</v>
+      <c r="F32" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -17459,16 +17483,16 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17479,16 +17503,16 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" t="s">
         <v>335</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17499,16 +17523,16 @@
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17519,17 +17543,17 @@
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>662</v>
+      <c r="F36" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17539,16 +17563,16 @@
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17559,16 +17583,16 @@
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17579,16 +17603,16 @@
       <c r="B39">
         <v>6</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17599,16 +17623,16 @@
       <c r="B40">
         <v>7</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17619,13 +17643,13 @@
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>673</v>
-      </c>
-      <c r="E41" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -17639,16 +17663,16 @@
       <c r="B42">
         <v>9</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="11" t="s">
         <v>234</v>
       </c>
       <c r="D42" t="s">
         <v>338</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17659,16 +17683,16 @@
       <c r="B43">
         <v>10</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="11" t="s">
         <v>233</v>
       </c>
       <c r="D43" t="s">
         <v>339</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17679,16 +17703,16 @@
       <c r="B44">
         <v>11</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="11" t="s">
         <v>235</v>
       </c>
       <c r="D44" t="s">
         <v>340</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17699,13 +17723,13 @@
       <c r="B45">
         <v>12</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="11" t="s">
         <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>448</v>
-      </c>
-      <c r="E45" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -17719,13 +17743,13 @@
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D46" t="s">
-        <v>447</v>
-      </c>
-      <c r="E46" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -17739,13 +17763,13 @@
       <c r="B47">
         <v>14</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="11" t="s">
         <v>238</v>
       </c>
       <c r="D47" t="s">
         <v>341</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -17759,13 +17783,13 @@
       <c r="B48">
         <v>15</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>449</v>
-      </c>
-      <c r="E48" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -17779,16 +17803,16 @@
       <c r="B49">
         <v>16</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="11" t="s">
         <v>401</v>
       </c>
       <c r="D49" t="s">
         <v>342</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -17799,13 +17823,13 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" t="s">
         <v>267</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" t="s">
         <v>343</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -17819,13 +17843,13 @@
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="D51" s="12" t="s">
+      <c r="C51" t="s">
+        <v>423</v>
+      </c>
+      <c r="D51" t="s">
         <v>275</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -17839,93 +17863,93 @@
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="C52" t="s">
+        <v>424</v>
+      </c>
+      <c r="D52" t="s">
         <v>344</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" t="s">
         <v>257</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" t="s">
         <v>345</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" t="s">
         <v>257</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" t="s">
         <v>335</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" t="s">
         <v>257</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" t="s">
         <v>346</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" t="s">
         <v>347</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="2" t="s">

--- a/data_raw/TMDL_db_tabular.xlsx
+++ b/data_raw/TMDL_db_tabular.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateoforegon-my.sharepoint.com/personal/ryan_michie_deq_oregon_gov/Documents/GitHub/odeqtmdl/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{7B68424F-EC1A-4220-BBB7-CF1EF973C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D21138AE-ED50-4893-A603-92171F859DAC}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{7B68424F-EC1A-4220-BBB7-CF1EF973C635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD0288C8-D4DF-46E0-BA14-267DE7065266}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26940" windowHeight="19455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="3120" windowWidth="38700" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmdl_actions_table" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="712">
   <si>
     <t>Total Phosphorus</t>
   </si>
@@ -1266,9 +1266,6 @@
     <t xml:space="preserve">Updated Clear Lake TMDL geo_id from '1992_ClearLake' to '1991_ClearLake'. Changed column names 'approval_year' to 'TMDL_issue_year' and 'Notes' to 'notes' (lowercase). Added action_ids and additional columns for 'TMDL_active', 'issue_agency', 'in_attains', 'TMDL_issue_date', and 'EPA_action_date'. Updated issue year and dates and EPA action dates. </t>
   </si>
   <si>
-    <t>2.3,7,8-TCCD (polychlorinated dibenzo-para-dioxins)</t>
-  </si>
-  <si>
     <t>pH, Algae</t>
   </si>
   <si>
@@ -1284,9 +1281,6 @@
     <t>E. coli, Heat</t>
   </si>
   <si>
-    <t>Heat, E. coli</t>
-  </si>
-  <si>
     <t>Mercury</t>
   </si>
   <si>
@@ -1353,9 +1347,6 @@
     <t>OR_TMDL_20191230</t>
   </si>
   <si>
-    <t>Total Mercury, Methylmercury</t>
-  </si>
-  <si>
     <t>TMDL_active_note</t>
   </si>
   <si>
@@ -2007,48 +1998,21 @@
     <t>2022</t>
   </si>
   <si>
-    <t>Dissolved Oxygen, Chlorophyll-a, pH, Ammonia, Algae</t>
-  </si>
-  <si>
-    <t>Carbonaceous Biochemical Oxygen Demand (CBOD), Dissolved Inorganic Nitrogen, Total Nitrogen, Total Phosphorus, Biochemical Oxygen Demand</t>
-  </si>
-  <si>
     <t>Aesthetics, Aquatic Weeds, Excess Algal Growth</t>
   </si>
   <si>
     <t>Algal Growth, Dissolved Oxygen, pH</t>
   </si>
   <si>
-    <t>Total Phosphorus, Ammonia, BOD5</t>
-  </si>
-  <si>
     <t>Algae, pH</t>
   </si>
   <si>
     <t>Dioxin (2,3,7,8-TCDD)</t>
   </si>
   <si>
-    <t>Ammonia Nitrogen (NH3-N), CBOD5, Minimum DO, Total suspended solids, Ultimate Biochemical Oxygen Demand</t>
-  </si>
-  <si>
-    <t>Ammonia Nitrogen (NH3-N), CBOD5</t>
-  </si>
-  <si>
-    <t>Ammonia Toxicity, Dissolved Oxygen, Periphyton growth, pH</t>
-  </si>
-  <si>
-    <t>Ammonia, Dissoloved orthophosphate as phosphorus (PO4-P)</t>
-  </si>
-  <si>
     <t>Algae, Chlorophyll-a, DDE 4,4', DDT 4,4', Dieldrin, Dioxin (2,3,7,8-TCDD), Dissolved Oxygen, E. coli, Lead, pH, Polychlorinated Biphenyls (PCBs), Total Phosphorus</t>
   </si>
   <si>
-    <t>Total Phosphorus, DDE 4,4', DDT 4,4', Dieldrin, Dioxin (2,3,7,8-TCDD), BOD5, E. coli, Lead, Polychlorinated Biphenyls (PCBs)</t>
-  </si>
-  <si>
-    <t>Dissoloved orthophosphate as phosphorus (PO4-P), Dissolved Inorganic Nitrogen as N, Fine Sediment, Heat</t>
-  </si>
-  <si>
     <t>Heat, Sedimentation</t>
   </si>
   <si>
@@ -2058,105 +2022,39 @@
     <t>E. coli, Fecal Coliform, Heat</t>
   </si>
   <si>
-    <t>Chlorophyll-a, Dissolved Oxygen, E. coli, Enterococci, Excess Algal Growth, Fecal Coliform, Harmful Algal Blooms, pH, Temperature</t>
-  </si>
-  <si>
-    <t>Total Phosphorus, Ammonia Nitrogen (NH3-N), Heat, SOD, Volatile Solids, E. coli</t>
-  </si>
-  <si>
     <t>Ammonia Toxicity, Aquatic Weeds or Algae, E. coli, Fecal Coliform, Nitrate, pH, Sedimentation, Temperature, Turbidity</t>
   </si>
   <si>
-    <t>Ammonia Nitrogen (NH3-N), Heat, E. coli, Nitrate, Total suspended solids, Turbidity</t>
-  </si>
-  <si>
     <t>E. coli, Fecal Coliform, Sedimentation, Temperature</t>
   </si>
   <si>
-    <t>E. coli, Fecal Coliform, Sedimentation, Heat</t>
-  </si>
-  <si>
     <t>Total Dissolved gas</t>
   </si>
   <si>
     <t>Chlorophyll-a, Dissolved Oxygen, pH, Temperature, Total Phosphorus</t>
   </si>
   <si>
-    <t>Total Phosphorus, Heat</t>
-  </si>
-  <si>
     <t>BioCriteria, E. coli, Fecal Coliform, Temperature</t>
   </si>
   <si>
-    <t>NA, E. coli, Fecal Coliform, Heat</t>
-  </si>
-  <si>
     <t>Algae, Chlorophyll-a, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, Dissolved Oxygen, Sedimentation, Temperature, Total Dissolved gas</t>
   </si>
   <si>
-    <t>Total Phosphorus, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, Dissolved Oxygen, Total suspended solids, Heat, Total Dissolved gas</t>
-  </si>
-  <si>
     <t>BioCriteria, Sedimentation, Temperature</t>
   </si>
   <si>
-    <t>Aquatic Weeds Or Algae, Chlorophyll-a, Dissolved Oxygen, E. coli, Fecal Coliform, pH, Phosphorus, Temperature</t>
-  </si>
-  <si>
-    <t>Inorganic Phosphorus, Total Nitrogen, Total Phosphorus, BOD, Dissolved Inorganic Nitrogen as N, Heat, Volatile Solids, E. coli</t>
-  </si>
-  <si>
     <t>Ammonia Toxicity, Dissolved Oxygen, E. coli, Fecal Coliform, Mercury (total), Methylmercury, Temperature, Turbidity</t>
   </si>
   <si>
-    <t>Ammonia Nitrogen (NH3-N), BOD5, Dissoloved orthophosphate as phosphorus (PO4-P), Dissolved Inorganic Nitrogen as N, Heat, Nitrite + Nitrate, as N (NO23-N), SOD, Ultimate Biochemical Oxygen Demand, Volatile suspended solids, E. coli, Mercury (total), Methylmercury, Total suspended solids</t>
-  </si>
-  <si>
-    <t>E. coli, Sedimentation, Heat</t>
-  </si>
-  <si>
-    <t>Aquatic Weeds, Chlorophyll-a, Excess Algal Growth, Harmful Algal Blooms, Sedimentation</t>
-  </si>
-  <si>
-    <t>Total Phosphorus, Sedimentation</t>
-  </si>
-  <si>
-    <t>Temperature, pH, E. coli, Fecal Coliform</t>
-  </si>
-  <si>
-    <t>Heat, pH, Dissolved Inorganic Nitrogen as N, E. coli</t>
-  </si>
-  <si>
     <t>Chlordane, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, E. coli, Iron, Nitrate, Temperature</t>
   </si>
   <si>
-    <t>Chlordane, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, E. coli, Iron, Nitrate, Heat</t>
-  </si>
-  <si>
-    <t>Temperature, BioCriteria, Dissolved Oxygen, E. coli, Fecal Coliform</t>
-  </si>
-  <si>
-    <t>Temperature, E. coli, Fecal Coliform</t>
-  </si>
-  <si>
     <t>Chlorophyll-a, Dissolved Oxygen, Excess Algal Growth, pH, Total Phosphorus</t>
   </si>
   <si>
-    <t>Total Phosphorus, Ammonia Nitrogen (NH3-N)</t>
-  </si>
-  <si>
-    <t>Temperature, E. coli, Fecal Coliform, Chlorophyll-a, Dissolved Oxygen, pH</t>
-  </si>
-  <si>
-    <t>Heat, E. coli, Total Phosphorus</t>
-  </si>
-  <si>
     <t>v20230309</t>
   </si>
   <si>
-    <t>Updated paramaters and pollutants based on attains mapping</t>
-  </si>
-  <si>
     <t>Aquatic Weeds or Algae, Dissolved Oxygen, pH, Sedimentation, Temperature</t>
   </si>
   <si>
@@ -2169,13 +2067,118 @@
     <t>The mercury TMDL was replaced by EPA's Willamette Basin Mercury Total Maximum Daily Load (Action ID OR_TMDL_20191230). The state issued WQMP for this TMDL can be found with Oregon's  2019 Revised Willamette Basin Mercury Total Maximum Daily Load. Oregon's 2019 mercury TMDL was disapproved by EPA but the state issued WQMP is still effective.</t>
   </si>
   <si>
-    <t>Updated TMDL revision information in the 'TMDL_active_note' field for the Tualatin TMDLs and Willmaette Basin mercury TMDLs.</t>
-  </si>
-  <si>
     <t>10791</t>
   </si>
   <si>
     <t>The total phosphours and ammonia TMDLs addressing chlorophyll-a, dissolved oxygen, pH, and algal growth were replaced by the 2012 Tualatin Subbasin TMDL and WQMP (Action ID OR_TMDL_20120828). The SOD, volatile solids, and heat TMDLs addressing dissolved oxygen, as well as the TMDLs for temperature and bacteria are still active.</t>
+  </si>
+  <si>
+    <t>Ammonia, Biochemical Oxygen Demand (5-day), Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>Carbonaceous Biochemical Oxygen Demand (5-day), Dissolved Oxygen (Minimum), NH3-N, Total suspended solids, Ultimate Biochemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t>Ammonia Nitrogen (NH3-N), Carbonaceous Biochemical Oxygen Demand (5-day)</t>
+  </si>
+  <si>
+    <t>Ammonia, Dissolved Oxygen, PeriphytonGrowth, pH</t>
+  </si>
+  <si>
+    <t>Ammonia, Dissolved Orthophosphate as Phosphorus</t>
+  </si>
+  <si>
+    <t>Biochemical Oxygen Demand (5-day), DDE 4,4', DDT 4,4', Dieldrin, Dioxin (2,3,7,8-TCDD), E. coli, Lead, Polychlorinated Biphenyls (PCBs), Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Dissolved Inorganic Nitrogen, Dissolved Orthophosphate as Phosphorus, Fine Sediment, Heat</t>
+  </si>
+  <si>
+    <t>Chlorophyll-a, Dissolved Oxygen, Enterococci, Excess Algal Growth, Fecal Coliform, Harmful Algal Blooms, pH, Temperature</t>
+  </si>
+  <si>
+    <t>Ammonia Nitrogen (NH3-N), E. coli, Heat, Sediment Oxygen Demand, Total Phosphorus, Volatile Solids</t>
+  </si>
+  <si>
+    <t>Ammonia Nitrogen (NH3-N), E. coli, Heat, Nitrate, Total suspended solids</t>
+  </si>
+  <si>
+    <t>E. coli, Fecal Coliform, Heat, Sedimentation</t>
+  </si>
+  <si>
+    <t>Heat, Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Chlorophyll-a, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, Dissolved Oxygen, Sedimentation, Temperature, Total Dissolved gas</t>
+  </si>
+  <si>
+    <t>DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, Dissolved Oxygen, Heat, Total Dissolved gas, Total Phosphorus, Total suspended solids</t>
+  </si>
+  <si>
+    <t>Aquatic Weeds Or Algae, Chlorophyll a, Dissolved Oxygen, E. coli, Fecal Coliform, pH, Temperature, Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Biochemical Oxygen Demand, Dissolved Inorganic Nitrogen, E. coli, Heat, Inorganic Phosphorus, Total Nitrogen, Total Phosphorus, Volatile Solids</t>
+  </si>
+  <si>
+    <t>Ammonia Nitrogen (NH3-N), Biochemical Oxygen Demand (5-day), Dissolved Inorganic Nitrogen, Dissolved Orthophosphate as Phosphorus, E. coli, Heat, Mercury (total), Methylmercury, Nitrite + Nitrate, as N (NO23-N), Sediment Oxygen Demand, Total suspended solids, Ultimate Biochemical Oxygen Demand, Volatile Suspended Solids</t>
+  </si>
+  <si>
+    <t>E. coli, Heat, Sedimentation</t>
+  </si>
+  <si>
+    <t>Aquatic Weeds, Chlorophyll-a, Excess Algal Growth, Harmful Algal Blooms</t>
+  </si>
+  <si>
+    <t>Sedimentation, Total Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli, Fecal Coliform, pH, Temperature</t>
+  </si>
+  <si>
+    <t>Dissolved Inorganic Nitrogen as N, E. coli, Heat, pH</t>
+  </si>
+  <si>
+    <t>Chlordane, DDD 4,4', DDE 4,4', DDT 4,4', Dieldrin, E. coli, Heat, Iron, Nitrate</t>
+  </si>
+  <si>
+    <t>BioCriteria, Dissolved Oxygen, E. coli, Fecal Coliform, Temperature</t>
+  </si>
+  <si>
+    <t>E. coli, Temperature</t>
+  </si>
+  <si>
+    <t>Chlorophyll-a, Dissolved Oxygen, E. coli, Fecal Coliform, pH, Temperature</t>
+  </si>
+  <si>
+    <t>E. coli, Heat, Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Algae, Ammonia, Chlorophyll-a, Dissolved Oxygen, pH</t>
+  </si>
+  <si>
+    <t>Carbonaceous Biochemical Oxygen Demand, Dissolved Inorganic Nitrogen, Total Nitrogen, Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Ammonia Nitrogen (NH3-N), Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Mercury (total)</t>
+  </si>
+  <si>
+    <t>v20230911</t>
+  </si>
+  <si>
+    <t>Updated parameters and pollutants based on attains mapping</t>
+  </si>
+  <si>
+    <t>Updated TMDL revision information in the 'TMDL_active_note' field for the Tualatin TMDLs and Willamette Basin mercury TMDLs.</t>
+  </si>
+  <si>
+    <t>Updated some parameters and pollutants based on attains mapping and TMDL document review.</t>
   </si>
 </sst>
 </file>
@@ -2664,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,13 +2706,13 @@
         <v>373</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>386</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>385</v>
@@ -2718,16 +2721,16 @@
         <v>399</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2751,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I2" s="24">
         <v>32408</v>
@@ -2760,16 +2763,16 @@
         <v>32423</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -2789,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>705</v>
+        <v>671</v>
       </c>
       <c r="G3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I3" s="25">
         <v>32408</v>
@@ -2807,13 +2810,13 @@
         <v>59</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2821,7 +2824,7 @@
         <v>2035</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C4" s="29">
         <v>1991</v>
@@ -2837,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I4" s="24">
         <v>33462</v>
@@ -2846,16 +2849,16 @@
         <v>33679</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2863,7 +2866,7 @@
         <v>2038</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C5" s="29">
         <v>1991</v>
@@ -2879,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I5" s="24">
         <v>33462</v>
@@ -2888,16 +2891,16 @@
         <v>33679</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>431</v>
+        <v>677</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2905,7 +2908,7 @@
         <v>1352</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C6" s="29">
         <v>1991</v>
@@ -2921,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I6" s="25">
         <v>33462</v>
@@ -2930,16 +2933,16 @@
         <v>33679</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2947,7 +2950,7 @@
         <v>319</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C7" s="29">
         <v>1991</v>
@@ -2963,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I7" s="24">
         <v>33294</v>
@@ -2972,24 +2975,24 @@
         <v>33294</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>407</v>
+        <v>654</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C8" s="29">
         <v>1993</v>
@@ -3005,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I8" s="24">
         <v>34182</v>
@@ -3017,21 +3020,21 @@
         <v>59</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C9" s="29">
         <v>1993</v>
@@ -3047,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I9" s="24">
         <v>34330</v>
@@ -3059,13 +3062,13 @@
         <v>59</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3073,7 +3076,7 @@
         <v>1230</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C10" s="29">
         <v>1993</v>
@@ -3085,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G10" s="29" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I10" s="25">
         <v>34330</v>
@@ -3100,16 +3103,16 @@
         <v>34361</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3117,7 +3120,7 @@
         <v>329</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C11" s="29">
         <v>1994</v>
@@ -3133,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I11" s="24">
         <v>34394</v>
@@ -3145,21 +3148,21 @@
         <v>59</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>310</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C12" s="29">
         <v>1995</v>
@@ -3175,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I12" s="25">
         <v>34974</v>
@@ -3184,24 +3187,24 @@
         <v>35202</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>664</v>
+        <v>680</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>681</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C13" s="29">
         <v>1998</v>
@@ -3217,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I13" s="25">
         <v>36039</v>
@@ -3226,16 +3229,16 @@
         <v>36124</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3243,7 +3246,7 @@
         <v>2034</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C14" s="29">
         <v>1999</v>
@@ -3255,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G14" s="29" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I14" s="25">
         <v>36220</v>
@@ -3273,13 +3276,13 @@
         <v>79</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3287,7 +3290,7 @@
         <v>489</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C15" s="29">
         <v>2000</v>
@@ -3303,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I15" s="25">
         <v>36617</v>
@@ -3312,21 +3315,21 @@
         <v>36649</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>351</v>
@@ -3345,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I16" s="25">
         <v>37226</v>
@@ -3354,16 +3357,16 @@
         <v>37285</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3371,7 +3374,7 @@
         <v>1380</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C17" s="29">
         <v>2001</v>
@@ -3387,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I17" s="25">
         <v>37043</v>
@@ -3396,16 +3399,16 @@
         <v>37103</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="120" x14ac:dyDescent="0.25">
@@ -3413,7 +3416,7 @@
         <v>1936</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C18" s="29">
         <v>2001</v>
@@ -3425,13 +3428,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>710</v>
+        <v>675</v>
       </c>
       <c r="G18" s="29" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I18" s="25">
         <v>37104</v>
@@ -3440,16 +3443,16 @@
         <v>37110</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3457,7 +3460,7 @@
         <v>1362</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C19" s="29">
         <v>2001</v>
@@ -3473,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I19" s="25">
         <v>36951</v>
@@ -3482,16 +3485,16 @@
         <v>37020</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3515,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I20" s="25">
         <v>36892</v>
@@ -3527,13 +3530,13 @@
         <v>79</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -3541,7 +3544,7 @@
         <v>2021</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C21" s="29">
         <v>2001</v>
@@ -3553,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G21" s="29" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I21" s="25">
         <v>37226</v>
@@ -3571,13 +3574,13 @@
         <v>79</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3585,7 +3588,7 @@
         <v>2258</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C22" s="29">
         <v>2002</v>
@@ -3601,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I22" s="25">
         <v>37347</v>
@@ -3613,13 +3616,13 @@
         <v>79</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3627,7 +3630,7 @@
         <v>2241</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C23" s="29">
         <v>2002</v>
@@ -3643,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I23" s="25">
         <v>37347</v>
@@ -3655,13 +3658,13 @@
         <v>79</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3669,7 +3672,7 @@
         <v>2238</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C24" s="29">
         <v>2002</v>
@@ -3685,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I24" s="25">
         <v>37347</v>
@@ -3694,16 +3697,16 @@
         <v>37389</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N24" s="29" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3711,13 +3714,13 @@
         <v>3753</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C25" s="29">
         <v>2002</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E25" s="29" t="b">
         <v>1</v>
@@ -3727,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I25" s="25">
         <v>37526</v>
@@ -3736,16 +3739,16 @@
         <v>37578</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3753,7 +3756,7 @@
         <v>2352</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C26" s="29">
         <v>2002</v>
@@ -3769,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I26" s="25">
         <v>37377</v>
@@ -3778,24 +3781,24 @@
         <v>37475</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N26" s="29" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C27" s="29">
         <v>2003</v>
@@ -3811,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I27" s="25">
         <v>37831</v>
@@ -3820,58 +3823,58 @@
         <v>37853</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C28" s="29">
         <v>2003</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E28" s="29" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G28" s="29" t="b">
         <v>1</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I28" s="24">
         <v>37817</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="30" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="N28" s="29" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="90" x14ac:dyDescent="0.25">
@@ -3879,7 +3882,7 @@
         <v>388</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C29" s="29">
         <v>2004</v>
@@ -3891,13 +3894,13 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G29" s="29" t="b">
         <v>0</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I29" s="24">
         <v>38090</v>
@@ -3909,13 +3912,13 @@
         <v>79</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="N29" s="29" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -3923,7 +3926,7 @@
         <v>9767</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C30" s="29">
         <v>2004</v>
@@ -3935,13 +3938,13 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G30" s="29" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I30" s="25">
         <v>37998</v>
@@ -3950,24 +3953,24 @@
         <v>38028</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N30" s="29" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C31" s="29">
         <v>2004</v>
@@ -3983,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I31" s="25">
         <v>37998</v>
@@ -3992,30 +3995,30 @@
         <v>38028</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>709</v>
+        <v>674</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C32" s="29">
         <v>2004</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E32" s="29" t="b">
         <v>1</v>
@@ -4025,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I32" s="25">
         <v>38139</v>
@@ -4034,24 +4037,24 @@
         <v>38239</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="N32" s="29" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C33" s="29">
         <v>2005</v>
@@ -4067,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I33" s="25">
         <v>38425</v>
@@ -4076,16 +4079,16 @@
         <v>38456</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N33" s="29" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4093,7 +4096,7 @@
         <v>12241</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C34" s="29">
         <v>2005</v>
@@ -4109,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I34" s="25">
         <v>38608</v>
@@ -4121,13 +4124,13 @@
         <v>79</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N34" s="29" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -4135,7 +4138,7 @@
         <v>388</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C35" s="29">
         <v>2006</v>
@@ -4147,13 +4150,13 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G35" s="29" t="b">
         <v>0</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I35" s="25">
         <v>39069</v>
@@ -4165,21 +4168,21 @@
         <v>79</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N35" s="29" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C36" s="29">
         <v>2006</v>
@@ -4195,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I36" s="25">
         <v>39021</v>
@@ -4204,21 +4207,21 @@
         <v>39184</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N36" s="29" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>20</v>
@@ -4233,13 +4236,13 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="G37" s="29" t="b">
         <v>1</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I37" s="25">
         <v>38981</v>
@@ -4248,16 +4251,16 @@
         <v>38989</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N37" s="29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -4265,7 +4268,7 @@
         <v>33829</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C38" s="29">
         <v>2007</v>
@@ -4281,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I38" s="25">
         <v>39287</v>
@@ -4290,16 +4293,16 @@
         <v>39357</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="L38" s="30" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="N38" s="29" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4307,7 +4310,7 @@
         <v>33639</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C39" s="29">
         <v>2007</v>
@@ -4323,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I39" s="25">
         <v>39136</v>
@@ -4332,16 +4335,16 @@
         <v>39233</v>
       </c>
       <c r="K39" s="30" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="L39" s="30" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="N39" s="30" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4349,7 +4352,7 @@
         <v>32071</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C40" s="29">
         <v>2007</v>
@@ -4365,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I40" s="25">
         <v>39113</v>
@@ -4374,16 +4377,16 @@
         <v>39132</v>
       </c>
       <c r="K40" s="30" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="L40" s="30" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="M40" s="32" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="N40" s="29" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4407,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I41" s="25">
         <v>39811</v>
@@ -4419,18 +4422,18 @@
         <v>79</v>
       </c>
       <c r="L41" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N41" s="29" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>66</v>
@@ -4449,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I42" s="25">
         <v>39790</v>
@@ -4458,21 +4461,21 @@
         <v>39813</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N42" s="29" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>354</v>
@@ -4491,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I43" s="25">
         <v>39804</v>
@@ -4500,16 +4503,16 @@
         <v>39811</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="L43" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N43" s="29" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4533,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I44" s="25">
         <v>40491</v>
@@ -4542,16 +4545,16 @@
         <v>40529</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N44" s="29" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4559,7 +4562,7 @@
         <v>39294</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C45" s="29">
         <v>2010</v>
@@ -4575,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I45" s="25">
         <v>40437</v>
@@ -4584,16 +4587,16 @@
         <v>40445</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N45" s="29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4617,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I46" s="25">
         <v>40450</v>
@@ -4626,24 +4629,24 @@
         <v>40515</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N46" s="29" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C47" s="29">
         <v>2010</v>
@@ -4655,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G47" s="29" t="b">
         <v>1</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I47" s="25">
         <v>40533</v>
@@ -4670,16 +4673,16 @@
         <v>41049</v>
       </c>
       <c r="K47" s="30" t="s">
-        <v>654</v>
+        <v>704</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>655</v>
+        <v>705</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N47" s="29" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -4699,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G48" s="29" t="b">
         <v>0</v>
@@ -4717,13 +4720,13 @@
         <v>79</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M48" s="32" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="N48" s="29" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4731,7 +4734,7 @@
         <v>390</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C49" s="29">
         <v>2012</v>
@@ -4756,16 +4759,16 @@
         <v>41257</v>
       </c>
       <c r="K49" s="30" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="N49" s="29" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -4773,7 +4776,7 @@
         <v>391</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C50" s="29">
         <v>2017</v>
@@ -4785,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G50" s="29" t="b">
         <v>0</v>
@@ -4798,16 +4801,16 @@
       </c>
       <c r="J50" s="26"/>
       <c r="K50" s="30" t="s">
-        <v>654</v>
+        <v>704</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>655</v>
+        <v>705</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="N50" s="29" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -4815,7 +4818,7 @@
         <v>384</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C51" s="29">
         <v>2018</v>
@@ -4831,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I51" s="25">
         <v>43147</v>
@@ -4843,18 +4846,18 @@
         <v>79</v>
       </c>
       <c r="L51" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="N51" s="29" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>376</v>
@@ -4873,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I52" s="25">
         <v>43829</v>
@@ -4882,16 +4885,16 @@
         <v>44231</v>
       </c>
       <c r="K52" s="30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>436</v>
+        <v>707</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N52" s="29" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -4911,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G53" s="29" t="b">
         <v>0</v>
@@ -4926,16 +4929,16 @@
         <v>43798</v>
       </c>
       <c r="K53" s="30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>436</v>
+        <v>707</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N53" s="29" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4943,7 +4946,7 @@
         <v>382</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C54" s="29">
         <v>2019</v>
@@ -4959,7 +4962,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I54" s="25">
         <v>43481</v>
@@ -4968,16 +4971,16 @@
         <v>43536</v>
       </c>
       <c r="K54" s="30" t="s">
-        <v>654</v>
+        <v>704</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>655</v>
+        <v>705</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N54" s="29" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4985,7 +4988,7 @@
         <v>383</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C55" s="29">
         <v>2019</v>
@@ -5001,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I55" s="25">
         <v>43727</v>
@@ -5013,13 +5016,13 @@
         <v>79</v>
       </c>
       <c r="L55" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N55" s="29" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -5043,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I56" s="25">
         <v>43969</v>
@@ -5055,13 +5058,13 @@
         <v>79</v>
       </c>
       <c r="L56" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N56" s="29" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -5078,8 +5081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5224,10 +5227,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C7" s="5" t="b">
         <v>1</v>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C8" s="5" t="b">
         <v>1</v>
@@ -5268,10 +5271,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C9" s="5" t="b">
         <v>1</v>
@@ -5290,10 +5293,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C10" s="5" t="b">
         <v>1</v>
@@ -5312,10 +5315,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C11" s="5" t="b">
         <v>1</v>
@@ -5950,16 +5953,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B40" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C40" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E40">
         <f>VLOOKUP(D40,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -5981,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E41">
         <f>VLOOKUP(D41,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6003,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E42">
         <f>VLOOKUP(D42,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6025,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E43">
         <f>VLOOKUP(D43,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6047,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E44">
         <f>VLOOKUP(D44,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6069,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E45">
         <f>VLOOKUP(D45,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6091,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E46">
         <f>VLOOKUP(D46,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6113,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E47">
         <f>VLOOKUP(D47,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -6261,7 +6264,7 @@
         <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C54" s="5" t="b">
         <v>1</v>
@@ -7411,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E106">
         <f>VLOOKUP(D106,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7433,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E107">
         <f>VLOOKUP(D107,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7455,7 +7458,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E108">
         <f>VLOOKUP(D108,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7477,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E109">
         <f>VLOOKUP(D109,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7499,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E110">
         <f>VLOOKUP(D110,tmdl_actions_table!$A$2:$G$60,3,FALSE)</f>
@@ -7522,11 +7525,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7598,7 +7602,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -7642,7 +7646,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>377</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>377</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>378</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>379</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>405</v>
       </c>
@@ -7838,7 +7842,7 @@
         <v>263</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
@@ -7859,12 +7863,12 @@
         <v>43738</v>
       </c>
       <c r="P7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B8">
         <v>319</v>
@@ -7877,10 +7881,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>7</v>
@@ -7889,7 +7893,7 @@
         <v>5.97</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -7904,12 +7908,12 @@
         <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B9">
         <v>319</v>
@@ -7922,10 +7926,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>7</v>
@@ -7934,7 +7938,7 @@
         <v>0.54</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -7949,12 +7953,12 @@
         <v>51</v>
       </c>
       <c r="P9" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B10">
         <v>319</v>
@@ -7967,10 +7971,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>7</v>
@@ -7979,7 +7983,7 @@
         <v>0.03</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -7991,15 +7995,15 @@
         <v>43830</v>
       </c>
       <c r="O10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P10" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B11">
         <v>319</v>
@@ -8012,10 +8016,10 @@
         <v>Total Maximum Daily Loading (TMDL) for 2,3,7,8-TCDD in the Columbia River Basin</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>7</v>
@@ -8024,7 +8028,7 @@
         <v>0.02</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -8036,15 +8040,15 @@
         <v>43830</v>
       </c>
       <c r="O11" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P11" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B12" s="20">
         <v>1352</v>
@@ -8063,7 +8067,7 @@
         <v>263</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
@@ -8084,10 +8088,10 @@
         <v>43769</v>
       </c>
       <c r="P12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -8169,7 +8173,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -8298,7 +8302,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -8339,7 +8343,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -8383,7 +8387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -8424,7 +8428,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -8468,7 +8472,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -8509,7 +8513,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -8553,7 +8557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>163</v>
       </c>
@@ -8594,7 +8598,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -8638,7 +8642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -8679,7 +8683,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -8723,7 +8727,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -8764,7 +8768,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>164</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>165</v>
       </c>
@@ -8849,7 +8853,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>165</v>
       </c>
@@ -8893,7 +8897,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -8934,7 +8938,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -9019,7 +9023,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>166</v>
       </c>
@@ -9063,7 +9067,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>166</v>
       </c>
@@ -9148,7 +9152,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -9189,7 +9193,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -9233,7 +9237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -9274,7 +9278,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -9359,7 +9363,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>168</v>
       </c>
@@ -9403,7 +9407,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -9488,7 +9492,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -9573,7 +9577,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>160</v>
       </c>
@@ -9614,7 +9618,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -10362,7 +10366,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>158</v>
       </c>
@@ -10409,7 +10413,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -10459,7 +10463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>157</v>
       </c>
@@ -10506,7 +10510,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -10553,9 +10557,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(A70,geo_id_table!$A$2:$F$110,4,FALSE)</f>
@@ -10570,7 +10574,7 @@
         <v>Applegate Subbasin Total Maximum Daily Load (TMDL)</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>89</v>
@@ -10597,10 +10601,10 @@
         <v>177</v>
       </c>
       <c r="P70" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>311</v>
       </c>
@@ -10647,7 +10651,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -10697,7 +10701,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -10744,7 +10748,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>311</v>
       </c>
@@ -10794,7 +10798,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>314</v>
       </c>
@@ -10841,7 +10845,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>314</v>
       </c>
@@ -10888,7 +10892,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>302</v>
       </c>
@@ -10932,7 +10936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -10979,7 +10983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>302</v>
       </c>
@@ -11026,7 +11030,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>301</v>
       </c>
@@ -11073,7 +11077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>313</v>
       </c>
@@ -11120,7 +11124,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>313</v>
       </c>
@@ -11167,7 +11171,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>317</v>
       </c>
@@ -11211,7 +11215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>317</v>
       </c>
@@ -11258,7 +11262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>318</v>
       </c>
@@ -11305,7 +11309,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>318</v>
       </c>
@@ -11352,7 +11356,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>140</v>
       </c>
@@ -11399,7 +11403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -11493,7 +11497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>151</v>
       </c>
@@ -11537,7 +11541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -11581,7 +11585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>151</v>
       </c>
@@ -11625,7 +11629,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>151</v>
       </c>
@@ -11669,7 +11673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>151</v>
       </c>
@@ -11713,7 +11717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>151</v>
       </c>
@@ -11757,7 +11761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -11804,7 +11808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>141</v>
       </c>
@@ -11851,7 +11855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -11898,7 +11902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -11942,7 +11946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>149</v>
       </c>
@@ -11989,7 +11993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>149</v>
       </c>
@@ -12033,7 +12037,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>148</v>
       </c>
@@ -12080,7 +12084,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -12124,7 +12128,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>146</v>
       </c>
@@ -12171,7 +12175,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>145</v>
       </c>
@@ -12218,7 +12222,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>147</v>
       </c>
@@ -12265,7 +12269,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -12312,7 +12316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>143</v>
       </c>
@@ -12359,7 +12363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>143</v>
       </c>
@@ -12406,7 +12410,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>171</v>
       </c>
@@ -12453,7 +12457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -12500,7 +12504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -12547,7 +12551,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -12591,7 +12595,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -12635,7 +12639,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -12679,7 +12683,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -12723,7 +12727,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -12767,7 +12771,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -12811,7 +12815,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -12855,7 +12859,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -12899,7 +12903,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>174</v>
       </c>
@@ -12943,7 +12947,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -12987,7 +12991,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -13031,7 +13035,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -13075,7 +13079,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -13122,7 +13126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -13216,7 +13220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -13263,7 +13267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -13310,7 +13314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -13357,7 +13361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -13401,7 +13405,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -13445,7 +13449,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -13489,7 +13493,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>199</v>
       </c>
@@ -13530,7 +13534,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>199</v>
       </c>
@@ -13571,7 +13575,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>200</v>
       </c>
@@ -13612,7 +13616,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -13653,7 +13657,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>201</v>
       </c>
@@ -13694,7 +13698,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>201</v>
       </c>
@@ -13735,7 +13739,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>202</v>
       </c>
@@ -13776,7 +13780,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>202</v>
       </c>
@@ -13817,7 +13821,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>203</v>
       </c>
@@ -13858,7 +13862,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -13899,7 +13903,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>204</v>
       </c>
@@ -13940,7 +13944,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>204</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>205</v>
       </c>
@@ -14022,7 +14026,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>205</v>
       </c>
@@ -14063,7 +14067,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -14104,7 +14108,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>208</v>
       </c>
@@ -14145,7 +14149,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>209</v>
       </c>
@@ -14186,7 +14190,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -14227,7 +14231,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>210</v>
       </c>
@@ -14268,7 +14272,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>210</v>
       </c>
@@ -14309,7 +14313,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>206</v>
       </c>
@@ -14356,7 +14360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>206</v>
       </c>
@@ -14400,7 +14404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>206</v>
       </c>
@@ -14447,7 +14451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>206</v>
       </c>
@@ -14494,7 +14498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>206</v>
       </c>
@@ -14538,7 +14542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>206</v>
       </c>
@@ -14585,7 +14589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>211</v>
       </c>
@@ -14626,7 +14630,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>211</v>
       </c>
@@ -14667,7 +14671,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>212</v>
       </c>
@@ -14708,7 +14712,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>212</v>
       </c>
@@ -14749,7 +14753,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>213</v>
       </c>
@@ -14790,7 +14794,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>213</v>
       </c>
@@ -14831,7 +14835,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>214</v>
       </c>
@@ -14872,7 +14876,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>214</v>
       </c>
@@ -14913,7 +14917,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>215</v>
       </c>
@@ -14954,7 +14958,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>215</v>
       </c>
@@ -14995,7 +14999,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>216</v>
       </c>
@@ -15036,7 +15040,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -15077,7 +15081,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>225</v>
       </c>
@@ -15121,7 +15125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>225</v>
       </c>
@@ -15165,7 +15169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>218</v>
       </c>
@@ -15206,7 +15210,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>218</v>
       </c>
@@ -15247,7 +15251,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>220</v>
       </c>
@@ -15294,7 +15298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>220</v>
       </c>
@@ -15338,7 +15342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>220</v>
       </c>
@@ -15385,7 +15389,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>220</v>
       </c>
@@ -15432,7 +15436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>220</v>
       </c>
@@ -15476,7 +15480,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>220</v>
       </c>
@@ -15523,7 +15527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>221</v>
       </c>
@@ -15564,7 +15568,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>221</v>
       </c>
@@ -15605,7 +15609,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>222</v>
       </c>
@@ -15652,7 +15656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>222</v>
       </c>
@@ -15696,7 +15700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>222</v>
       </c>
@@ -15743,7 +15747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>223</v>
       </c>
@@ -15790,7 +15794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>223</v>
       </c>
@@ -15834,7 +15838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>223</v>
       </c>
@@ -15881,7 +15885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>223</v>
       </c>
@@ -15928,7 +15932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>223</v>
       </c>
@@ -15972,7 +15976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>223</v>
       </c>
@@ -16019,7 +16023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>224</v>
       </c>
@@ -16060,7 +16064,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>224</v>
       </c>
@@ -16101,7 +16105,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>226</v>
       </c>
@@ -16148,7 +16152,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>207</v>
       </c>
@@ -16198,7 +16202,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -16248,7 +16252,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>156</v>
       </c>
@@ -16342,7 +16346,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>155</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>154</v>
       </c>
@@ -16430,7 +16434,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>153</v>
       </c>
@@ -16474,7 +16478,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>152</v>
       </c>
@@ -16518,7 +16522,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>152</v>
       </c>
@@ -16566,6 +16570,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P204" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1362"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P204">
     <sortCondition ref="C2:C204"/>
     <sortCondition ref="A2:A204"/>
@@ -16579,11 +16590,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C21:C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16597,10 +16606,10 @@
         <v>267</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16693,123 +16702,134 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B10" s="23">
         <v>44046</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B11" s="23">
         <v>44049</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B12" s="23">
         <v>44118</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B13" s="23">
         <v>44466</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B14" s="23">
         <v>44516</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B15" s="23">
         <v>44523</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B16" s="23">
         <v>44663</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B17" s="23">
         <v>44803</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B18" s="23">
         <v>44818</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="B19" s="23">
         <v>44994</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
       <c r="B20" s="23">
         <v>45113</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>708</v>
+      </c>
+      <c r="B21" s="23">
+        <v>45180</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -16907,13 +16927,13 @@
         <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16927,7 +16947,7 @@
         <v>392</v>
       </c>
       <c r="D5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -16964,10 +16984,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -17004,16 +17024,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -17064,10 +17084,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -17084,10 +17104,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -17104,10 +17124,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D14" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -17124,10 +17144,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
@@ -17138,7 +17158,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -17158,7 +17178,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -17178,7 +17198,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -17187,27 +17207,27 @@
         <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D19" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>8</v>
@@ -17218,16 +17238,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D20" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>8</v>
@@ -17238,16 +17258,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>8</v>
@@ -17258,16 +17278,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D22" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>8</v>
@@ -17278,16 +17298,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D23" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>8</v>
@@ -17298,16 +17318,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D24" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -17318,16 +17338,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>8</v>
@@ -17338,16 +17358,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B26">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D26" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -17358,7 +17378,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -17473,7 +17493,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -17553,7 +17573,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17627,7 +17647,7 @@
         <v>328</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
@@ -17647,7 +17667,7 @@
         <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -17727,7 +17747,7 @@
         <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>270</v>
@@ -17747,7 +17767,7 @@
         <v>231</v>
       </c>
       <c r="D46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>270</v>
@@ -17787,7 +17807,7 @@
         <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
@@ -17844,7 +17864,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D51" t="s">
         <v>275</v>
@@ -17864,7 +17884,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D52" t="s">
         <v>344</v>

--- a/data_raw/TMDL_db_tabular.xlsx
+++ b/data_raw/TMDL_db_tabular.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateoforegon-my.sharepoint.com/personal/ryan_michie_deq_oregon_gov/Documents/GitHub/odeqtmdl/data_raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmichie\OneDrive - Oregon\GitHub\odeqtmdl\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="827" documentId="13_ncr:1_{3D373965-DAC5-45DB-8238-C75EE1AA3E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{102543A0-AB1D-4BD5-888E-19F4AE17588E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C94DA0A-2978-42DD-A0F7-F29F4E33C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="0" windowWidth="37770" windowHeight="21150" firstSheet="1" activeTab="5" xr2:uid="{237E5939-98D8-4581-8474-6D4C0E8B3701}"/>
+    <workbookView xWindow="21720" yWindow="210" windowWidth="22290" windowHeight="20940" firstSheet="1" activeTab="1" xr2:uid="{237E5939-98D8-4581-8474-6D4C0E8B3701}"/>
   </bookViews>
   <sheets>
     <sheet name="tmdl_actions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="tmdl_wqstd" sheetId="6" r:id="rId3"/>
     <sheet name="tmdl_geo_ids" sheetId="3" r:id="rId4"/>
     <sheet name="tmdl_targets" sheetId="4" r:id="rId5"/>
-    <sheet name="point_sources" sheetId="8" r:id="rId6"/>
+    <sheet name="tmdl_wla" sheetId="8" r:id="rId6"/>
     <sheet name="mapping_list" sheetId="5" r:id="rId7"/>
     <sheet name="Fields" sheetId="7" r:id="rId8"/>
     <sheet name="db_version" sheetId="9" r:id="rId9"/>
@@ -27,11 +27,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Fields!$A$1:$G$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">mapping_list!$A$2:$T$356</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">point_sources!$A$2:$M$636</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tmdl_actions!$A$2:$L$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">tmdl_geo_ids!$A$2:$F$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tmdl_parameters!$A$2:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tmdl_targets!$A$2:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">tmdl_wla!$A$2:$M$636</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tmdl_wqstd!$A$2:$C$282</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -6586,7 +6586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6875,14 +6875,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9505,8 +9497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B032A6-D817-4D80-A7CA-C5D43ADDFCFA}">
   <dimension ref="A1:H358"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
@@ -39969,9 +39961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB46F2BC-F017-40A2-93F2-B52D24CDD693}">
   <dimension ref="A1:M661"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D447" sqref="D447"/>
+      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51438,16 +51430,16 @@
       <c r="C443" s="9">
         <v>2008</v>
       </c>
-      <c r="D443" s="107" t="s">
+      <c r="D443" t="s">
         <v>774</v>
       </c>
-      <c r="E443" s="107" t="s">
+      <c r="E443" t="s">
         <v>647</v>
       </c>
-      <c r="F443" s="107" t="s">
+      <c r="F443" t="s">
         <v>773</v>
       </c>
-      <c r="G443" s="107">
+      <c r="G443">
         <v>98815</v>
       </c>
       <c r="H443" s="23" t="s">
@@ -53957,10 +53949,10 @@
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A540" s="105" t="s">
+      <c r="A540" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="B540" s="106" t="s">
+      <c r="B540" t="s">
         <v>230</v>
       </c>
       <c r="C540" s="9">
@@ -53969,7 +53961,7 @@
       <c r="D540" t="s">
         <v>1146</v>
       </c>
-      <c r="E540" s="106" t="s">
+      <c r="E540" t="s">
         <v>1113</v>
       </c>
       <c r="F540" t="s">
@@ -67189,7 +67181,7 @@
       <c r="Q207" s="62" t="s">
         <v>1223</v>
       </c>
-      <c r="R207" s="104" t="s">
+      <c r="R207" s="48" t="s">
         <v>2118</v>
       </c>
       <c r="S207" s="29"/>
@@ -67651,7 +67643,7 @@
       <c r="Q216" s="62" t="s">
         <v>1223</v>
       </c>
-      <c r="R216" s="104" t="s">
+      <c r="R216" s="48" t="s">
         <v>2118</v>
       </c>
       <c r="S216" s="29"/>

--- a/data_raw/TMDL_db_tabular.xlsx
+++ b/data_raw/TMDL_db_tabular.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateoforegon-my.sharepoint.com/personal/ryan_michie_deq_oregon_gov/Documents/GitHub/odeqtmdl/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{E32963C0-F504-4861-818E-45264BABBC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8D2B42-1F06-4B17-A1B5-98B569B9E88B}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{E32963C0-F504-4861-818E-45264BABBC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BEE57F6-13D3-4633-954C-775AC380674C}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="645" windowWidth="35955" windowHeight="18570" activeTab="1" xr2:uid="{237E5939-98D8-4581-8474-6D4C0E8B3701}"/>
+    <workbookView xWindow="16635" yWindow="1305" windowWidth="38700" windowHeight="15555" activeTab="2" xr2:uid="{237E5939-98D8-4581-8474-6D4C0E8B3701}"/>
   </bookViews>
   <sheets>
     <sheet name="tmdl_actions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tmdl_parameters!$A$2:$H$366</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tmdl_targets!$A$2:$U$281</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">tmdl_wla!$A$2:$M$712</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tmdl_wqstd!$A$2:$C$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tmdl_wqstd!$A$2:$C$297</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16233" uniqueCount="2470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16237" uniqueCount="2470">
   <si>
     <t>action_id</t>
   </si>
@@ -7018,9 +7018,6 @@
     <t>OR0027545</t>
   </si>
   <si>
-    <t>Creswell STP 20927</t>
-  </si>
-  <si>
     <t>ORG253504</t>
   </si>
   <si>
@@ -7466,6 +7463,9 @@
   </si>
   <si>
     <t>action_1380_TillamookBay_FecalColiform_Ecoli</t>
+  </si>
+  <si>
+    <t>Creswell STP</t>
   </si>
 </sst>
 </file>
@@ -10395,7 +10395,7 @@
         <v>2168</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C59" s="9">
         <v>2024</v>
@@ -10404,7 +10404,7 @@
         <v>151</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="F59" s="9" t="b">
         <v>1</v>
@@ -10420,7 +10420,7 @@
         <v>2165</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="L59" s="9"/>
     </row>
@@ -10429,7 +10429,7 @@
         <v>2169</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C60" s="9">
         <v>2024</v>
@@ -10438,7 +10438,7 @@
         <v>151</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="F60" s="9" t="b">
         <v>1</v>
@@ -10460,16 +10460,16 @@
     </row>
     <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B61" t="s">
         <v>2463</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2464</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E61" s="75" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="F61" s="9" t="b">
         <v>1</v>
@@ -10480,16 +10480,16 @@
     </row>
     <row r="62" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="F62" s="9" t="b">
         <v>1</v>
@@ -10502,10 +10502,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="107" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B63" s="26" t="s">
         <v>2455</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>2456</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9" t="s">
@@ -10648,9 +10648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B032A6-D817-4D80-A7CA-C5D43ADDFCFA}">
   <dimension ref="A1:H366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18762,7 +18762,7 @@
         <v>2168</v>
       </c>
       <c r="B352" s="29" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C352" s="29">
         <v>2024</v>
@@ -18784,7 +18784,7 @@
         <v>2169</v>
       </c>
       <c r="B353" s="29" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C353" s="29">
         <v>2024</v>
@@ -18803,10 +18803,10 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="47" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B354" s="29" t="s">
         <v>2463</v>
-      </c>
-      <c r="B354" s="29" t="s">
-        <v>2464</v>
       </c>
       <c r="C354" s="29"/>
       <c r="D354" s="29" t="s">
@@ -18823,10 +18823,10 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="47" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B355" s="29" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C355" s="29"/>
       <c r="D355" s="29" t="s">
@@ -18843,10 +18843,10 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B356" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B356" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C356" s="29"/>
       <c r="D356" s="29" t="s">
@@ -18863,10 +18863,10 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B357" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B357" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C357" s="29"/>
       <c r="D357" s="29" t="s">
@@ -18883,10 +18883,10 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B358" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B358" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C358" s="29"/>
       <c r="D358" s="29" t="s">
@@ -18903,10 +18903,10 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B359" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B359" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C359" s="29"/>
       <c r="D359" s="29" t="s">
@@ -18923,10 +18923,10 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B360" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B360" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C360" s="29"/>
       <c r="D360" s="29" t="s">
@@ -18943,10 +18943,10 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B361" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B361" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C361" s="29"/>
       <c r="D361" s="29" t="s">
@@ -18963,10 +18963,10 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B362" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B362" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C362" s="29"/>
       <c r="D362" s="29" t="s">
@@ -18983,10 +18983,10 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B363" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B363" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C363" s="29"/>
       <c r="D363" s="29" t="s">
@@ -19003,10 +19003,10 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B364" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B364" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C364" s="29"/>
       <c r="D364" s="29" t="s">
@@ -19023,10 +19023,10 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B365" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B365" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C365" s="29"/>
       <c r="D365" s="29" t="s">
@@ -19043,10 +19043,10 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="47" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B366" s="29" t="s">
         <v>2455</v>
-      </c>
-      <c r="B366" s="29" t="s">
-        <v>2456</v>
       </c>
       <c r="C366" s="29"/>
       <c r="D366" s="29" t="s">
@@ -19074,12 +19074,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96E5465-05D2-4735-B70B-EB75DBE4FA67}">
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19157,24 +19157,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>1876</v>
+        <v>167</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>559</v>
+        <v>1160</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -19182,10 +19182,10 @@
         <v>167</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1160</v>
+        <v>716</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -19196,7 +19196,7 @@
         <v>716</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -19204,10 +19204,10 @@
         <v>167</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -19218,7 +19218,7 @@
         <v>720</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -19226,10 +19226,10 @@
         <v>167</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -19240,7 +19240,7 @@
         <v>721</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -19248,7 +19248,7 @@
         <v>167</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>721</v>
+        <v>559</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -19259,10 +19259,10 @@
         <v>167</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -19270,10 +19270,10 @@
         <v>167</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>550</v>
+        <v>658</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -19281,10 +19281,10 @@
         <v>167</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>658</v>
+        <v>1159</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -19292,10 +19292,10 @@
         <v>167</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1159</v>
+        <v>722</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -19303,10 +19303,10 @@
         <v>167</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -19314,10 +19314,10 @@
         <v>167</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>556</v>
+        <v>723</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -19328,7 +19328,7 @@
         <v>723</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -19336,43 +19336,43 @@
         <v>167</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>723</v>
+        <v>544</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>167</v>
+        <v>1877</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>167</v>
+        <v>1884</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>1877</v>
+        <v>1884</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>550</v>
+        <v>1159</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -19380,10 +19380,10 @@
         <v>1884</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -19391,7 +19391,7 @@
         <v>1884</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1159</v>
+        <v>575</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -19402,10 +19402,10 @@
         <v>1884</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -19413,10 +19413,10 @@
         <v>1884</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -19424,87 +19424,87 @@
         <v>1884</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>648</v>
+        <v>544</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>1884</v>
+        <v>1860</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>648</v>
+        <v>1159</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>1884</v>
+        <v>1860</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>1884</v>
+        <v>1861</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>544</v>
+        <v>1159</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1159</v>
+        <v>556</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>556</v>
+        <v>1164</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1159</v>
+        <v>658</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>556</v>
+        <v>1159</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -19512,10 +19512,10 @@
         <v>1862</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1164</v>
+        <v>798</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -19523,10 +19523,10 @@
         <v>1862</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>658</v>
+        <v>1165</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -19534,10 +19534,10 @@
         <v>1862</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1159</v>
+        <v>556</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -19545,10 +19545,10 @@
         <v>1862</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>798</v>
+        <v>575</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -19556,10 +19556,10 @@
         <v>1862</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1165</v>
+        <v>648</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -19567,10 +19567,10 @@
         <v>1862</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -19578,43 +19578,43 @@
         <v>1862</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>648</v>
+        <v>798</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>594</v>
+        <v>648</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -19622,43 +19622,43 @@
         <v>1863</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>798</v>
+        <v>1160</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>648</v>
+        <v>550</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -19666,10 +19666,10 @@
         <v>1864</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -19677,10 +19677,10 @@
         <v>1864</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>550</v>
+        <v>1159</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -19688,7 +19688,7 @@
         <v>1864</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -19699,10 +19699,10 @@
         <v>1864</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -19710,10 +19710,10 @@
         <v>1864</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -19721,10 +19721,10 @@
         <v>1864</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>798</v>
+        <v>556</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -19732,10 +19732,10 @@
         <v>1864</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1163</v>
+        <v>648</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -19743,15 +19743,15 @@
         <v>1864</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>648</v>
@@ -19762,7 +19762,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>648</v>
@@ -19773,24 +19773,24 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>1865</v>
+        <v>172</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>648</v>
+        <v>556</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>1865</v>
+        <v>172</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>648</v>
+        <v>575</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -19798,10 +19798,10 @@
         <v>172</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -19809,15 +19809,15 @@
         <v>172</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>172</v>
+        <v>1727</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>648</v>
@@ -19828,7 +19828,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>172</v>
+        <v>1727</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>648</v>
@@ -19839,24 +19839,24 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>1727</v>
+        <v>1866</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>648</v>
+        <v>550</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>1727</v>
+        <v>1866</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>648</v>
+        <v>1159</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -19864,62 +19864,62 @@
         <v>1866</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>1866</v>
+        <v>161</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>1159</v>
+        <v>550</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>1866</v>
+        <v>159</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>161</v>
+        <v>1867</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>550</v>
+        <v>1159</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>159</v>
+        <v>1867</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C76">
         <v>11</v>
@@ -19927,90 +19927,90 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>544</v>
+        <v>1160</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>544</v>
+        <v>1159</v>
       </c>
       <c r="C78">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1158</v>
+        <v>550</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1160</v>
+        <v>648</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1159</v>
+        <v>648</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>550</v>
+        <v>658</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>648</v>
+        <v>798</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>648</v>
+        <v>575</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -20018,10 +20018,10 @@
         <v>1871</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -20029,87 +20029,87 @@
         <v>1871</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>798</v>
+        <v>648</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>648</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>648</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>648</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>648</v>
+        <v>1160</v>
       </c>
       <c r="C91">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>648</v>
+        <v>550</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>648</v>
+        <v>1159</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -20117,10 +20117,10 @@
         <v>1874</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -20128,10 +20128,10 @@
         <v>1874</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>550</v>
+        <v>1163</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -20139,10 +20139,10 @@
         <v>1874</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1159</v>
+        <v>556</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -20150,10 +20150,10 @@
         <v>1874</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1163</v>
+        <v>648</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -20161,10 +20161,10 @@
         <v>1874</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -20172,54 +20172,54 @@
         <v>1874</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>648</v>
+        <v>544</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>1874</v>
+        <v>1881</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>648</v>
+        <v>1167</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>1874</v>
+        <v>185</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>544</v>
+        <v>1168</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>1874</v>
+        <v>185</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="C102">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>1881</v>
+        <v>185</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1167</v>
+        <v>798</v>
       </c>
       <c r="C103">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -20227,10 +20227,10 @@
         <v>185</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1168</v>
+        <v>648</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -20238,26 +20238,26 @@
         <v>185</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>185</v>
+        <v>1885</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>798</v>
+        <v>550</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>185</v>
+        <v>1885</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>648</v>
@@ -20268,7 +20268,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>185</v>
+        <v>1885</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>648</v>
@@ -20279,35 +20279,35 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>1885</v>
+        <v>192</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>550</v>
+        <v>1168</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>1885</v>
+        <v>192</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>648</v>
+        <v>575</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>1885</v>
+        <v>192</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>648</v>
       </c>
       <c r="C111">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -20315,43 +20315,43 @@
         <v>192</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1168</v>
+        <v>648</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>575</v>
+        <v>1160</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C115">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -20359,10 +20359,10 @@
         <v>187</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1160</v>
+        <v>716</v>
       </c>
       <c r="C116">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -20370,10 +20370,10 @@
         <v>187</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="C117">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -20381,10 +20381,10 @@
         <v>187</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>637</v>
+        <v>720</v>
       </c>
       <c r="C118">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -20392,10 +20392,10 @@
         <v>187</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C119">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -20403,10 +20403,10 @@
         <v>187</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C120">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -20414,10 +20414,10 @@
         <v>187</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -20425,10 +20425,10 @@
         <v>187</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>720</v>
+        <v>550</v>
       </c>
       <c r="C122">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -20436,10 +20436,10 @@
         <v>187</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>721</v>
+        <v>1159</v>
       </c>
       <c r="C123">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -20447,10 +20447,10 @@
         <v>187</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>721</v>
+        <v>1163</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -20458,10 +20458,10 @@
         <v>187</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>550</v>
+        <v>1163</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -20469,7 +20469,7 @@
         <v>187</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>1159</v>
+        <v>575</v>
       </c>
       <c r="C126">
         <v>11</v>
@@ -20480,10 +20480,10 @@
         <v>187</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>1163</v>
+        <v>648</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -20491,10 +20491,10 @@
         <v>187</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -20502,32 +20502,32 @@
         <v>187</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>648</v>
+        <v>1167</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>648</v>
+        <v>1160</v>
       </c>
       <c r="C130">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>1167</v>
+        <v>637</v>
       </c>
       <c r="C131">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -20535,10 +20535,10 @@
         <v>194</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>1160</v>
+        <v>637</v>
       </c>
       <c r="C132">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -20546,7 +20546,7 @@
         <v>194</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="C133">
         <v>15</v>
@@ -20557,7 +20557,7 @@
         <v>194</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="C134">
         <v>16</v>
@@ -20568,7 +20568,7 @@
         <v>194</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C135">
         <v>15</v>
@@ -20579,7 +20579,7 @@
         <v>194</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C136">
         <v>16</v>
@@ -20590,7 +20590,7 @@
         <v>194</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C137">
         <v>15</v>
@@ -20601,7 +20601,7 @@
         <v>194</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C138">
         <v>16</v>
@@ -20612,10 +20612,10 @@
         <v>194</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>721</v>
+        <v>550</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -20623,10 +20623,10 @@
         <v>194</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>721</v>
+        <v>1159</v>
       </c>
       <c r="C140">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -20634,10 +20634,10 @@
         <v>194</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>550</v>
+        <v>1163</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -20645,10 +20645,10 @@
         <v>194</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="C142">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -20656,7 +20656,7 @@
         <v>194</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>1163</v>
+        <v>575</v>
       </c>
       <c r="C143">
         <v>11</v>
@@ -20667,10 +20667,10 @@
         <v>194</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -20681,7 +20681,7 @@
         <v>648</v>
       </c>
       <c r="C145">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -20689,21 +20689,21 @@
         <v>194</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>648</v>
+        <v>1167</v>
       </c>
       <c r="C146">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>1167</v>
+        <v>658</v>
       </c>
       <c r="C147">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -20711,7 +20711,7 @@
         <v>195</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -20722,10 +20722,10 @@
         <v>195</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>798</v>
+        <v>648</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -20736,18 +20736,18 @@
         <v>648</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>195</v>
+        <v>1859</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>648</v>
       </c>
       <c r="C151">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -20758,18 +20758,18 @@
         <v>648</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>1859</v>
+        <v>201</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>648</v>
+        <v>1158</v>
       </c>
       <c r="C153">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -20777,10 +20777,10 @@
         <v>201</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -20788,10 +20788,10 @@
         <v>201</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>1160</v>
+        <v>550</v>
       </c>
       <c r="C155">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -20799,10 +20799,10 @@
         <v>201</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>550</v>
+        <v>658</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -20810,10 +20810,10 @@
         <v>201</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>658</v>
+        <v>1159</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -20821,10 +20821,10 @@
         <v>201</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>1159</v>
+        <v>798</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -20832,10 +20832,10 @@
         <v>201</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>798</v>
+        <v>556</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -20843,10 +20843,10 @@
         <v>201</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="C160">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -20857,7 +20857,7 @@
         <v>648</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -20865,29 +20865,29 @@
         <v>201</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>648</v>
+        <v>544</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>544</v>
+        <v>1164</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>544</v>
+        <v>720</v>
       </c>
       <c r="C164">
         <v>15</v>
@@ -20898,10 +20898,10 @@
         <v>203</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>1164</v>
+        <v>720</v>
       </c>
       <c r="C165">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -20909,7 +20909,7 @@
         <v>203</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C166">
         <v>15</v>
@@ -20920,7 +20920,7 @@
         <v>203</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C167">
         <v>16</v>
@@ -20931,10 +20931,10 @@
         <v>203</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>721</v>
+        <v>550</v>
       </c>
       <c r="C168">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -20942,10 +20942,10 @@
         <v>203</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>721</v>
+        <v>658</v>
       </c>
       <c r="C169">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -20953,10 +20953,10 @@
         <v>203</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>550</v>
+        <v>798</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -20964,10 +20964,10 @@
         <v>203</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>658</v>
+        <v>1103</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -20975,10 +20975,10 @@
         <v>203</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>798</v>
+        <v>1116</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -20986,10 +20986,10 @@
         <v>203</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>1103</v>
+        <v>648</v>
       </c>
       <c r="C173">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -20997,10 +20997,10 @@
         <v>203</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>1116</v>
+        <v>648</v>
       </c>
       <c r="C174">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -21008,32 +21008,32 @@
         <v>203</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>648</v>
+        <v>594</v>
       </c>
       <c r="C175">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>203</v>
+        <v>1117</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="C176">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>203</v>
+        <v>1117</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>594</v>
+        <v>798</v>
       </c>
       <c r="C177">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -21041,10 +21041,10 @@
         <v>1117</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>658</v>
+        <v>556</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -21052,10 +21052,10 @@
         <v>1117</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>798</v>
+        <v>648</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -21063,32 +21063,32 @@
         <v>1117</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="C180">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>1117</v>
+        <v>1878</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>648</v>
+        <v>1158</v>
       </c>
       <c r="C181">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>1117</v>
+        <v>1878</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>648</v>
+        <v>1160</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -21096,7 +21096,7 @@
         <v>1878</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C183">
         <v>11</v>
@@ -21107,10 +21107,10 @@
         <v>1878</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="C184">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -21118,10 +21118,10 @@
         <v>1878</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -21129,7 +21129,7 @@
         <v>1878</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>1163</v>
+        <v>575</v>
       </c>
       <c r="C186">
         <v>11</v>
@@ -21137,13 +21137,13 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
       <c r="C187">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -21151,7 +21151,7 @@
         <v>1879</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -21162,10 +21162,10 @@
         <v>1879</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>798</v>
+        <v>575</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -21173,10 +21173,10 @@
         <v>1879</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="C190">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -21187,18 +21187,18 @@
         <v>648</v>
       </c>
       <c r="C191">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>1879</v>
+        <v>211</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="C192">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -21206,7 +21206,7 @@
         <v>211</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -21217,10 +21217,10 @@
         <v>211</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>798</v>
+        <v>648</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -21231,18 +21231,18 @@
         <v>648</v>
       </c>
       <c r="C195">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>648</v>
+        <v>1169</v>
       </c>
       <c r="C196">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -21253,7 +21253,7 @@
         <v>1169</v>
       </c>
       <c r="C197">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -21261,10 +21261,10 @@
         <v>209</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>1169</v>
+        <v>637</v>
       </c>
       <c r="C198">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -21275,7 +21275,7 @@
         <v>637</v>
       </c>
       <c r="C199">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -21283,10 +21283,10 @@
         <v>209</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="C200">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -21297,7 +21297,7 @@
         <v>716</v>
       </c>
       <c r="C201">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -21305,10 +21305,10 @@
         <v>209</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C202">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -21319,7 +21319,7 @@
         <v>720</v>
       </c>
       <c r="C203">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -21327,10 +21327,10 @@
         <v>209</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C204">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -21341,7 +21341,7 @@
         <v>721</v>
       </c>
       <c r="C205">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -21349,32 +21349,32 @@
         <v>209</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>721</v>
+        <v>658</v>
       </c>
       <c r="C206">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>209</v>
+      <c r="A207" s="4">
+        <v>35888</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="4">
-        <v>35888</v>
+      <c r="A208" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>798</v>
+        <v>1170</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -21382,10 +21382,10 @@
         <v>209</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C209">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -21393,10 +21393,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>1165</v>
+        <v>648</v>
       </c>
       <c r="C210">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -21407,18 +21407,18 @@
         <v>648</v>
       </c>
       <c r="C211">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>209</v>
+        <v>1880</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>648</v>
       </c>
       <c r="C212">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -21429,18 +21429,18 @@
         <v>648</v>
       </c>
       <c r="C213">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>1880</v>
+        <v>742</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="C214">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -21448,7 +21448,7 @@
         <v>742</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -21459,10 +21459,10 @@
         <v>742</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>798</v>
+        <v>648</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -21473,18 +21473,18 @@
         <v>648</v>
       </c>
       <c r="C217">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>742</v>
+        <v>1882</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>648</v>
+        <v>1168</v>
       </c>
       <c r="C218">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -21492,10 +21492,10 @@
         <v>1882</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>1168</v>
+        <v>550</v>
       </c>
       <c r="C219">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -21503,10 +21503,10 @@
         <v>1882</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>550</v>
+        <v>658</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -21514,7 +21514,7 @@
         <v>1882</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -21525,10 +21525,10 @@
         <v>1882</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>798</v>
+        <v>648</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -21539,18 +21539,18 @@
         <v>648</v>
       </c>
       <c r="C223">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>648</v>
+        <v>1160</v>
       </c>
       <c r="C224">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -21558,10 +21558,10 @@
         <v>1883</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>1160</v>
+        <v>550</v>
       </c>
       <c r="C225">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -21569,10 +21569,10 @@
         <v>1883</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>550</v>
+        <v>658</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -21580,7 +21580,7 @@
         <v>1883</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -21591,10 +21591,10 @@
         <v>1883</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>798</v>
+        <v>556</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -21602,10 +21602,10 @@
         <v>1883</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="C229">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -21616,18 +21616,18 @@
         <v>648</v>
       </c>
       <c r="C230">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>1883</v>
+        <v>216</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>648</v>
+        <v>1164</v>
       </c>
       <c r="C231">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -21635,10 +21635,10 @@
         <v>216</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C232">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -21646,10 +21646,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>1160</v>
+        <v>550</v>
       </c>
       <c r="C233">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -21657,10 +21657,10 @@
         <v>216</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>550</v>
+        <v>1159</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -21668,10 +21668,10 @@
         <v>216</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="C235">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -21682,7 +21682,7 @@
         <v>1163</v>
       </c>
       <c r="C236">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -21781,7 +21781,7 @@
         <v>1163</v>
       </c>
       <c r="C245">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -21789,10 +21789,10 @@
         <v>222</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>556</v>
+        <v>1163</v>
       </c>
       <c r="C246">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -21800,10 +21800,10 @@
         <v>222</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C247">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -21814,7 +21814,7 @@
         <v>544</v>
       </c>
       <c r="C248">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -21869,7 +21869,7 @@
         <v>1163</v>
       </c>
       <c r="C253">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -21877,21 +21877,21 @@
         <v>224</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>556</v>
+        <v>1163</v>
       </c>
       <c r="C254">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>648</v>
+        <v>556</v>
       </c>
       <c r="C255">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -21902,18 +21902,18 @@
         <v>648</v>
       </c>
       <c r="C256">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>1164</v>
+        <v>648</v>
       </c>
       <c r="C257">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -21921,10 +21921,10 @@
         <v>232</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="C258">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -21932,10 +21932,10 @@
         <v>232</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>550</v>
+        <v>1160</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -21943,10 +21943,10 @@
         <v>232</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>1159</v>
+        <v>550</v>
       </c>
       <c r="C260">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -21954,7 +21954,7 @@
         <v>232</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C261">
         <v>11</v>
@@ -21965,59 +21965,59 @@
         <v>232</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>556</v>
+        <v>1163</v>
       </c>
       <c r="C262">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>648</v>
+        <v>1163</v>
       </c>
       <c r="C263">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>648</v>
+        <v>556</v>
       </c>
       <c r="C264">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1103</v>
+        <v>648</v>
       </c>
       <c r="C265">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>1116</v>
+        <v>648</v>
       </c>
       <c r="C266">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>1103</v>
@@ -22028,7 +22028,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>1116</v>
@@ -22039,84 +22039,84 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>648</v>
+        <v>1103</v>
       </c>
       <c r="C269">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>648</v>
+        <v>1116</v>
       </c>
       <c r="C270">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>550</v>
+        <v>648</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B272" t="s">
-        <v>658</v>
+        <v>236</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>648</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>2163</v>
+        <v>238</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>658</v>
+        <v>550</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>2168</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>648</v>
+        <v>238</v>
+      </c>
+      <c r="B274" t="s">
+        <v>658</v>
       </c>
       <c r="C274">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
         <v>2168</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="C275">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="9" t="s">
-        <v>2169</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>648</v>
@@ -22126,8 +22126,8 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="9" t="s">
-        <v>2169</v>
+      <c r="A277" s="4" t="s">
+        <v>2168</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>648</v>
@@ -22137,8 +22137,8 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
-        <v>2463</v>
+      <c r="A278" s="9" t="s">
+        <v>2169</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>648</v>
@@ -22148,8 +22148,8 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
-        <v>2463</v>
+      <c r="A279" s="9" t="s">
+        <v>2169</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>648</v>
@@ -22160,7 +22160,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>2454</v>
+        <v>2462</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>648</v>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>2454</v>
+        <v>2462</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>648</v>
@@ -22182,85 +22182,107 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>1160</v>
+        <v>648</v>
       </c>
       <c r="C282">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>550</v>
+        <v>648</v>
       </c>
       <c r="C283">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>658</v>
+        <v>1160</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>798</v>
+        <v>550</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>556</v>
+        <v>658</v>
       </c>
       <c r="C286">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>648</v>
+        <v>798</v>
       </c>
       <c r="C287">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B288" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C288">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C288">
+      <c r="C289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C290">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C288">
-    <sortCondition ref="A3:A288"/>
-    <sortCondition ref="B3:B288"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C297">
+    <sortCondition ref="A3:A297"/>
+    <sortCondition ref="B3:B297"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41613,8 +41635,8 @@
   <dimension ref="A1:M898"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A875" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A811" sqref="A811:B892"/>
+      <pane ySplit="2" topLeftCell="A866" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G897" sqref="G897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41624,7 +41646,7 @@
     <col min="3" max="3" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="100.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="4" customWidth="1"/>
@@ -63586,25 +63608,25 @@
         <v>2169</v>
       </c>
       <c r="B811" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C811" s="4">
         <v>2024</v>
       </c>
       <c r="D811" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E811" t="s">
         <v>653</v>
       </c>
       <c r="F811" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G811">
         <v>126712</v>
       </c>
       <c r="H811" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
@@ -63612,25 +63634,25 @@
         <v>2169</v>
       </c>
       <c r="B812" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C812" s="4">
         <v>2024</v>
       </c>
       <c r="D812" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E812" t="s">
         <v>653</v>
       </c>
       <c r="F812" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G812">
         <v>126716</v>
       </c>
       <c r="H812" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="813" spans="1:13" x14ac:dyDescent="0.25">
@@ -63638,25 +63660,25 @@
         <v>2169</v>
       </c>
       <c r="B813" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C813" s="4">
         <v>2024</v>
       </c>
       <c r="D813" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E813" t="s">
         <v>653</v>
       </c>
       <c r="F813" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G813">
         <v>126717</v>
       </c>
       <c r="H813" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
@@ -63664,25 +63686,25 @@
         <v>2169</v>
       </c>
       <c r="B814" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C814" s="4">
         <v>2024</v>
       </c>
       <c r="D814" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E814" t="s">
         <v>653</v>
       </c>
       <c r="F814" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G814">
         <v>126699</v>
       </c>
       <c r="H814" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
@@ -63690,25 +63712,25 @@
         <v>2169</v>
       </c>
       <c r="B815" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C815" s="4">
         <v>2024</v>
       </c>
       <c r="D815" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E815" t="s">
         <v>653</v>
       </c>
       <c r="F815" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="G815">
         <v>126700</v>
       </c>
       <c r="H815" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.25">
@@ -63716,7 +63738,7 @@
         <v>2169</v>
       </c>
       <c r="B816" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C816" s="4">
         <v>2024</v>
@@ -63728,13 +63750,13 @@
         <v>653</v>
       </c>
       <c r="F816" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="G816">
         <v>97047</v>
       </c>
       <c r="H816" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.25">
@@ -63742,7 +63764,7 @@
         <v>2169</v>
       </c>
       <c r="B817" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C817" s="4">
         <v>2024</v>
@@ -63760,7 +63782,7 @@
         <v>96244</v>
       </c>
       <c r="H817" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.25">
@@ -63768,7 +63790,7 @@
         <v>2169</v>
       </c>
       <c r="B818" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C818" s="4">
         <v>2024</v>
@@ -63786,7 +63808,7 @@
         <v>96244</v>
       </c>
       <c r="H818" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.25">
@@ -63794,25 +63816,25 @@
         <v>2169</v>
       </c>
       <c r="B819" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C819" s="4">
         <v>2024</v>
       </c>
       <c r="D819" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="E819" t="s">
         <v>653</v>
       </c>
       <c r="F819" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="G819">
         <v>28393</v>
       </c>
       <c r="H819" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.25">
@@ -63820,25 +63842,25 @@
         <v>2169</v>
       </c>
       <c r="B820" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C820" s="4">
         <v>2024</v>
       </c>
       <c r="D820" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E820" t="s">
         <v>653</v>
       </c>
       <c r="F820" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="G820">
         <v>28393</v>
       </c>
       <c r="H820" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.25">
@@ -63846,25 +63868,25 @@
         <v>2169</v>
       </c>
       <c r="B821" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C821" s="4">
         <v>2024</v>
       </c>
       <c r="D821" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E821" t="s">
         <v>653</v>
       </c>
       <c r="F821" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="G821">
         <v>91035</v>
       </c>
       <c r="H821" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.25">
@@ -63872,7 +63894,7 @@
         <v>2169</v>
       </c>
       <c r="B822" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C822" s="4">
         <v>2024</v>
@@ -63898,7 +63920,7 @@
         <v>2169</v>
       </c>
       <c r="B823" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C823" s="4">
         <v>2024</v>
@@ -63916,7 +63938,7 @@
         <v>32536</v>
       </c>
       <c r="H823" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.25">
@@ -63924,25 +63946,25 @@
         <v>2169</v>
       </c>
       <c r="B824" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C824" s="4">
         <v>2024</v>
       </c>
       <c r="D824" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E824" t="s">
         <v>653</v>
       </c>
       <c r="F824" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="G824">
         <v>84820</v>
       </c>
       <c r="H824" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.25">
@@ -63950,7 +63972,7 @@
         <v>2169</v>
       </c>
       <c r="B825" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C825" s="4">
         <v>2024</v>
@@ -63976,7 +63998,7 @@
         <v>2169</v>
       </c>
       <c r="B826" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C826" s="4">
         <v>2024</v>
@@ -64002,7 +64024,7 @@
         <v>2169</v>
       </c>
       <c r="B827" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C827" s="4">
         <v>2024</v>
@@ -64020,7 +64042,7 @@
         <v>98815</v>
       </c>
       <c r="H827" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.25">
@@ -64028,25 +64050,25 @@
         <v>2169</v>
       </c>
       <c r="B828" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C828" s="4">
         <v>2024</v>
       </c>
       <c r="D828" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E828" t="s">
         <v>653</v>
       </c>
       <c r="F828" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="G828">
         <v>51447</v>
       </c>
       <c r="H828" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.25">
@@ -64054,7 +64076,7 @@
         <v>2169</v>
       </c>
       <c r="B829" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C829" s="4">
         <v>2024</v>
@@ -64080,25 +64102,25 @@
         <v>2169</v>
       </c>
       <c r="B830" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C830" s="4">
         <v>2024</v>
       </c>
       <c r="D830" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E830" t="s">
         <v>653</v>
       </c>
       <c r="F830" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="G830">
         <v>92762</v>
       </c>
       <c r="H830" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.25">
@@ -64106,25 +64128,25 @@
         <v>2169</v>
       </c>
       <c r="B831" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C831" s="4">
         <v>2024</v>
       </c>
       <c r="D831" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E831" t="s">
         <v>653</v>
       </c>
       <c r="F831" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="G831">
         <v>27866</v>
       </c>
       <c r="H831" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.25">
@@ -64132,7 +64154,7 @@
         <v>2169</v>
       </c>
       <c r="B832" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C832" s="4">
         <v>2024</v>
@@ -64150,7 +64172,7 @@
         <v>40494</v>
       </c>
       <c r="H832" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.25">
@@ -64158,7 +64180,7 @@
         <v>2169</v>
       </c>
       <c r="B833" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C833" s="4">
         <v>2024</v>
@@ -64176,7 +64198,7 @@
         <v>81395</v>
       </c>
       <c r="H833" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.25">
@@ -64184,7 +64206,7 @@
         <v>2169</v>
       </c>
       <c r="B834" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C834" s="4">
         <v>2024</v>
@@ -64210,25 +64232,25 @@
         <v>2169</v>
       </c>
       <c r="B835" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C835" s="4">
         <v>2024</v>
       </c>
       <c r="D835" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E835" t="s">
         <v>653</v>
       </c>
       <c r="F835" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="G835">
         <v>84791</v>
       </c>
       <c r="H835" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="836" spans="1:8" x14ac:dyDescent="0.25">
@@ -64236,7 +64258,7 @@
         <v>2169</v>
       </c>
       <c r="B836" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C836" s="4">
         <v>2024</v>
@@ -64254,7 +64276,7 @@
         <v>72596</v>
       </c>
       <c r="H836" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.25">
@@ -64262,7 +64284,7 @@
         <v>2169</v>
       </c>
       <c r="B837" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C837" s="4">
         <v>2024</v>
@@ -64280,7 +64302,7 @@
         <v>97070</v>
       </c>
       <c r="H837" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.25">
@@ -64288,7 +64310,7 @@
         <v>2169</v>
       </c>
       <c r="B838" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C838" s="4">
         <v>2024</v>
@@ -64314,7 +64336,7 @@
         <v>2169</v>
       </c>
       <c r="B839" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C839" s="4">
         <v>2024</v>
@@ -64326,13 +64348,13 @@
         <v>653</v>
       </c>
       <c r="F839" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="G839">
         <v>6553</v>
       </c>
       <c r="H839" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.25">
@@ -64340,25 +64362,25 @@
         <v>2169</v>
       </c>
       <c r="B840" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C840" s="4">
         <v>2024</v>
       </c>
       <c r="D840" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E840" t="s">
         <v>653</v>
       </c>
       <c r="F840" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="G840">
         <v>36646</v>
       </c>
       <c r="H840" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.25">
@@ -64366,25 +64388,25 @@
         <v>2169</v>
       </c>
       <c r="B841" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C841" s="4">
         <v>2024</v>
       </c>
       <c r="D841" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E841" t="s">
         <v>653</v>
       </c>
       <c r="F841" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="G841">
         <v>62886</v>
       </c>
       <c r="H841" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.25">
@@ -64392,7 +64414,7 @@
         <v>2169</v>
       </c>
       <c r="B842" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C842" s="4">
         <v>2024</v>
@@ -64410,7 +64432,7 @@
         <v>57613</v>
       </c>
       <c r="H842" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="843" spans="1:8" x14ac:dyDescent="0.25">
@@ -64418,25 +64440,25 @@
         <v>2169</v>
       </c>
       <c r="B843" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C843" s="4">
         <v>2024</v>
       </c>
       <c r="D843" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E843" t="s">
         <v>653</v>
       </c>
       <c r="F843" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="G843">
         <v>36320</v>
       </c>
       <c r="H843" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.25">
@@ -64444,7 +64466,7 @@
         <v>2169</v>
       </c>
       <c r="B844" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C844" s="4">
         <v>2024</v>
@@ -64470,7 +64492,7 @@
         <v>2169</v>
       </c>
       <c r="B845" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C845" s="4">
         <v>2024</v>
@@ -64488,7 +64510,7 @@
         <v>80207</v>
       </c>
       <c r="H845" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="846" spans="1:8" x14ac:dyDescent="0.25">
@@ -64496,25 +64518,25 @@
         <v>2169</v>
       </c>
       <c r="B846" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C846" s="4">
         <v>2024</v>
       </c>
       <c r="D846" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E846" t="s">
         <v>653</v>
       </c>
       <c r="F846" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="G846">
         <v>90948</v>
       </c>
       <c r="H846" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="847" spans="1:8" x14ac:dyDescent="0.25">
@@ -64522,25 +64544,25 @@
         <v>2169</v>
       </c>
       <c r="B847" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C847" s="4">
         <v>2024</v>
       </c>
       <c r="D847" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E847" t="s">
         <v>653</v>
       </c>
       <c r="F847" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="G847">
         <v>97246</v>
       </c>
       <c r="H847" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.25">
@@ -64548,7 +64570,7 @@
         <v>2169</v>
       </c>
       <c r="B848" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C848" s="4">
         <v>2024</v>
@@ -64560,13 +64582,13 @@
         <v>653</v>
       </c>
       <c r="F848" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G848">
         <v>44509</v>
       </c>
       <c r="H848" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.25">
@@ -64574,25 +64596,25 @@
         <v>2169</v>
       </c>
       <c r="B849" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C849" s="4">
         <v>2024</v>
       </c>
       <c r="D849" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="E849" t="s">
         <v>653</v>
       </c>
       <c r="F849" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="G849">
         <v>78615</v>
       </c>
       <c r="H849" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.25">
@@ -64600,7 +64622,7 @@
         <v>2169</v>
       </c>
       <c r="B850" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C850" s="4">
         <v>2024</v>
@@ -64612,13 +64634,13 @@
         <v>653</v>
       </c>
       <c r="F850" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="G850">
         <v>48854</v>
       </c>
       <c r="H850" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.25">
@@ -64626,7 +64648,7 @@
         <v>2169</v>
       </c>
       <c r="B851" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C851" s="4">
         <v>2024</v>
@@ -64638,13 +64660,13 @@
         <v>653</v>
       </c>
       <c r="F851" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="G851">
         <v>46990</v>
       </c>
       <c r="H851" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.25">
@@ -64652,7 +64674,7 @@
         <v>2169</v>
       </c>
       <c r="B852" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C852" s="4">
         <v>2024</v>
@@ -64670,7 +64692,7 @@
         <v>34040</v>
       </c>
       <c r="H852" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.25">
@@ -64678,7 +64700,7 @@
         <v>2169</v>
       </c>
       <c r="B853" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C853" s="4">
         <v>2024</v>
@@ -64696,7 +64718,7 @@
         <v>33060</v>
       </c>
       <c r="H853" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.25">
@@ -64704,7 +64726,7 @@
         <v>2169</v>
       </c>
       <c r="B854" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C854" s="4">
         <v>2024</v>
@@ -64722,7 +64744,7 @@
         <v>20927</v>
       </c>
       <c r="H854" t="s">
-        <v>2320</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.25">
@@ -64730,7 +64752,7 @@
         <v>2169</v>
       </c>
       <c r="B855" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C855" s="4">
         <v>2024</v>
@@ -64748,7 +64770,7 @@
         <v>96110</v>
       </c>
       <c r="H855" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.25">
@@ -64756,7 +64778,7 @@
         <v>2169</v>
       </c>
       <c r="B856" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C856" s="4">
         <v>2024</v>
@@ -64768,13 +64790,13 @@
         <v>653</v>
       </c>
       <c r="F856" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="G856">
         <v>64490</v>
       </c>
       <c r="H856" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.25">
@@ -64782,25 +64804,25 @@
         <v>2169</v>
       </c>
       <c r="B857" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C857" s="4">
         <v>2024</v>
       </c>
       <c r="D857" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E857" t="s">
         <v>653</v>
       </c>
       <c r="F857" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="G857">
         <v>64495</v>
       </c>
       <c r="H857" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.25">
@@ -64808,25 +64830,25 @@
         <v>2169</v>
       </c>
       <c r="B858" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C858" s="4">
         <v>2024</v>
       </c>
       <c r="D858" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E858" t="s">
         <v>653</v>
       </c>
       <c r="F858" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G858">
         <v>94805</v>
       </c>
       <c r="H858" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.25">
@@ -64834,7 +64856,7 @@
         <v>2169</v>
       </c>
       <c r="B859" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C859" s="4">
         <v>2024</v>
@@ -64852,7 +64874,7 @@
         <v>58707</v>
       </c>
       <c r="H859" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.25">
@@ -64860,25 +64882,25 @@
         <v>2169</v>
       </c>
       <c r="B860" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C860" s="4">
         <v>2024</v>
       </c>
       <c r="D860" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E860" t="s">
         <v>653</v>
       </c>
       <c r="F860" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="G860">
         <v>79633</v>
       </c>
       <c r="H860" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.25">
@@ -64886,7 +64908,7 @@
         <v>2169</v>
       </c>
       <c r="B861" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C861" s="4">
         <v>2024</v>
@@ -64898,13 +64920,13 @@
         <v>653</v>
       </c>
       <c r="F861" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="G861">
         <v>96244</v>
       </c>
       <c r="H861" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.25">
@@ -64912,7 +64934,7 @@
         <v>2169</v>
       </c>
       <c r="B862" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C862" s="4">
         <v>2024</v>
@@ -64924,13 +64946,13 @@
         <v>653</v>
       </c>
       <c r="F862" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="G862">
         <v>54370</v>
       </c>
       <c r="H862" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.25">
@@ -64938,7 +64960,7 @@
         <v>2169</v>
       </c>
       <c r="B863" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C863" s="4">
         <v>2024</v>
@@ -64956,7 +64978,7 @@
         <v>26788</v>
       </c>
       <c r="H863" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.25">
@@ -64964,7 +64986,7 @@
         <v>2169</v>
       </c>
       <c r="B864" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C864" s="4">
         <v>2024</v>
@@ -64982,7 +65004,7 @@
         <v>46000</v>
       </c>
       <c r="H864" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.25">
@@ -64990,25 +65012,25 @@
         <v>2169</v>
       </c>
       <c r="B865" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C865" s="4">
         <v>2024</v>
       </c>
       <c r="D865" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E865" t="s">
         <v>653</v>
       </c>
       <c r="F865" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="G865">
         <v>16592</v>
       </c>
       <c r="H865" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="866" spans="1:8" x14ac:dyDescent="0.25">
@@ -65016,7 +65038,7 @@
         <v>2169</v>
       </c>
       <c r="B866" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C866" s="4">
         <v>2024</v>
@@ -65042,25 +65064,25 @@
         <v>2169</v>
       </c>
       <c r="B867" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C867" s="4">
         <v>2024</v>
       </c>
       <c r="D867" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E867" t="s">
         <v>653</v>
       </c>
       <c r="F867" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="G867">
         <v>87425</v>
       </c>
       <c r="H867" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.25">
@@ -65068,7 +65090,7 @@
         <v>2169</v>
       </c>
       <c r="B868" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C868" s="4">
         <v>2024</v>
@@ -65094,7 +65116,7 @@
         <v>2169</v>
       </c>
       <c r="B869" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C869" s="4">
         <v>2024</v>
@@ -65120,7 +65142,7 @@
         <v>2169</v>
       </c>
       <c r="B870" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C870" s="4">
         <v>2024</v>
@@ -65146,25 +65168,25 @@
         <v>2169</v>
       </c>
       <c r="B871" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C871" s="4">
         <v>2024</v>
       </c>
       <c r="D871" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E871" t="s">
         <v>653</v>
       </c>
       <c r="F871" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="G871">
         <v>103468</v>
       </c>
       <c r="H871" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.25">
@@ -65172,25 +65194,25 @@
         <v>2169</v>
       </c>
       <c r="B872" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C872" s="4">
         <v>2024</v>
       </c>
       <c r="D872" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E872" t="s">
         <v>653</v>
       </c>
       <c r="F872" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="G872">
         <v>28830</v>
       </c>
       <c r="H872" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="873" spans="1:8" x14ac:dyDescent="0.25">
@@ -65198,7 +65220,7 @@
         <v>2169</v>
       </c>
       <c r="B873" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C873" s="4">
         <v>2024</v>
@@ -65224,7 +65246,7 @@
         <v>2169</v>
       </c>
       <c r="B874" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C874" s="4">
         <v>2024</v>
@@ -65242,7 +65264,7 @@
         <v>107228</v>
       </c>
       <c r="H874" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.25">
@@ -65250,7 +65272,7 @@
         <v>2169</v>
       </c>
       <c r="B875" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C875" s="4">
         <v>2024</v>
@@ -65268,7 +65290,7 @@
         <v>107178</v>
       </c>
       <c r="H875" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.25">
@@ -65276,7 +65298,7 @@
         <v>2169</v>
       </c>
       <c r="B876" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C876" s="4">
         <v>2024</v>
@@ -65302,25 +65324,25 @@
         <v>2169</v>
       </c>
       <c r="B877" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C877" s="4">
         <v>2024</v>
       </c>
       <c r="D877" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E877" t="s">
         <v>653</v>
       </c>
       <c r="F877" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="G877">
         <v>109727</v>
       </c>
       <c r="H877" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.25">
@@ -65328,7 +65350,7 @@
         <v>2169</v>
       </c>
       <c r="B878" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C878" s="4">
         <v>2024</v>
@@ -65354,7 +65376,7 @@
         <v>2169</v>
       </c>
       <c r="B879" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C879" s="4">
         <v>2024</v>
@@ -65380,7 +65402,7 @@
         <v>2169</v>
       </c>
       <c r="B880" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C880" s="4">
         <v>2024</v>
@@ -65392,13 +65414,13 @@
         <v>653</v>
       </c>
       <c r="F880" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="G880">
         <v>103159</v>
       </c>
       <c r="H880" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.25">
@@ -65406,7 +65428,7 @@
         <v>2169</v>
       </c>
       <c r="B881" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C881" s="4">
         <v>2024</v>
@@ -65432,7 +65454,7 @@
         <v>2169</v>
       </c>
       <c r="B882" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C882" s="4">
         <v>2024</v>
@@ -65444,13 +65466,13 @@
         <v>653</v>
       </c>
       <c r="F882" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="G882">
         <v>65610</v>
       </c>
       <c r="H882" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.25">
@@ -65458,7 +65480,7 @@
         <v>2169</v>
       </c>
       <c r="B883" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C883" s="4">
         <v>2024</v>
@@ -65470,13 +65492,13 @@
         <v>653</v>
       </c>
       <c r="F883" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="G883">
         <v>103774</v>
       </c>
       <c r="H883" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.25">
@@ -65484,7 +65506,7 @@
         <v>2169</v>
       </c>
       <c r="B884" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C884" s="4">
         <v>2024</v>
@@ -65496,13 +65518,13 @@
         <v>653</v>
       </c>
       <c r="F884" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="G884">
         <v>108298</v>
       </c>
       <c r="H884" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.25">
@@ -65510,7 +65532,7 @@
         <v>2169</v>
       </c>
       <c r="B885" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C885" s="4">
         <v>2024</v>
@@ -65536,7 +65558,7 @@
         <v>2169</v>
       </c>
       <c r="B886" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C886" s="4">
         <v>2024</v>
@@ -65562,7 +65584,7 @@
         <v>2169</v>
       </c>
       <c r="B887" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C887" s="4">
         <v>2024</v>
@@ -65574,13 +65596,13 @@
         <v>653</v>
       </c>
       <c r="F887" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="G887">
         <v>28385</v>
       </c>
       <c r="H887" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.25">
@@ -65588,7 +65610,7 @@
         <v>2169</v>
       </c>
       <c r="B888" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C888" s="4">
         <v>2024</v>
@@ -65606,7 +65628,7 @@
         <v>23650</v>
       </c>
       <c r="H888" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.25">
@@ -65614,13 +65636,13 @@
         <v>2169</v>
       </c>
       <c r="B889" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C889" s="4">
         <v>2024</v>
       </c>
       <c r="D889" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E889" t="s">
         <v>653</v>
@@ -65632,7 +65654,7 @@
         <v>81398</v>
       </c>
       <c r="H889" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.25">
@@ -65640,7 +65662,7 @@
         <v>2169</v>
       </c>
       <c r="B890" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C890" s="4">
         <v>2024</v>
@@ -65652,13 +65674,13 @@
         <v>653</v>
       </c>
       <c r="F890" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="G890">
         <v>22550</v>
       </c>
       <c r="H890" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.25">
@@ -65666,25 +65688,25 @@
         <v>2169</v>
       </c>
       <c r="B891" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C891" s="4">
         <v>2024</v>
       </c>
       <c r="D891" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="E891" t="s">
         <v>653</v>
       </c>
       <c r="F891" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="G891">
         <v>100075</v>
       </c>
       <c r="H891" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.25">
@@ -65692,25 +65714,25 @@
         <v>2169</v>
       </c>
       <c r="B892" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C892" s="4">
         <v>2024</v>
       </c>
       <c r="D892" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E892" t="s">
         <v>653</v>
       </c>
       <c r="F892" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="G892">
         <v>100048</v>
       </c>
       <c r="H892" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.25">
@@ -65718,7 +65740,7 @@
         <v>2168</v>
       </c>
       <c r="B893" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C893" s="4">
         <v>2024</v>
@@ -65736,7 +65758,7 @@
         <v>89941</v>
       </c>
       <c r="H893" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="894" spans="1:8" x14ac:dyDescent="0.25">
@@ -65744,7 +65766,7 @@
         <v>2168</v>
       </c>
       <c r="B894" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C894" s="4">
         <v>2024</v>
@@ -65756,13 +65778,13 @@
         <v>653</v>
       </c>
       <c r="F894" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="G894">
         <v>78615</v>
       </c>
       <c r="H894" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.25">
@@ -65770,7 +65792,7 @@
         <v>2168</v>
       </c>
       <c r="B895" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C895" s="4">
         <v>2024</v>
@@ -65788,7 +65810,7 @@
         <v>34136</v>
       </c>
       <c r="H895" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.25">
@@ -65796,7 +65818,7 @@
         <v>2168</v>
       </c>
       <c r="B896" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C896" s="4">
         <v>2024</v>
@@ -65814,7 +65836,7 @@
         <v>39750</v>
       </c>
       <c r="H896" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.25">
@@ -65822,7 +65844,7 @@
         <v>2168</v>
       </c>
       <c r="B897" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C897" s="4">
         <v>2024</v>
@@ -65840,7 +65862,7 @@
         <v>64550</v>
       </c>
       <c r="H897" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.25">
@@ -65848,7 +65870,7 @@
         <v>2168</v>
       </c>
       <c r="B898" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C898" s="4">
         <v>2024</v>
@@ -65866,7 +65888,7 @@
         <v>64550</v>
       </c>
       <c r="H898" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
   </sheetData>
@@ -69130,13 +69152,13 @@
         <v>1254</v>
       </c>
       <c r="L66" s="28" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="M66" s="63" t="s">
         <v>152</v>
       </c>
       <c r="N66" s="29" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="O66" s="63" t="s">
         <v>152</v>
@@ -70238,7 +70260,7 @@
         <v>1184</v>
       </c>
       <c r="N87" s="29" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="O87" s="63" t="s">
         <v>152</v>
@@ -76908,13 +76930,13 @@
       <c r="J219" s="28"/>
       <c r="K219" s="28"/>
       <c r="L219" s="29" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="M219" s="62" t="s">
         <v>1184</v>
       </c>
       <c r="N219" s="29" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="O219" s="62" t="s">
         <v>1184</v>
@@ -83298,7 +83320,7 @@
         <v>2168</v>
       </c>
       <c r="B350" s="29" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C350" s="12">
         <v>2024</v>
@@ -83330,7 +83352,7 @@
         <v>2169</v>
       </c>
       <c r="B351" s="29" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C351" s="12">
         <v>2024</v>

--- a/data_raw/TMDL_db_tabular.xlsx
+++ b/data_raw/TMDL_db_tabular.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateoforegon-my.sharepoint.com/personal/ryan_michie_deq_oregon_gov/Documents/GitHub/odeqtmdl/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{E32963C0-F504-4861-818E-45264BABBC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BEE57F6-13D3-4633-954C-775AC380674C}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{E32963C0-F504-4861-818E-45264BABBC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1EA8857-7528-4E5F-85E0-B0EA8EA4EC63}"/>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="1305" windowWidth="38700" windowHeight="15555" activeTab="2" xr2:uid="{237E5939-98D8-4581-8474-6D4C0E8B3701}"/>
+    <workbookView xWindow="2520" yWindow="3675" windowWidth="38700" windowHeight="15555" xr2:uid="{237E5939-98D8-4581-8474-6D4C0E8B3701}"/>
   </bookViews>
   <sheets>
     <sheet name="tmdl_actions" sheetId="1" r:id="rId1"/>
@@ -8265,9 +8265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C8E825-D4E0-4509-B94D-8C01C83B0F43}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10415,7 +10415,9 @@
       <c r="H59" s="11">
         <v>45510</v>
       </c>
-      <c r="I59" s="12"/>
+      <c r="I59" s="11">
+        <v>45547</v>
+      </c>
       <c r="J59" s="9" t="s">
         <v>2165</v>
       </c>
@@ -10449,7 +10451,9 @@
       <c r="H60" s="11">
         <v>45510</v>
       </c>
-      <c r="I60" s="12"/>
+      <c r="I60" s="11">
+        <v>45547</v>
+      </c>
       <c r="J60" s="9" t="s">
         <v>2165</v>
       </c>
@@ -10477,6 +10481,8 @@
       <c r="G61" s="9" t="s">
         <v>152</v>
       </c>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
     </row>
     <row r="62" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
@@ -10649,7 +10655,7 @@
   <dimension ref="A1:H366"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
@@ -19076,10 +19082,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96E5465-05D2-4735-B70B-EB75DBE4FA67}">
   <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22293,8 +22299,8 @@
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24937,12 +24943,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA231101-F152-45A3-BA3F-E6AD760A4A72}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U281"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
+      <pane ySplit="2" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A286" sqref="A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25100,7 +25105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>325</v>
       </c>
@@ -25161,7 +25166,7 @@
       </c>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -25222,7 +25227,7 @@
       </c>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -25283,7 +25288,7 @@
       </c>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -25344,7 +25349,7 @@
       </c>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>329</v>
       </c>
@@ -25405,7 +25410,7 @@
       </c>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>331</v>
       </c>
@@ -25463,7 +25468,7 @@
       </c>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>333</v>
       </c>
@@ -25521,7 +25526,7 @@
       </c>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>335</v>
       </c>
@@ -25581,7 +25586,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>337</v>
       </c>
@@ -25641,7 +25646,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>339</v>
       </c>
@@ -25699,7 +25704,7 @@
       </c>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>341</v>
       </c>
@@ -25759,7 +25764,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>343</v>
       </c>
@@ -25817,7 +25822,7 @@
       </c>
       <c r="U14"/>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -25877,7 +25882,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>347</v>
       </c>
@@ -25938,7 +25943,7 @@
       </c>
       <c r="U16"/>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>347</v>
       </c>
@@ -26001,7 +26006,7 @@
       </c>
       <c r="U17"/>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>347</v>
       </c>
@@ -26062,7 +26067,7 @@
       </c>
       <c r="U18"/>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>347</v>
       </c>
@@ -26125,7 +26130,7 @@
       </c>
       <c r="U19"/>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>349</v>
       </c>
@@ -26186,7 +26191,7 @@
       </c>
       <c r="U20"/>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>349</v>
       </c>
@@ -26249,7 +26254,7 @@
       </c>
       <c r="U21"/>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>349</v>
       </c>
@@ -26310,7 +26315,7 @@
       </c>
       <c r="U22"/>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>349</v>
       </c>
@@ -26373,7 +26378,7 @@
       </c>
       <c r="U23"/>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>351</v>
       </c>
@@ -26434,7 +26439,7 @@
       </c>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>351</v>
       </c>
@@ -26497,7 +26502,7 @@
       </c>
       <c r="U25"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>351</v>
       </c>
@@ -26558,7 +26563,7 @@
       </c>
       <c r="U26"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>351</v>
       </c>
@@ -26621,7 +26626,7 @@
       </c>
       <c r="U27"/>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>353</v>
       </c>
@@ -26682,7 +26687,7 @@
       </c>
       <c r="U28"/>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>353</v>
       </c>
@@ -26745,7 +26750,7 @@
       </c>
       <c r="U29"/>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -26806,7 +26811,7 @@
       </c>
       <c r="U30"/>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>353</v>
       </c>
@@ -26869,7 +26874,7 @@
       </c>
       <c r="U31"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -26930,7 +26935,7 @@
       </c>
       <c r="U32"/>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>355</v>
       </c>
@@ -26993,7 +26998,7 @@
       </c>
       <c r="U33"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>355</v>
       </c>
@@ -27054,7 +27059,7 @@
       </c>
       <c r="U34"/>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>355</v>
       </c>
@@ -27117,7 +27122,7 @@
       </c>
       <c r="U35"/>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>357</v>
       </c>
@@ -27178,7 +27183,7 @@
       </c>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>357</v>
       </c>
@@ -27241,7 +27246,7 @@
       </c>
       <c r="U37"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>357</v>
       </c>
@@ -27302,7 +27307,7 @@
       </c>
       <c r="U38"/>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>357</v>
       </c>
@@ -27365,7 +27370,7 @@
       </c>
       <c r="U39"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>359</v>
       </c>
@@ -27426,7 +27431,7 @@
       </c>
       <c r="U40"/>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>359</v>
       </c>
@@ -27489,7 +27494,7 @@
       </c>
       <c r="U41"/>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>359</v>
       </c>
@@ -27550,7 +27555,7 @@
       </c>
       <c r="U42"/>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>359</v>
       </c>
@@ -27613,7 +27618,7 @@
       </c>
       <c r="U43"/>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>361</v>
       </c>
@@ -27674,7 +27679,7 @@
       </c>
       <c r="U44"/>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>361</v>
       </c>
@@ -27737,7 +27742,7 @@
       </c>
       <c r="U45"/>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>361</v>
       </c>
@@ -27798,7 +27803,7 @@
       </c>
       <c r="U46"/>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>361</v>
       </c>
@@ -27861,7 +27866,7 @@
       </c>
       <c r="U47"/>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>363</v>
       </c>
@@ -27922,7 +27927,7 @@
       </c>
       <c r="U48"/>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>363</v>
       </c>
@@ -27985,7 +27990,7 @@
       </c>
       <c r="U49"/>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>363</v>
       </c>
@@ -28046,7 +28051,7 @@
       </c>
       <c r="U50"/>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>363</v>
       </c>
@@ -28109,7 +28114,7 @@
       </c>
       <c r="U51"/>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>365</v>
       </c>
@@ -28167,7 +28172,7 @@
       </c>
       <c r="U52"/>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>367</v>
       </c>
@@ -28227,7 +28232,7 @@
       </c>
       <c r="U53"/>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>367</v>
       </c>
@@ -28287,7 +28292,7 @@
       </c>
       <c r="U54"/>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>367</v>
       </c>
@@ -28330,7 +28335,7 @@
       </c>
       <c r="U55"/>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>367</v>
       </c>
@@ -28390,7 +28395,7 @@
       </c>
       <c r="U56"/>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>367</v>
       </c>
@@ -28450,7 +28455,7 @@
       </c>
       <c r="U57"/>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>367</v>
       </c>
@@ -28493,7 +28498,7 @@
       </c>
       <c r="U58"/>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>369</v>
       </c>
@@ -28551,7 +28556,7 @@
       </c>
       <c r="U59"/>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>371</v>
       </c>
@@ -28609,7 +28614,7 @@
       </c>
       <c r="U60"/>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -28667,7 +28672,7 @@
       </c>
       <c r="U61"/>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -28725,7 +28730,7 @@
       </c>
       <c r="U62"/>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>377</v>
       </c>
@@ -28783,7 +28788,7 @@
       </c>
       <c r="U63"/>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>379</v>
       </c>
@@ -28841,7 +28846,7 @@
       </c>
       <c r="U64"/>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>381</v>
       </c>
@@ -28899,7 +28904,7 @@
       </c>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>383</v>
       </c>
@@ -28957,7 +28962,7 @@
       </c>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>385</v>
       </c>
@@ -29015,7 +29020,7 @@
       </c>
       <c r="U67"/>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>387</v>
       </c>
@@ -29073,7 +29078,7 @@
       </c>
       <c r="U68"/>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>389</v>
       </c>
@@ -29131,7 +29136,7 @@
       </c>
       <c r="U69"/>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>391</v>
       </c>
@@ -29191,7 +29196,7 @@
       </c>
       <c r="U70"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>393</v>
       </c>
@@ -29249,7 +29254,7 @@
       </c>
       <c r="U71"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>395</v>
       </c>
@@ -29307,7 +29312,7 @@
       </c>
       <c r="U72"/>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>397</v>
       </c>
@@ -29595,7 +29600,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1717</v>
       </c>
@@ -29707,7 +29712,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1717</v>
       </c>
@@ -29881,7 +29886,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>399</v>
       </c>
@@ -29941,7 +29946,7 @@
       </c>
       <c r="U83"/>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>401</v>
       </c>
@@ -30000,7 +30005,7 @@
       <c r="T84"/>
       <c r="U84"/>
     </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>401</v>
       </c>
@@ -30058,7 +30063,7 @@
       <c r="T85"/>
       <c r="U85"/>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>403</v>
       </c>
@@ -30117,7 +30122,7 @@
       <c r="T86"/>
       <c r="U86"/>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>403</v>
       </c>
@@ -30176,7 +30181,7 @@
       <c r="T87"/>
       <c r="U87"/>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>409</v>
       </c>
@@ -30234,7 +30239,7 @@
       <c r="T88"/>
       <c r="U88"/>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>405</v>
       </c>
@@ -30291,7 +30296,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>405</v>
       </c>
@@ -30349,7 +30354,7 @@
       </c>
       <c r="U90"/>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>405</v>
       </c>
@@ -30409,7 +30414,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>405</v>
       </c>
@@ -30468,7 +30473,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>405</v>
       </c>
@@ -30524,7 +30529,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>406</v>
       </c>
@@ -30581,7 +30586,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>406</v>
       </c>
@@ -30639,7 +30644,7 @@
       </c>
       <c r="U95"/>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>406</v>
       </c>
@@ -30699,7 +30704,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>406</v>
       </c>
@@ -30758,7 +30763,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>406</v>
       </c>
@@ -30814,7 +30819,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>407</v>
       </c>
@@ -30871,7 +30876,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>407</v>
       </c>
@@ -30929,7 +30934,7 @@
       </c>
       <c r="U100"/>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>407</v>
       </c>
@@ -30989,7 +30994,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>407</v>
       </c>
@@ -31048,7 +31053,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>407</v>
       </c>
@@ -31104,7 +31109,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>408</v>
       </c>
@@ -31162,7 +31167,7 @@
       </c>
       <c r="U104"/>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -31223,7 +31228,7 @@
       </c>
       <c r="U105"/>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>408</v>
       </c>
@@ -31283,7 +31288,7 @@
       </c>
       <c r="U106"/>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>411</v>
       </c>
@@ -31341,7 +31346,7 @@
       </c>
       <c r="U107"/>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>411</v>
       </c>
@@ -31399,7 +31404,7 @@
       </c>
       <c r="U108"/>
     </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>411</v>
       </c>
@@ -31457,7 +31462,7 @@
       </c>
       <c r="U109"/>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>411</v>
       </c>
@@ -31515,7 +31520,7 @@
       </c>
       <c r="U110"/>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>413</v>
       </c>
@@ -31577,7 +31582,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>413</v>
       </c>
@@ -31639,7 +31644,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>415</v>
       </c>
@@ -31699,7 +31704,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>415</v>
       </c>
@@ -31759,7 +31764,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>415</v>
       </c>
@@ -31819,7 +31824,7 @@
       </c>
       <c r="U115"/>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>417</v>
       </c>
@@ -31879,7 +31884,7 @@
       </c>
       <c r="U116"/>
     </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>417</v>
       </c>
@@ -31939,7 +31944,7 @@
       </c>
       <c r="U117"/>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>419</v>
       </c>
@@ -31999,7 +32004,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>419</v>
       </c>
@@ -32062,7 +32067,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>421</v>
       </c>
@@ -32120,7 +32125,7 @@
       </c>
       <c r="U120"/>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>421</v>
       </c>
@@ -32178,7 +32183,7 @@
       </c>
       <c r="U121"/>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>423</v>
       </c>
@@ -32236,7 +32241,7 @@
       </c>
       <c r="U122"/>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>425</v>
       </c>
@@ -32296,7 +32301,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>425</v>
       </c>
@@ -32356,7 +32361,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>427</v>
       </c>
@@ -32416,7 +32421,7 @@
       </c>
       <c r="U125"/>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>427</v>
       </c>
@@ -32476,7 +32481,7 @@
       </c>
       <c r="U126"/>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -32536,7 +32541,7 @@
       </c>
       <c r="U127"/>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>427</v>
       </c>
@@ -32596,7 +32601,7 @@
       </c>
       <c r="U128"/>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -32656,7 +32661,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -32716,7 +32721,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -32774,7 +32779,7 @@
       </c>
       <c r="U131"/>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>431</v>
       </c>
@@ -32831,7 +32836,7 @@
       </c>
       <c r="U132"/>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>431</v>
       </c>
@@ -32888,7 +32893,7 @@
       </c>
       <c r="U133"/>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>431</v>
       </c>
@@ -32946,7 +32951,7 @@
       </c>
       <c r="U134"/>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>431</v>
       </c>
@@ -33003,7 +33008,7 @@
       </c>
       <c r="U135"/>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>431</v>
       </c>
@@ -33060,7 +33065,7 @@
       </c>
       <c r="U136"/>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>431</v>
       </c>
@@ -33118,7 +33123,7 @@
       </c>
       <c r="U137"/>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>431</v>
       </c>
@@ -33175,7 +33180,7 @@
       </c>
       <c r="U138"/>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>431</v>
       </c>
@@ -33233,7 +33238,7 @@
       </c>
       <c r="U139"/>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>431</v>
       </c>
@@ -33290,7 +33295,7 @@
       </c>
       <c r="U140"/>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>431</v>
       </c>
@@ -33347,7 +33352,7 @@
       </c>
       <c r="U141"/>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>431</v>
       </c>
@@ -33398,7 +33403,7 @@
       </c>
       <c r="U142"/>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>431</v>
       </c>
@@ -33445,7 +33450,7 @@
       </c>
       <c r="U143"/>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>431</v>
       </c>
@@ -33496,7 +33501,7 @@
       </c>
       <c r="U144"/>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>431</v>
       </c>
@@ -33554,7 +33559,7 @@
       </c>
       <c r="U145"/>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>431</v>
       </c>
@@ -33611,7 +33616,7 @@
       </c>
       <c r="U146"/>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>433</v>
       </c>
@@ -33662,7 +33667,7 @@
       </c>
       <c r="U147"/>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>433</v>
       </c>
@@ -33709,7 +33714,7 @@
       </c>
       <c r="U148"/>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>433</v>
       </c>
@@ -33760,7 +33765,7 @@
       </c>
       <c r="U149"/>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>435</v>
       </c>
@@ -33819,7 +33824,7 @@
       <c r="T150"/>
       <c r="U150"/>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>435</v>
       </c>
@@ -33876,7 +33881,7 @@
       </c>
       <c r="U151"/>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>435</v>
       </c>
@@ -33929,7 +33934,7 @@
       </c>
       <c r="U152"/>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>435</v>
       </c>
@@ -33986,7 +33991,7 @@
       </c>
       <c r="U153"/>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>435</v>
       </c>
@@ -34043,7 +34048,7 @@
       </c>
       <c r="U154"/>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>435</v>
       </c>
@@ -34100,7 +34105,7 @@
       </c>
       <c r="U155"/>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>435</v>
       </c>
@@ -34157,7 +34162,7 @@
       </c>
       <c r="U156"/>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>435</v>
       </c>
@@ -34214,7 +34219,7 @@
       </c>
       <c r="U157"/>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>437</v>
       </c>
@@ -34272,7 +34277,7 @@
       </c>
       <c r="U158"/>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>437</v>
       </c>
@@ -34330,7 +34335,7 @@
       </c>
       <c r="U159"/>
     </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>437</v>
       </c>
@@ -34390,7 +34395,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>1703</v>
       </c>
@@ -34449,7 +34454,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>439</v>
       </c>
@@ -34509,7 +34514,7 @@
       </c>
       <c r="U162"/>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>441</v>
       </c>
@@ -34570,7 +34575,7 @@
       </c>
       <c r="U163"/>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>441</v>
       </c>
@@ -34629,7 +34634,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>443</v>
       </c>
@@ -34689,7 +34694,7 @@
       </c>
       <c r="U165"/>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>445</v>
       </c>
@@ -34749,7 +34754,7 @@
       </c>
       <c r="U166"/>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>447</v>
       </c>
@@ -34809,7 +34814,7 @@
       </c>
       <c r="U167"/>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>449</v>
       </c>
@@ -34869,7 +34874,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>451</v>
       </c>
@@ -34929,7 +34934,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>451</v>
       </c>
@@ -34987,7 +34992,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>453</v>
       </c>
@@ -35047,7 +35052,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>453</v>
       </c>
@@ -35105,7 +35110,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>455</v>
       </c>
@@ -35161,7 +35166,7 @@
       <c r="T173"/>
       <c r="U173"/>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>457</v>
       </c>
@@ -35222,7 +35227,7 @@
       </c>
       <c r="U174"/>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>459</v>
       </c>
@@ -35283,7 +35288,7 @@
       </c>
       <c r="U175"/>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>461</v>
       </c>
@@ -35344,7 +35349,7 @@
       </c>
       <c r="U176"/>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>463</v>
       </c>
@@ -35405,7 +35410,7 @@
       </c>
       <c r="U177"/>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>465</v>
       </c>
@@ -35466,7 +35471,7 @@
       </c>
       <c r="U178"/>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>467</v>
       </c>
@@ -35527,7 +35532,7 @@
       </c>
       <c r="U179"/>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>469</v>
       </c>
@@ -35588,7 +35593,7 @@
       </c>
       <c r="U180"/>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>471</v>
       </c>
@@ -35649,7 +35654,7 @@
       </c>
       <c r="U181"/>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>473</v>
       </c>
@@ -35710,7 +35715,7 @@
       </c>
       <c r="U182"/>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>475</v>
       </c>
@@ -35771,7 +35776,7 @@
       </c>
       <c r="U183"/>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>477</v>
       </c>
@@ -35832,7 +35837,7 @@
       </c>
       <c r="U184"/>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>479</v>
       </c>
@@ -35893,7 +35898,7 @@
       </c>
       <c r="U185"/>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>481</v>
       </c>
@@ -35953,7 +35958,7 @@
       </c>
       <c r="U186"/>
     </row>
-    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>481</v>
       </c>
@@ -36013,7 +36018,7 @@
       </c>
       <c r="U187"/>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>481</v>
       </c>
@@ -36073,7 +36078,7 @@
       </c>
       <c r="U188"/>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>481</v>
       </c>
@@ -36133,7 +36138,7 @@
       </c>
       <c r="U189"/>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>481</v>
       </c>
@@ -36193,7 +36198,7 @@
       </c>
       <c r="U190"/>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>481</v>
       </c>
@@ -36253,7 +36258,7 @@
       </c>
       <c r="U191"/>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>483</v>
       </c>
@@ -36314,7 +36319,7 @@
       </c>
       <c r="U192"/>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>485</v>
       </c>
@@ -36375,7 +36380,7 @@
       </c>
       <c r="U193"/>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>487</v>
       </c>
@@ -36436,7 +36441,7 @@
       </c>
       <c r="U194"/>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>489</v>
       </c>
@@ -36494,7 +36499,7 @@
       </c>
       <c r="U195"/>
     </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>489</v>
       </c>
@@ -36552,7 +36557,7 @@
       </c>
       <c r="U196"/>
     </row>
-    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>491</v>
       </c>
@@ -36610,7 +36615,7 @@
       </c>
       <c r="U197"/>
     </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>491</v>
       </c>
@@ -36668,7 +36673,7 @@
       </c>
       <c r="U198"/>
     </row>
-    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>493</v>
       </c>
@@ -36726,7 +36731,7 @@
       </c>
       <c r="U199"/>
     </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>493</v>
       </c>
@@ -36784,7 +36789,7 @@
       </c>
       <c r="U200"/>
     </row>
-    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>495</v>
       </c>
@@ -36842,7 +36847,7 @@
       </c>
       <c r="U201"/>
     </row>
-    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>495</v>
       </c>
@@ -36900,7 +36905,7 @@
       </c>
       <c r="U202"/>
     </row>
-    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>497</v>
       </c>
@@ -36958,7 +36963,7 @@
       </c>
       <c r="U203"/>
     </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>497</v>
       </c>
@@ -37016,7 +37021,7 @@
       </c>
       <c r="U204"/>
     </row>
-    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>499</v>
       </c>
@@ -37074,7 +37079,7 @@
       </c>
       <c r="U205"/>
     </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>499</v>
       </c>
@@ -37132,7 +37137,7 @@
       </c>
       <c r="U206"/>
     </row>
-    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>501</v>
       </c>
@@ -37190,7 +37195,7 @@
       </c>
       <c r="U207"/>
     </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>501</v>
       </c>
@@ -37248,7 +37253,7 @@
       </c>
       <c r="U208"/>
     </row>
-    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>503</v>
       </c>
@@ -37306,7 +37311,7 @@
       </c>
       <c r="U209"/>
     </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>503</v>
       </c>
@@ -37364,7 +37369,7 @@
       </c>
       <c r="U210"/>
     </row>
-    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>505</v>
       </c>
@@ -37422,7 +37427,7 @@
       </c>
       <c r="U211"/>
     </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>505</v>
       </c>
@@ -37480,7 +37485,7 @@
       </c>
       <c r="U212"/>
     </row>
-    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>507</v>
       </c>
@@ -37538,7 +37543,7 @@
       </c>
       <c r="U213"/>
     </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>507</v>
       </c>
@@ -37596,7 +37601,7 @@
       </c>
       <c r="U214"/>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>509</v>
       </c>
@@ -37659,7 +37664,7 @@
       </c>
       <c r="U215"/>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>509</v>
       </c>
@@ -37720,7 +37725,7 @@
       </c>
       <c r="U216"/>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>509</v>
       </c>
@@ -37783,7 +37788,7 @@
       </c>
       <c r="U217"/>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>509</v>
       </c>
@@ -37844,7 +37849,7 @@
       </c>
       <c r="U218"/>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>509</v>
       </c>
@@ -37907,7 +37912,7 @@
       </c>
       <c r="U219"/>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>509</v>
       </c>
@@ -37968,7 +37973,7 @@
       </c>
       <c r="U220"/>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>511</v>
       </c>
@@ -38026,7 +38031,7 @@
       </c>
       <c r="U221"/>
     </row>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>511</v>
       </c>
@@ -38084,7 +38089,7 @@
       </c>
       <c r="U222"/>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>513</v>
       </c>
@@ -38142,7 +38147,7 @@
       </c>
       <c r="U223"/>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>513</v>
       </c>
@@ -38200,7 +38205,7 @@
       </c>
       <c r="U224"/>
     </row>
-    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>515</v>
       </c>
@@ -38258,7 +38263,7 @@
       </c>
       <c r="U225"/>
     </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>515</v>
       </c>
@@ -38316,7 +38321,7 @@
       </c>
       <c r="U226"/>
     </row>
-    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>517</v>
       </c>
@@ -38374,7 +38379,7 @@
       </c>
       <c r="U227"/>
     </row>
-    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>517</v>
       </c>
@@ -38432,7 +38437,7 @@
       </c>
       <c r="U228"/>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>519</v>
       </c>
@@ -38490,7 +38495,7 @@
       </c>
       <c r="U229"/>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>519</v>
       </c>
@@ -38548,7 +38553,7 @@
       </c>
       <c r="U230"/>
     </row>
-    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>521</v>
       </c>
@@ -38606,7 +38611,7 @@
       </c>
       <c r="U231"/>
     </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>521</v>
       </c>
@@ -38664,7 +38669,7 @@
       </c>
       <c r="U232"/>
     </row>
-    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>523</v>
       </c>
@@ -38722,7 +38727,7 @@
       </c>
       <c r="U233"/>
     </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>523</v>
       </c>
@@ -38780,7 +38785,7 @@
       </c>
       <c r="U234"/>
     </row>
-    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>525</v>
       </c>
@@ -38838,7 +38843,7 @@
       </c>
       <c r="U235"/>
     </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>525</v>
       </c>
@@ -38896,7 +38901,7 @@
       </c>
       <c r="U236"/>
     </row>
-    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>527</v>
       </c>
@@ -38959,7 +38964,7 @@
       </c>
       <c r="U237"/>
     </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>527</v>
       </c>
@@ -39020,7 +39025,7 @@
       </c>
       <c r="U238"/>
     </row>
-    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>527</v>
       </c>
@@ -39083,7 +39088,7 @@
       </c>
       <c r="U239"/>
     </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>527</v>
       </c>
@@ -39144,7 +39149,7 @@
       </c>
       <c r="U240"/>
     </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>527</v>
       </c>
@@ -39207,7 +39212,7 @@
       </c>
       <c r="U241"/>
     </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>527</v>
       </c>
@@ -39268,7 +39273,7 @@
       </c>
       <c r="U242"/>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>529</v>
       </c>
@@ -39326,7 +39331,7 @@
       </c>
       <c r="U243"/>
     </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>529</v>
       </c>
@@ -39384,7 +39389,7 @@
       </c>
       <c r="U244"/>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>531</v>
       </c>
@@ -39447,7 +39452,7 @@
       </c>
       <c r="U245"/>
     </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>531</v>
       </c>
@@ -39510,7 +39515,7 @@
       </c>
       <c r="U246"/>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>531</v>
       </c>
@@ -39573,7 +39578,7 @@
       </c>
       <c r="U247"/>
     </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>533</v>
       </c>
@@ -39636,7 +39641,7 @@
       </c>
       <c r="U248"/>
     </row>
-    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>533</v>
       </c>
@@ -39697,7 +39702,7 @@
       </c>
       <c r="U249"/>
     </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>533</v>
       </c>
@@ -39760,7 +39765,7 @@
       </c>
       <c r="U250"/>
     </row>
-    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>533</v>
       </c>
@@ -39821,7 +39826,7 @@
       </c>
       <c r="U251"/>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>533</v>
       </c>
@@ -39884,7 +39889,7 @@
       </c>
       <c r="U252"/>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>533</v>
       </c>
@@ -39945,7 +39950,7 @@
       </c>
       <c r="U253"/>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>535</v>
       </c>
@@ -40003,7 +40008,7 @@
       </c>
       <c r="U254"/>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>535</v>
       </c>
@@ -40061,7 +40066,7 @@
       </c>
       <c r="U255"/>
     </row>
-    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1757</v>
       </c>
@@ -40123,7 +40128,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1757</v>
       </c>
@@ -40185,7 +40190,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1757</v>
       </c>
@@ -40306,7 +40311,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>537</v>
       </c>
@@ -40367,7 +40372,7 @@
       </c>
       <c r="U260"/>
     </row>
-    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>539</v>
       </c>
@@ -40430,7 +40435,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>541</v>
       </c>
@@ -40493,7 +40498,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>542</v>
       </c>
@@ -40615,7 +40620,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>1979</v>
       </c>
@@ -40674,7 +40679,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>1979</v>
       </c>
@@ -40733,7 +40738,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>1979</v>
       </c>
@@ -40792,7 +40797,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>1979</v>
       </c>
@@ -40851,7 +40856,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>1979</v>
       </c>
@@ -40910,7 +40915,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>1979</v>
       </c>
@@ -40969,7 +40974,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>1979</v>
       </c>
@@ -41028,7 +41033,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>1979</v>
       </c>
@@ -41087,7 +41092,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>1979</v>
       </c>
@@ -41146,7 +41151,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>1979</v>
       </c>
@@ -41205,7 +41210,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1900</v>
       </c>
@@ -41382,7 +41387,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1904</v>
       </c>
@@ -41444,7 +41449,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1927</v>
       </c>
@@ -41503,7 +41508,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>2172</v>
       </c>
@@ -41556,7 +41561,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>2172</v>
       </c>
@@ -41613,13 +41618,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U281" xr:uid="{EA231101-F152-45A3-BA3F-E6AD760A4A72}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Effective Shade"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:U279">
     <sortCondition ref="A3:A279"/>
     <sortCondition ref="E3:E279"/>
@@ -41635,7 +41633,7 @@
   <dimension ref="A1:M898"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A866" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G897" sqref="G897"/>
     </sheetView>
   </sheetViews>
